--- a/Profits Possibilities .xlsx
+++ b/Profits Possibilities .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D266A814-1CE0-4DAB-8B7F-74E1A1D29B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B45C5EF-3365-44CA-9FE5-B443666ABDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="12">
   <si>
     <t>Day</t>
   </si>
@@ -75,6 +75,9 @@
   <si>
     <t>Extra 90 Days</t>
   </si>
+  <si>
+    <t>% GAIN</t>
+  </si>
 </sst>
 </file>
 
@@ -83,7 +86,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -151,6 +154,22 @@
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -282,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -414,6 +433,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -447,7 +475,13 @@
     <xf numFmtId="10" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -785,7 +819,7 @@
     <col min="8" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="50" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1" spans="2:6" s="53" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -2526,13 +2560,13 @@
       </c>
     </row>
     <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="47" t="s">
+      <c r="B93" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C93" s="48"/>
-      <c r="D93" s="48"/>
-      <c r="E93" s="48"/>
-      <c r="F93" s="49"/>
+      <c r="C93" s="51"/>
+      <c r="D93" s="51"/>
+      <c r="E93" s="51"/>
+      <c r="F93" s="52"/>
     </row>
     <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="43">
@@ -4289,11 +4323,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -5523,12 +5557,12 @@
       <c r="B66" s="1">
         <v>64</v>
       </c>
-      <c r="C66" s="55" t="s">
+      <c r="C66" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="56"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="57"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="60"/>
       <c r="G66" s="32"/>
     </row>
     <row r="67" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -5798,11 +5832,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -6832,12 +6866,12 @@
       <c r="B56" s="1">
         <v>64</v>
       </c>
-      <c r="C56" s="55" t="s">
+      <c r="C56" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="57"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="60"/>
     </row>
     <row r="57" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
@@ -7107,11 +7141,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8895,11 +8929,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10664,10 +10698,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:G153"/>
+  <dimension ref="B1:I153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10679,18 +10713,20 @@
     <col min="5" max="5" width="20.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="30.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" style="44" customWidth="1"/>
-    <col min="8" max="16384" width="14.42578125" style="2"/>
+    <col min="8" max="8" width="14.42578125" style="61"/>
+    <col min="9" max="9" width="14.42578125" style="48"/>
+    <col min="10" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+    <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -10706,8 +10742,14 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -10725,8 +10767,15 @@
         <f>11000+(11000*E3)</f>
         <v>12210</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="61">
+        <f>(F3-I2)/I2</f>
+        <v>0.11</v>
+      </c>
+      <c r="I3" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -10744,8 +10793,15 @@
         <f>F3+(F3*E4)</f>
         <v>13553.1</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="61">
+        <f t="shared" ref="H4:H62" si="1">(F4-I3)/I3</f>
+        <v>0.23210000000000003</v>
+      </c>
+      <c r="I4" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -10763,8 +10819,15 @@
         <f>F4+(F4*E5)</f>
         <v>15043.941000000001</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="61">
+        <f t="shared" si="1"/>
+        <v>0.36763100000000004</v>
+      </c>
+      <c r="I5" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -10782,8 +10845,15 @@
         <f>F5+(F5*E6)</f>
         <v>16698.774509999999</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="61">
+        <f t="shared" si="1"/>
+        <v>0.51807040999999998</v>
+      </c>
+      <c r="I6" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -10798,11 +10868,18 @@
         <v>0.11</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" ref="F7:F62" si="1">F6+(F6*E7)</f>
+        <f t="shared" ref="F7:F62" si="2">F6+(F6*E7)</f>
         <v>18535.639706099999</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="61">
+        <f t="shared" si="1"/>
+        <v>0.6850581550999999</v>
+      </c>
+      <c r="I7" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -10817,11 +10894,18 @@
         <v>0.11</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20574.560073770997</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="61">
+        <f t="shared" si="1"/>
+        <v>0.87041455216099972</v>
+      </c>
+      <c r="I8" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6">
         <v>7</v>
       </c>
@@ -10836,11 +10920,18 @@
         <v>0.11</v>
       </c>
       <c r="F9" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22837.761681885808</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="63">
+        <f t="shared" si="1"/>
+        <v>1.0761601528987097</v>
+      </c>
+      <c r="I9" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -10855,11 +10946,18 @@
         <v>0.11</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25349.915466893246</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H10" s="61">
+        <f t="shared" si="1"/>
+        <v>1.3045377697175677</v>
+      </c>
+      <c r="I10" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -10874,11 +10972,18 @@
         <v>0.11</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28138.406168251502</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H11" s="61">
+        <f t="shared" si="1"/>
+        <v>1.5580369243865002</v>
+      </c>
+      <c r="I11" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -10893,11 +10998,18 @@
         <v>0.11</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31233.630846759166</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="61">
+        <f t="shared" si="1"/>
+        <v>1.8394209860690152</v>
+      </c>
+      <c r="I12" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -10912,11 +11024,18 @@
         <v>0.11</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34669.330239902672</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="61">
+        <f t="shared" si="1"/>
+        <v>2.1517572945366066</v>
+      </c>
+      <c r="I13" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -10931,11 +11050,18 @@
         <v>0.11</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38482.956566291963</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="61">
+        <f t="shared" si="1"/>
+        <v>2.498450596935633</v>
+      </c>
+      <c r="I14" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -10950,11 +11076,18 @@
         <v>0.11</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42716.081788584081</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="61">
+        <f t="shared" si="1"/>
+        <v>2.8832801625985529</v>
+      </c>
+      <c r="I15" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6">
         <v>14</v>
       </c>
@@ -10969,11 +11102,18 @@
         <v>0.11</v>
       </c>
       <c r="F16" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47414.85078532833</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="63">
+        <f t="shared" si="1"/>
+        <v>3.3104409804843935</v>
+      </c>
+      <c r="I16" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -10988,11 +11128,18 @@
         <v>0.11</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52630.484371714447</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="61">
+        <f t="shared" si="1"/>
+        <v>3.7845894883376769</v>
+      </c>
+      <c r="I17" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -11007,11 +11154,18 @@
         <v>0.11</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58419.837652603033</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H18" s="61">
+        <f t="shared" si="1"/>
+        <v>4.3108943320548212</v>
+      </c>
+      <c r="I18" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -11026,11 +11180,18 @@
         <v>0.11</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64846.019794389365</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="61">
+        <f t="shared" si="1"/>
+        <v>4.8950927085808518</v>
+      </c>
+      <c r="I19" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -11045,11 +11206,18 @@
         <v>0.11</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71979.08197177219</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H20" s="61">
+        <f t="shared" si="1"/>
+        <v>5.5435529065247442</v>
+      </c>
+      <c r="I20" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -11064,11 +11232,18 @@
         <v>0.11</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79896.780988667131</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H21" s="61">
+        <f t="shared" si="1"/>
+        <v>6.263343726242466</v>
+      </c>
+      <c r="I21" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -11083,11 +11258,18 @@
         <v>0.11</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88685.426897420519</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="61">
+        <f t="shared" si="1"/>
+        <v>7.0623115361291378</v>
+      </c>
+      <c r="I22" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="6">
         <v>21</v>
       </c>
@@ -11102,11 +11284,18 @@
         <v>0.11</v>
       </c>
       <c r="F23" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98440.823856136776</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="63">
+        <f t="shared" si="1"/>
+        <v>7.9491658051033429</v>
+      </c>
+      <c r="I23" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -11121,11 +11310,18 @@
         <v>0.11</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>109269.31448031182</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="61">
+        <f t="shared" si="1"/>
+        <v>8.9335740436647111</v>
+      </c>
+      <c r="I24" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -11140,11 +11336,18 @@
         <v>0.11</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>121288.93907314612</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="61">
+        <f t="shared" si="1"/>
+        <v>10.026267188467829</v>
+      </c>
+      <c r="I25" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -11159,11 +11362,18 @@
         <v>0.11</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>134630.72237119218</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H26" s="61">
+        <f t="shared" si="1"/>
+        <v>11.239156579199289</v>
+      </c>
+      <c r="I26" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -11178,11 +11388,18 @@
         <v>0.11</v>
       </c>
       <c r="F27" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>149440.10183202333</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="61">
+        <f t="shared" si="1"/>
+        <v>12.585463802911212</v>
+      </c>
+      <c r="I27" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -11197,11 +11414,18 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F28" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>159900.90896026496</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="61">
+        <f t="shared" si="1"/>
+        <v>13.536446269114997</v>
+      </c>
+      <c r="I28" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -11216,11 +11440,18 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F29" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>171093.9725874835</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H29" s="61">
+        <f t="shared" si="1"/>
+        <v>14.553997507953046</v>
+      </c>
+      <c r="I29" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -11235,11 +11466,18 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F30" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>183070.55066860735</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H30" s="61">
+        <f t="shared" si="1"/>
+        <v>15.642777333509759</v>
+      </c>
+      <c r="I30" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -11254,11 +11492,18 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>195885.48921540988</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H31" s="61">
+        <f t="shared" si="1"/>
+        <v>16.807771746855444</v>
+      </c>
+      <c r="I31" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="35">
         <v>30</v>
       </c>
@@ -11268,20 +11513,27 @@
       <c r="D32" s="41">
         <v>7</v>
       </c>
-      <c r="E32" s="58">
+      <c r="E32" s="47">
         <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F32" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>209597.47346048857</v>
       </c>
       <c r="G32" s="45">
         <f>F32-F3</f>
         <v>197387.47346048857</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H32" s="63">
+        <f t="shared" si="1"/>
+        <v>18.054315769135325</v>
+      </c>
+      <c r="I32" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>31</v>
       </c>
@@ -11296,11 +11548,18 @@
         <v>0.05</v>
       </c>
       <c r="F33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>220077.34713351302</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H33" s="61">
+        <f t="shared" si="1"/>
+        <v>19.007031557592093</v>
+      </c>
+      <c r="I33" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>32</v>
       </c>
@@ -11315,11 +11574,18 @@
         <v>0.05</v>
       </c>
       <c r="F34" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>231081.21449018866</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H34" s="61">
+        <f t="shared" si="1"/>
+        <v>20.007383135471695</v>
+      </c>
+      <c r="I34" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>33</v>
       </c>
@@ -11334,11 +11600,18 @@
         <v>0.05</v>
       </c>
       <c r="F35" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>242635.27521469811</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H35" s="61">
+        <f t="shared" si="1"/>
+        <v>21.057752292245283</v>
+      </c>
+      <c r="I35" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>34</v>
       </c>
@@ -11353,11 +11626,18 @@
         <v>0.05</v>
       </c>
       <c r="F36" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>254767.03897543301</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H36" s="61">
+        <f t="shared" si="1"/>
+        <v>22.160639906857547</v>
+      </c>
+      <c r="I36" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>35</v>
       </c>
@@ -11372,11 +11652,18 @@
         <v>0.05</v>
       </c>
       <c r="F37" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>267505.39092420466</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H37" s="61">
+        <f t="shared" si="1"/>
+        <v>23.318671902200425</v>
+      </c>
+      <c r="I37" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>36</v>
       </c>
@@ -11391,11 +11678,18 @@
         <v>0.05</v>
       </c>
       <c r="F38" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>280880.66047041491</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H38" s="61">
+        <f t="shared" si="1"/>
+        <v>24.534605497310444</v>
+      </c>
+      <c r="I38" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="6">
         <v>37</v>
       </c>
@@ -11410,11 +11704,18 @@
         <v>0.05</v>
       </c>
       <c r="F39" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>294924.69349393563</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H39" s="63">
+        <f t="shared" si="1"/>
+        <v>25.811335772175966</v>
+      </c>
+      <c r="I39" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>38</v>
       </c>
@@ -11429,11 +11730,18 @@
         <v>0.05</v>
       </c>
       <c r="F40" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>309670.92816863244</v>
       </c>
-    </row>
-    <row r="41" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H40" s="61">
+        <f t="shared" si="1"/>
+        <v>27.151902560784766</v>
+      </c>
+      <c r="I40" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <v>39</v>
       </c>
@@ -11448,11 +11756,18 @@
         <v>0.03</v>
       </c>
       <c r="F41" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>318961.05601369141</v>
       </c>
-    </row>
-    <row r="42" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H41" s="61">
+        <f t="shared" si="1"/>
+        <v>27.996459637608311</v>
+      </c>
+      <c r="I41" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>40</v>
       </c>
@@ -11467,11 +11782,18 @@
         <v>0.03</v>
       </c>
       <c r="F42" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>328529.88769410213</v>
       </c>
-    </row>
-    <row r="43" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H42" s="61">
+        <f t="shared" si="1"/>
+        <v>28.866353426736556</v>
+      </c>
+      <c r="I42" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1">
         <v>41</v>
       </c>
@@ -11486,11 +11808,18 @@
         <v>0.03</v>
       </c>
       <c r="F43" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>338385.78432492522</v>
       </c>
-    </row>
-    <row r="44" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H43" s="61">
+        <f t="shared" si="1"/>
+        <v>29.762344029538657</v>
+      </c>
+      <c r="I43" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
         <v>42</v>
       </c>
@@ -11505,11 +11834,18 @@
         <v>0.03</v>
       </c>
       <c r="F44" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>348537.357854673</v>
       </c>
-    </row>
-    <row r="45" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H44" s="61">
+        <f t="shared" si="1"/>
+        <v>30.685214350424818</v>
+      </c>
+      <c r="I44" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <v>43</v>
       </c>
@@ -11524,11 +11860,18 @@
         <v>0.03</v>
       </c>
       <c r="F45" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>358993.47859031317</v>
       </c>
-    </row>
-    <row r="46" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H45" s="61">
+        <f t="shared" si="1"/>
+        <v>31.635770780937563</v>
+      </c>
+      <c r="I45" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="6">
         <v>44</v>
       </c>
@@ -11543,11 +11886,18 @@
         <v>0.02</v>
       </c>
       <c r="F46" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>366173.34816211945</v>
       </c>
-    </row>
-    <row r="47" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H46" s="63">
+        <f t="shared" si="1"/>
+        <v>32.288486196556313</v>
+      </c>
+      <c r="I46" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
         <v>45</v>
       </c>
@@ -11562,11 +11912,18 @@
         <v>0.02</v>
       </c>
       <c r="F47" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>373496.81512536184</v>
       </c>
-    </row>
-    <row r="48" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H47" s="61">
+        <f t="shared" si="1"/>
+        <v>32.954255920487441</v>
+      </c>
+      <c r="I47" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
         <v>46</v>
       </c>
@@ -11581,11 +11938,18 @@
         <v>0.02</v>
       </c>
       <c r="F48" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>380966.75142786908</v>
       </c>
-    </row>
-    <row r="49" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H48" s="61">
+        <f t="shared" si="1"/>
+        <v>33.633341038897186</v>
+      </c>
+      <c r="I48" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1">
         <v>47</v>
       </c>
@@ -11600,11 +11964,18 @@
         <v>0.02</v>
       </c>
       <c r="F49" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>388586.08645642648</v>
       </c>
-    </row>
-    <row r="50" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H49" s="61">
+        <f t="shared" si="1"/>
+        <v>34.326007859675137</v>
+      </c>
+      <c r="I49" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
         <v>48</v>
       </c>
@@ -11619,11 +11990,18 @@
         <v>0.02</v>
       </c>
       <c r="F50" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>396357.80818555498</v>
       </c>
-    </row>
-    <row r="51" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H50" s="61">
+        <f t="shared" si="1"/>
+        <v>35.032528016868632</v>
+      </c>
+      <c r="I50" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
         <v>49</v>
       </c>
@@ -11638,11 +12016,18 @@
         <v>0.02</v>
       </c>
       <c r="F51" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>404284.96434926608</v>
       </c>
-    </row>
-    <row r="52" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H51" s="61">
+        <f t="shared" si="1"/>
+        <v>35.753178577206008</v>
+      </c>
+      <c r="I51" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
         <v>50</v>
       </c>
@@ -11657,11 +12042,18 @@
         <v>0.02</v>
       </c>
       <c r="F52" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>412370.66363625141</v>
       </c>
-    </row>
-    <row r="53" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H52" s="61">
+        <f t="shared" si="1"/>
+        <v>36.488242148750125</v>
+      </c>
+      <c r="I52" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B53" s="6">
         <v>51</v>
       </c>
@@ -11676,11 +12068,18 @@
         <v>0.02</v>
       </c>
       <c r="F53" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>420618.07690897642</v>
       </c>
-    </row>
-    <row r="54" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H53" s="63">
+        <f t="shared" si="1"/>
+        <v>37.238006991725129</v>
+      </c>
+      <c r="I53" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" s="1">
         <v>52</v>
       </c>
@@ -11695,11 +12094,18 @@
         <v>0.02</v>
       </c>
       <c r="F54" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>429030.43844715593</v>
       </c>
-    </row>
-    <row r="55" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H54" s="61">
+        <f t="shared" si="1"/>
+        <v>38.002767131559629</v>
+      </c>
+      <c r="I54" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B55" s="1">
         <v>53</v>
       </c>
@@ -11714,11 +12120,18 @@
         <v>0.02</v>
       </c>
       <c r="F55" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>437611.04721609905</v>
       </c>
-    </row>
-    <row r="56" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H55" s="61">
+        <f t="shared" si="1"/>
+        <v>38.782822474190823</v>
+      </c>
+      <c r="I55" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B56" s="1">
         <v>54</v>
       </c>
@@ -11733,11 +12146,18 @@
         <v>0.02</v>
       </c>
       <c r="F56" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>446363.26816042105</v>
       </c>
-    </row>
-    <row r="57" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H56" s="61">
+        <f t="shared" si="1"/>
+        <v>39.578478923674638</v>
+      </c>
+      <c r="I56" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
         <v>55</v>
       </c>
@@ -11752,11 +12172,18 @@
         <v>0.02</v>
       </c>
       <c r="F57" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>455290.53352362948</v>
       </c>
-    </row>
-    <row r="58" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H57" s="61">
+        <f t="shared" si="1"/>
+        <v>40.390048502148133</v>
+      </c>
+      <c r="I57" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B58" s="1">
         <v>56</v>
       </c>
@@ -11771,11 +12198,18 @@
         <v>0.02</v>
       </c>
       <c r="F58" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>464396.34419410204</v>
       </c>
-    </row>
-    <row r="59" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H58" s="61">
+        <f t="shared" si="1"/>
+        <v>41.217849472191098</v>
+      </c>
+      <c r="I58" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B59" s="1">
         <v>57</v>
       </c>
@@ -11790,11 +12224,18 @@
         <v>0.02</v>
       </c>
       <c r="F59" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>473684.27107798407</v>
       </c>
-    </row>
-    <row r="60" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H59" s="61">
+        <f t="shared" si="1"/>
+        <v>42.062206461634915</v>
+      </c>
+      <c r="I59" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B60" s="1">
         <v>58</v>
       </c>
@@ -11809,11 +12250,18 @@
         <v>0.02</v>
       </c>
       <c r="F60" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>483157.95649954374</v>
       </c>
-    </row>
-    <row r="61" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H60" s="61">
+        <f t="shared" si="1"/>
+        <v>42.92345059086761</v>
+      </c>
+      <c r="I60" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B61" s="1">
         <v>59</v>
       </c>
@@ -11828,11 +12276,18 @@
         <v>0.02</v>
       </c>
       <c r="F61" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>492821.11562953459</v>
       </c>
-    </row>
-    <row r="62" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H61" s="61">
+        <f t="shared" si="1"/>
+        <v>43.801919602684961</v>
+      </c>
+      <c r="I61" s="49">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B62" s="35">
         <v>60</v>
       </c>
@@ -11847,12 +12302,19 @@
         <v>0.02</v>
       </c>
       <c r="F62" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>502677.53794212529</v>
       </c>
       <c r="G62" s="45">
         <f>F62-F32</f>
         <v>293080.06448163674</v>
+      </c>
+      <c r="H62" s="63">
+        <f t="shared" si="1"/>
+        <v>44.697957994738665</v>
+      </c>
+      <c r="I62" s="49">
+        <v>11000</v>
       </c>
     </row>
     <row r="93" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11895,11 +12357,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -13498,12 +13960,12 @@
       <c r="B86" s="1">
         <v>84</v>
       </c>
-      <c r="C86" s="52" t="s">
+      <c r="C86" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D86" s="53"/>
-      <c r="E86" s="53"/>
-      <c r="F86" s="54"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="57"/>
     </row>
     <row r="87" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B87" s="1">
@@ -13591,11 +14053,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -15051,12 +15513,12 @@
       <c r="B78" s="1">
         <v>81</v>
       </c>
-      <c r="C78" s="55" t="s">
+      <c r="C78" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D78" s="56"/>
-      <c r="E78" s="56"/>
-      <c r="F78" s="57"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="60"/>
     </row>
     <row r="79" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B79" s="1">
@@ -15172,11 +15634,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -15775,12 +16237,12 @@
       <c r="B33" s="1">
         <v>31</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="57"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="60"/>
       <c r="G33" s="32"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16338,11 +16800,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -17500,11 +17962,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -18325,12 +18787,12 @@
       <c r="B45" s="1">
         <v>49</v>
       </c>
-      <c r="C45" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="54"/>
+      <c r="C45" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="57"/>
     </row>
     <row r="46" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" s="1">

--- a/Profits Possibilities .xlsx
+++ b/Profits Possibilities .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B45C5EF-3365-44CA-9FE5-B443666ABDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9F6140-CB98-473B-9353-7F454820F357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,7 +166,7 @@
     <font>
       <b/>
       <sz val="8"/>
-      <color rgb="FF000000"/>
+      <color theme="6"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -436,10 +436,13 @@
     <xf numFmtId="9" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -475,13 +478,10 @@
     <xf numFmtId="10" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -819,7 +819,7 @@
     <col min="8" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="53" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1" spans="2:6" s="54" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -2560,13 +2560,13 @@
       </c>
     </row>
     <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="50" t="s">
+      <c r="B93" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C93" s="51"/>
-      <c r="D93" s="51"/>
-      <c r="E93" s="51"/>
-      <c r="F93" s="52"/>
+      <c r="C93" s="52"/>
+      <c r="D93" s="52"/>
+      <c r="E93" s="52"/>
+      <c r="F93" s="53"/>
     </row>
     <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="43">
@@ -4323,11 +4323,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -5557,12 +5557,12 @@
       <c r="B66" s="1">
         <v>64</v>
       </c>
-      <c r="C66" s="58" t="s">
+      <c r="C66" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="59"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="61"/>
       <c r="G66" s="32"/>
     </row>
     <row r="67" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -5832,11 +5832,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -6866,12 +6866,12 @@
       <c r="B56" s="1">
         <v>64</v>
       </c>
-      <c r="C56" s="58" t="s">
+      <c r="C56" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="60"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="61"/>
     </row>
     <row r="57" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
@@ -7141,11 +7141,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8929,11 +8929,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10701,7 +10701,7 @@
   <dimension ref="B1:I153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10713,17 +10713,17 @@
     <col min="5" max="5" width="20.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="30.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" style="44" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="61"/>
-    <col min="9" max="9" width="14.42578125" style="48"/>
+    <col min="8" max="8" width="14.42578125" style="48"/>
+    <col min="9" max="9" width="14.42578125" style="62"/>
     <col min="10" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10742,10 +10742,10 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="49">
+      <c r="I2" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -10767,11 +10767,11 @@
         <f>11000+(11000*E3)</f>
         <v>12210</v>
       </c>
-      <c r="H3" s="61">
+      <c r="H3" s="48">
         <f>(F3-I2)/I2</f>
         <v>0.11</v>
       </c>
-      <c r="I3" s="49">
+      <c r="I3" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -10793,11 +10793,11 @@
         <f>F3+(F3*E4)</f>
         <v>13553.1</v>
       </c>
-      <c r="H4" s="61">
+      <c r="H4" s="48">
         <f t="shared" ref="H4:H62" si="1">(F4-I3)/I3</f>
         <v>0.23210000000000003</v>
       </c>
-      <c r="I4" s="49">
+      <c r="I4" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -10819,11 +10819,11 @@
         <f>F4+(F4*E5)</f>
         <v>15043.941000000001</v>
       </c>
-      <c r="H5" s="61">
+      <c r="H5" s="48">
         <f t="shared" si="1"/>
         <v>0.36763100000000004</v>
       </c>
-      <c r="I5" s="49">
+      <c r="I5" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -10845,11 +10845,11 @@
         <f>F5+(F5*E6)</f>
         <v>16698.774509999999</v>
       </c>
-      <c r="H6" s="61">
+      <c r="H6" s="48">
         <f t="shared" si="1"/>
         <v>0.51807040999999998</v>
       </c>
-      <c r="I6" s="49">
+      <c r="I6" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -10871,11 +10871,11 @@
         <f t="shared" ref="F7:F62" si="2">F6+(F6*E7)</f>
         <v>18535.639706099999</v>
       </c>
-      <c r="H7" s="61">
+      <c r="H7" s="48">
         <f t="shared" si="1"/>
         <v>0.6850581550999999</v>
       </c>
-      <c r="I7" s="49">
+      <c r="I7" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -10897,11 +10897,11 @@
         <f t="shared" si="2"/>
         <v>20574.560073770997</v>
       </c>
-      <c r="H8" s="61">
+      <c r="H8" s="48">
         <f t="shared" si="1"/>
         <v>0.87041455216099972</v>
       </c>
-      <c r="I8" s="49">
+      <c r="I8" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -10923,11 +10923,11 @@
         <f t="shared" si="2"/>
         <v>22837.761681885808</v>
       </c>
-      <c r="H9" s="63">
+      <c r="H9" s="50">
         <f t="shared" si="1"/>
         <v>1.0761601528987097</v>
       </c>
-      <c r="I9" s="49">
+      <c r="I9" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -10949,11 +10949,11 @@
         <f t="shared" si="2"/>
         <v>25349.915466893246</v>
       </c>
-      <c r="H10" s="61">
+      <c r="H10" s="48">
         <f t="shared" si="1"/>
         <v>1.3045377697175677</v>
       </c>
-      <c r="I10" s="49">
+      <c r="I10" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -10975,11 +10975,11 @@
         <f t="shared" si="2"/>
         <v>28138.406168251502</v>
       </c>
-      <c r="H11" s="61">
+      <c r="H11" s="48">
         <f t="shared" si="1"/>
         <v>1.5580369243865002</v>
       </c>
-      <c r="I11" s="49">
+      <c r="I11" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11001,11 +11001,11 @@
         <f t="shared" si="2"/>
         <v>31233.630846759166</v>
       </c>
-      <c r="H12" s="61">
+      <c r="H12" s="48">
         <f t="shared" si="1"/>
         <v>1.8394209860690152</v>
       </c>
-      <c r="I12" s="49">
+      <c r="I12" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11027,11 +11027,11 @@
         <f t="shared" si="2"/>
         <v>34669.330239902672</v>
       </c>
-      <c r="H13" s="61">
+      <c r="H13" s="48">
         <f t="shared" si="1"/>
         <v>2.1517572945366066</v>
       </c>
-      <c r="I13" s="49">
+      <c r="I13" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11053,11 +11053,11 @@
         <f t="shared" si="2"/>
         <v>38482.956566291963</v>
       </c>
-      <c r="H14" s="61">
+      <c r="H14" s="48">
         <f t="shared" si="1"/>
         <v>2.498450596935633</v>
       </c>
-      <c r="I14" s="49">
+      <c r="I14" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11079,11 +11079,11 @@
         <f t="shared" si="2"/>
         <v>42716.081788584081</v>
       </c>
-      <c r="H15" s="61">
+      <c r="H15" s="48">
         <f t="shared" si="1"/>
         <v>2.8832801625985529</v>
       </c>
-      <c r="I15" s="49">
+      <c r="I15" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11105,11 +11105,11 @@
         <f t="shared" si="2"/>
         <v>47414.85078532833</v>
       </c>
-      <c r="H16" s="63">
+      <c r="H16" s="50">
         <f t="shared" si="1"/>
         <v>3.3104409804843935</v>
       </c>
-      <c r="I16" s="49">
+      <c r="I16" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11131,11 +11131,11 @@
         <f t="shared" si="2"/>
         <v>52630.484371714447</v>
       </c>
-      <c r="H17" s="61">
+      <c r="H17" s="48">
         <f t="shared" si="1"/>
         <v>3.7845894883376769</v>
       </c>
-      <c r="I17" s="49">
+      <c r="I17" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11157,11 +11157,11 @@
         <f t="shared" si="2"/>
         <v>58419.837652603033</v>
       </c>
-      <c r="H18" s="61">
+      <c r="H18" s="48">
         <f t="shared" si="1"/>
         <v>4.3108943320548212</v>
       </c>
-      <c r="I18" s="49">
+      <c r="I18" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11183,11 +11183,11 @@
         <f t="shared" si="2"/>
         <v>64846.019794389365</v>
       </c>
-      <c r="H19" s="61">
+      <c r="H19" s="48">
         <f t="shared" si="1"/>
         <v>4.8950927085808518</v>
       </c>
-      <c r="I19" s="49">
+      <c r="I19" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11209,11 +11209,11 @@
         <f t="shared" si="2"/>
         <v>71979.08197177219</v>
       </c>
-      <c r="H20" s="61">
+      <c r="H20" s="48">
         <f t="shared" si="1"/>
         <v>5.5435529065247442</v>
       </c>
-      <c r="I20" s="49">
+      <c r="I20" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11235,11 +11235,11 @@
         <f t="shared" si="2"/>
         <v>79896.780988667131</v>
       </c>
-      <c r="H21" s="61">
+      <c r="H21" s="48">
         <f t="shared" si="1"/>
         <v>6.263343726242466</v>
       </c>
-      <c r="I21" s="49">
+      <c r="I21" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11261,11 +11261,11 @@
         <f t="shared" si="2"/>
         <v>88685.426897420519</v>
       </c>
-      <c r="H22" s="61">
+      <c r="H22" s="48">
         <f t="shared" si="1"/>
         <v>7.0623115361291378</v>
       </c>
-      <c r="I22" s="49">
+      <c r="I22" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11287,11 +11287,11 @@
         <f t="shared" si="2"/>
         <v>98440.823856136776</v>
       </c>
-      <c r="H23" s="63">
+      <c r="H23" s="50">
         <f t="shared" si="1"/>
         <v>7.9491658051033429</v>
       </c>
-      <c r="I23" s="49">
+      <c r="I23" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11313,11 +11313,11 @@
         <f t="shared" si="2"/>
         <v>109269.31448031182</v>
       </c>
-      <c r="H24" s="61">
+      <c r="H24" s="48">
         <f t="shared" si="1"/>
         <v>8.9335740436647111</v>
       </c>
-      <c r="I24" s="49">
+      <c r="I24" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11339,11 +11339,11 @@
         <f t="shared" si="2"/>
         <v>121288.93907314612</v>
       </c>
-      <c r="H25" s="61">
+      <c r="H25" s="48">
         <f t="shared" si="1"/>
         <v>10.026267188467829</v>
       </c>
-      <c r="I25" s="49">
+      <c r="I25" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11365,11 +11365,11 @@
         <f t="shared" si="2"/>
         <v>134630.72237119218</v>
       </c>
-      <c r="H26" s="61">
+      <c r="H26" s="48">
         <f t="shared" si="1"/>
         <v>11.239156579199289</v>
       </c>
-      <c r="I26" s="49">
+      <c r="I26" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11391,11 +11391,11 @@
         <f t="shared" si="2"/>
         <v>149440.10183202333</v>
       </c>
-      <c r="H27" s="61">
+      <c r="H27" s="48">
         <f t="shared" si="1"/>
         <v>12.585463802911212</v>
       </c>
-      <c r="I27" s="49">
+      <c r="I27" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11417,11 +11417,11 @@
         <f t="shared" si="2"/>
         <v>159900.90896026496</v>
       </c>
-      <c r="H28" s="61">
+      <c r="H28" s="48">
         <f t="shared" si="1"/>
         <v>13.536446269114997</v>
       </c>
-      <c r="I28" s="49">
+      <c r="I28" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11443,11 +11443,11 @@
         <f t="shared" si="2"/>
         <v>171093.9725874835</v>
       </c>
-      <c r="H29" s="61">
+      <c r="H29" s="48">
         <f t="shared" si="1"/>
         <v>14.553997507953046</v>
       </c>
-      <c r="I29" s="49">
+      <c r="I29" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11469,11 +11469,11 @@
         <f t="shared" si="2"/>
         <v>183070.55066860735</v>
       </c>
-      <c r="H30" s="61">
+      <c r="H30" s="48">
         <f t="shared" si="1"/>
         <v>15.642777333509759</v>
       </c>
-      <c r="I30" s="49">
+      <c r="I30" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11495,11 +11495,11 @@
         <f t="shared" si="2"/>
         <v>195885.48921540988</v>
       </c>
-      <c r="H31" s="61">
+      <c r="H31" s="48">
         <f t="shared" si="1"/>
         <v>16.807771746855444</v>
       </c>
-      <c r="I31" s="49">
+      <c r="I31" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11525,11 +11525,11 @@
         <f>F32-F3</f>
         <v>197387.47346048857</v>
       </c>
-      <c r="H32" s="63">
+      <c r="H32" s="50">
         <f t="shared" si="1"/>
         <v>18.054315769135325</v>
       </c>
-      <c r="I32" s="49">
+      <c r="I32" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11551,11 +11551,11 @@
         <f t="shared" si="2"/>
         <v>220077.34713351302</v>
       </c>
-      <c r="H33" s="61">
+      <c r="H33" s="48">
         <f t="shared" si="1"/>
         <v>19.007031557592093</v>
       </c>
-      <c r="I33" s="49">
+      <c r="I33" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11577,11 +11577,11 @@
         <f t="shared" si="2"/>
         <v>231081.21449018866</v>
       </c>
-      <c r="H34" s="61">
+      <c r="H34" s="48">
         <f t="shared" si="1"/>
         <v>20.007383135471695</v>
       </c>
-      <c r="I34" s="49">
+      <c r="I34" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11603,11 +11603,11 @@
         <f t="shared" si="2"/>
         <v>242635.27521469811</v>
       </c>
-      <c r="H35" s="61">
+      <c r="H35" s="48">
         <f t="shared" si="1"/>
         <v>21.057752292245283</v>
       </c>
-      <c r="I35" s="49">
+      <c r="I35" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11629,11 +11629,11 @@
         <f t="shared" si="2"/>
         <v>254767.03897543301</v>
       </c>
-      <c r="H36" s="61">
+      <c r="H36" s="48">
         <f t="shared" si="1"/>
         <v>22.160639906857547</v>
       </c>
-      <c r="I36" s="49">
+      <c r="I36" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11655,11 +11655,11 @@
         <f t="shared" si="2"/>
         <v>267505.39092420466</v>
       </c>
-      <c r="H37" s="61">
+      <c r="H37" s="48">
         <f t="shared" si="1"/>
         <v>23.318671902200425</v>
       </c>
-      <c r="I37" s="49">
+      <c r="I37" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11681,11 +11681,11 @@
         <f t="shared" si="2"/>
         <v>280880.66047041491</v>
       </c>
-      <c r="H38" s="61">
+      <c r="H38" s="48">
         <f t="shared" si="1"/>
         <v>24.534605497310444</v>
       </c>
-      <c r="I38" s="49">
+      <c r="I38" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11707,11 +11707,11 @@
         <f t="shared" si="2"/>
         <v>294924.69349393563</v>
       </c>
-      <c r="H39" s="63">
+      <c r="H39" s="50">
         <f t="shared" si="1"/>
         <v>25.811335772175966</v>
       </c>
-      <c r="I39" s="49">
+      <c r="I39" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11733,11 +11733,11 @@
         <f t="shared" si="2"/>
         <v>309670.92816863244</v>
       </c>
-      <c r="H40" s="61">
+      <c r="H40" s="48">
         <f t="shared" si="1"/>
         <v>27.151902560784766</v>
       </c>
-      <c r="I40" s="49">
+      <c r="I40" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11759,11 +11759,11 @@
         <f t="shared" si="2"/>
         <v>318961.05601369141</v>
       </c>
-      <c r="H41" s="61">
+      <c r="H41" s="48">
         <f t="shared" si="1"/>
         <v>27.996459637608311</v>
       </c>
-      <c r="I41" s="49">
+      <c r="I41" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11785,11 +11785,11 @@
         <f t="shared" si="2"/>
         <v>328529.88769410213</v>
       </c>
-      <c r="H42" s="61">
+      <c r="H42" s="48">
         <f t="shared" si="1"/>
         <v>28.866353426736556</v>
       </c>
-      <c r="I42" s="49">
+      <c r="I42" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11811,11 +11811,11 @@
         <f t="shared" si="2"/>
         <v>338385.78432492522</v>
       </c>
-      <c r="H43" s="61">
+      <c r="H43" s="48">
         <f t="shared" si="1"/>
         <v>29.762344029538657</v>
       </c>
-      <c r="I43" s="49">
+      <c r="I43" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11837,11 +11837,11 @@
         <f t="shared" si="2"/>
         <v>348537.357854673</v>
       </c>
-      <c r="H44" s="61">
+      <c r="H44" s="48">
         <f t="shared" si="1"/>
         <v>30.685214350424818</v>
       </c>
-      <c r="I44" s="49">
+      <c r="I44" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11863,11 +11863,11 @@
         <f t="shared" si="2"/>
         <v>358993.47859031317</v>
       </c>
-      <c r="H45" s="61">
+      <c r="H45" s="48">
         <f t="shared" si="1"/>
         <v>31.635770780937563</v>
       </c>
-      <c r="I45" s="49">
+      <c r="I45" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11889,11 +11889,11 @@
         <f t="shared" si="2"/>
         <v>366173.34816211945</v>
       </c>
-      <c r="H46" s="63">
+      <c r="H46" s="50">
         <f t="shared" si="1"/>
         <v>32.288486196556313</v>
       </c>
-      <c r="I46" s="49">
+      <c r="I46" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11915,11 +11915,11 @@
         <f t="shared" si="2"/>
         <v>373496.81512536184</v>
       </c>
-      <c r="H47" s="61">
+      <c r="H47" s="48">
         <f t="shared" si="1"/>
         <v>32.954255920487441</v>
       </c>
-      <c r="I47" s="49">
+      <c r="I47" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11941,11 +11941,11 @@
         <f t="shared" si="2"/>
         <v>380966.75142786908</v>
       </c>
-      <c r="H48" s="61">
+      <c r="H48" s="48">
         <f t="shared" si="1"/>
         <v>33.633341038897186</v>
       </c>
-      <c r="I48" s="49">
+      <c r="I48" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11967,11 +11967,11 @@
         <f t="shared" si="2"/>
         <v>388586.08645642648</v>
       </c>
-      <c r="H49" s="61">
+      <c r="H49" s="48">
         <f t="shared" si="1"/>
         <v>34.326007859675137</v>
       </c>
-      <c r="I49" s="49">
+      <c r="I49" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -11993,11 +11993,11 @@
         <f t="shared" si="2"/>
         <v>396357.80818555498</v>
       </c>
-      <c r="H50" s="61">
+      <c r="H50" s="48">
         <f t="shared" si="1"/>
         <v>35.032528016868632</v>
       </c>
-      <c r="I50" s="49">
+      <c r="I50" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -12019,11 +12019,11 @@
         <f t="shared" si="2"/>
         <v>404284.96434926608</v>
       </c>
-      <c r="H51" s="61">
+      <c r="H51" s="48">
         <f t="shared" si="1"/>
         <v>35.753178577206008</v>
       </c>
-      <c r="I51" s="49">
+      <c r="I51" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -12045,11 +12045,11 @@
         <f t="shared" si="2"/>
         <v>412370.66363625141</v>
       </c>
-      <c r="H52" s="61">
+      <c r="H52" s="48">
         <f t="shared" si="1"/>
         <v>36.488242148750125</v>
       </c>
-      <c r="I52" s="49">
+      <c r="I52" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -12071,11 +12071,11 @@
         <f t="shared" si="2"/>
         <v>420618.07690897642</v>
       </c>
-      <c r="H53" s="63">
+      <c r="H53" s="50">
         <f t="shared" si="1"/>
         <v>37.238006991725129</v>
       </c>
-      <c r="I53" s="49">
+      <c r="I53" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -12097,11 +12097,11 @@
         <f t="shared" si="2"/>
         <v>429030.43844715593</v>
       </c>
-      <c r="H54" s="61">
+      <c r="H54" s="48">
         <f t="shared" si="1"/>
         <v>38.002767131559629</v>
       </c>
-      <c r="I54" s="49">
+      <c r="I54" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -12123,11 +12123,11 @@
         <f t="shared" si="2"/>
         <v>437611.04721609905</v>
       </c>
-      <c r="H55" s="61">
+      <c r="H55" s="48">
         <f t="shared" si="1"/>
         <v>38.782822474190823</v>
       </c>
-      <c r="I55" s="49">
+      <c r="I55" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -12149,11 +12149,11 @@
         <f t="shared" si="2"/>
         <v>446363.26816042105</v>
       </c>
-      <c r="H56" s="61">
+      <c r="H56" s="48">
         <f t="shared" si="1"/>
         <v>39.578478923674638</v>
       </c>
-      <c r="I56" s="49">
+      <c r="I56" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -12175,11 +12175,11 @@
         <f t="shared" si="2"/>
         <v>455290.53352362948</v>
       </c>
-      <c r="H57" s="61">
+      <c r="H57" s="48">
         <f t="shared" si="1"/>
         <v>40.390048502148133</v>
       </c>
-      <c r="I57" s="49">
+      <c r="I57" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -12201,11 +12201,11 @@
         <f t="shared" si="2"/>
         <v>464396.34419410204</v>
       </c>
-      <c r="H58" s="61">
+      <c r="H58" s="48">
         <f t="shared" si="1"/>
         <v>41.217849472191098</v>
       </c>
-      <c r="I58" s="49">
+      <c r="I58" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -12227,11 +12227,11 @@
         <f t="shared" si="2"/>
         <v>473684.27107798407</v>
       </c>
-      <c r="H59" s="61">
+      <c r="H59" s="48">
         <f t="shared" si="1"/>
         <v>42.062206461634915</v>
       </c>
-      <c r="I59" s="49">
+      <c r="I59" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -12253,11 +12253,11 @@
         <f t="shared" si="2"/>
         <v>483157.95649954374</v>
       </c>
-      <c r="H60" s="61">
+      <c r="H60" s="48">
         <f t="shared" si="1"/>
         <v>42.92345059086761</v>
       </c>
-      <c r="I60" s="49">
+      <c r="I60" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -12279,11 +12279,11 @@
         <f t="shared" si="2"/>
         <v>492821.11562953459</v>
       </c>
-      <c r="H61" s="61">
+      <c r="H61" s="48">
         <f t="shared" si="1"/>
         <v>43.801919602684961</v>
       </c>
-      <c r="I61" s="49">
+      <c r="I61" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -12309,11 +12309,11 @@
         <f>F62-F32</f>
         <v>293080.06448163674</v>
       </c>
-      <c r="H62" s="63">
+      <c r="H62" s="50">
         <f t="shared" si="1"/>
         <v>44.697957994738665</v>
       </c>
-      <c r="I62" s="49">
+      <c r="I62" s="63">
         <v>11000</v>
       </c>
     </row>
@@ -12357,11 +12357,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -13960,12 +13960,12 @@
       <c r="B86" s="1">
         <v>84</v>
       </c>
-      <c r="C86" s="55" t="s">
+      <c r="C86" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="D86" s="56"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="57"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="57"/>
+      <c r="F86" s="58"/>
     </row>
     <row r="87" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B87" s="1">
@@ -14053,11 +14053,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -15513,12 +15513,12 @@
       <c r="B78" s="1">
         <v>81</v>
       </c>
-      <c r="C78" s="58" t="s">
+      <c r="C78" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D78" s="59"/>
-      <c r="E78" s="59"/>
-      <c r="F78" s="60"/>
+      <c r="D78" s="60"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="61"/>
     </row>
     <row r="79" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B79" s="1">
@@ -15634,11 +15634,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -16237,12 +16237,12 @@
       <c r="B33" s="1">
         <v>31</v>
       </c>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="61"/>
       <c r="G33" s="32"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16800,11 +16800,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -17962,11 +17962,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -18787,12 +18787,12 @@
       <c r="B45" s="1">
         <v>49</v>
       </c>
-      <c r="C45" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="57"/>
+      <c r="C45" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="58"/>
     </row>
     <row r="46" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" s="1">

--- a/Profits Possibilities .xlsx
+++ b/Profits Possibilities .xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9F6140-CB98-473B-9353-7F454820F357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B79FFD-6C99-45A7-B320-28A42E7150D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reality lev 5" sheetId="11" r:id="rId1"/>
     <sheet name="Reality lev 3" sheetId="10" r:id="rId2"/>
     <sheet name="Reality lev 7 " sheetId="9" r:id="rId3"/>
     <sheet name="Reality lev 11" sheetId="12" r:id="rId4"/>
-    <sheet name="Possiblity lev 10" sheetId="1" r:id="rId5"/>
-    <sheet name="Possiblity lev 12" sheetId="7" r:id="rId6"/>
-    <sheet name="Reality 1" sheetId="2" r:id="rId7"/>
-    <sheet name="Reality 2" sheetId="4" r:id="rId8"/>
-    <sheet name="Reality 3" sheetId="6" r:id="rId9"/>
-    <sheet name="Reality 4" sheetId="5" r:id="rId10"/>
-    <sheet name="Reality 5" sheetId="8" r:id="rId11"/>
+    <sheet name="Reality lev 15" sheetId="13" r:id="rId5"/>
+    <sheet name="Possiblity lev 10" sheetId="1" r:id="rId6"/>
+    <sheet name="Possiblity lev 12" sheetId="7" r:id="rId7"/>
+    <sheet name="Reality 1" sheetId="2" r:id="rId8"/>
+    <sheet name="Reality 2" sheetId="4" r:id="rId9"/>
+    <sheet name="Reality 3" sheetId="6" r:id="rId10"/>
+    <sheet name="Reality 4" sheetId="5" r:id="rId11"/>
+    <sheet name="Reality 5" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="12">
   <si>
     <t>Day</t>
   </si>
@@ -445,6 +446,12 @@
     <xf numFmtId="9" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -476,12 +483,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -819,7 +820,7 @@
     <col min="8" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="54" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1" spans="2:6" s="56" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -2560,13 +2561,13 @@
       </c>
     </row>
     <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="51" t="s">
+      <c r="B93" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C93" s="52"/>
-      <c r="D93" s="52"/>
-      <c r="E93" s="52"/>
-      <c r="F93" s="53"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="54"/>
+      <c r="F93" s="55"/>
     </row>
     <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="43">
@@ -4301,6 +4302,1240 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201EA83D-F864-4020-8369-84447C2F5CD7}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="B1:F86"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:F45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="14.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+    </row>
+    <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D3" s="11">
+        <v>12</v>
+      </c>
+      <c r="E3" s="13">
+        <f>D3*C3</f>
+        <v>0.18</v>
+      </c>
+      <c r="F3" s="8">
+        <f>7500+(7500*E3)</f>
+        <v>8850</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D4" s="11">
+        <v>12</v>
+      </c>
+      <c r="E4" s="13">
+        <f t="shared" ref="E4:E44" si="0">D4*C4</f>
+        <v>0.18</v>
+      </c>
+      <c r="F4" s="8">
+        <f>F3+(F3*E4)</f>
+        <v>10443</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="11">
+        <v>12</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="F5" s="8">
+        <f>F4+(F4*E5)</f>
+        <v>11696.16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="31">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>12</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <f>F5+(F5*E6)</f>
+        <v>11696.16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D7" s="11">
+        <v>12</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" ref="F7:F44" si="1">F6+(F6*E7)</f>
+        <v>13801.468799999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D8" s="12">
+        <v>12</v>
+      </c>
+      <c r="E8" s="14">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="1"/>
+        <v>16285.733183999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="D9" s="11">
+        <v>12</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="1"/>
+        <v>18240.021166079998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="31">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
+        <v>12</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="1"/>
+        <v>18240.021166079998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D11" s="11">
+        <v>12</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="1"/>
+        <v>21523.224975974397</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D12" s="11">
+        <v>12</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="1"/>
+        <v>25397.405471649789</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="D13" s="11">
+        <v>12</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="1"/>
+        <v>28445.094128247762</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="31">
+        <v>0</v>
+      </c>
+      <c r="D14" s="11">
+        <v>12</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="1"/>
+        <v>28445.094128247762</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D15" s="11">
+        <v>12</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="1"/>
+        <v>33565.211071332356</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D16" s="11">
+        <v>12</v>
+      </c>
+      <c r="E16" s="13">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="1"/>
+        <v>39606.949064172179</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="6">
+        <v>15</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="D17" s="12">
+        <v>12</v>
+      </c>
+      <c r="E17" s="14">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="1"/>
+        <v>44359.782951872839</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="31">
+        <v>0</v>
+      </c>
+      <c r="D18" s="11">
+        <v>12</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="1"/>
+        <v>44359.782951872839</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="D19" s="11">
+        <v>12</v>
+      </c>
+      <c r="E19" s="13">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="1"/>
+        <v>55006.130860322322</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="D20" s="11">
+        <v>12</v>
+      </c>
+      <c r="E20" s="13">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="1"/>
+        <v>68207.602266799673</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="D21" s="11">
+        <v>12</v>
+      </c>
+      <c r="E21" s="13">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="1"/>
+        <v>76392.514538815638</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="31">
+        <v>0</v>
+      </c>
+      <c r="D22" s="11">
+        <v>12</v>
+      </c>
+      <c r="E22" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="1"/>
+        <v>76392.514538815638</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>21</v>
+      </c>
+      <c r="C23" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="D23" s="11">
+        <v>12</v>
+      </c>
+      <c r="E23" s="13">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="1"/>
+        <v>94726.718028131392</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="6">
+        <v>22</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="D24" s="12">
+        <v>11</v>
+      </c>
+      <c r="E24" s="14">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="1"/>
+        <v>115566.59599432029</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="D25" s="11">
+        <v>11</v>
+      </c>
+      <c r="E25" s="13">
+        <f t="shared" si="0"/>
+        <v>0.11</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="1"/>
+        <v>128278.92155369552</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="31">
+        <v>0</v>
+      </c>
+      <c r="D26" s="11">
+        <v>9</v>
+      </c>
+      <c r="E26" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="1"/>
+        <v>128278.92155369552</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="D27" s="11">
+        <v>8</v>
+      </c>
+      <c r="E27" s="13">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="1"/>
+        <v>148803.5490022868</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>26</v>
+      </c>
+      <c r="C28" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="D28" s="11">
+        <v>8</v>
+      </c>
+      <c r="E28" s="13">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="1"/>
+        <v>172612.1168426527</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>27</v>
+      </c>
+      <c r="C29" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="D29" s="11">
+        <v>7</v>
+      </c>
+      <c r="E29" s="13">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="1"/>
+        <v>184694.9650216384</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>28</v>
+      </c>
+      <c r="C30" s="31">
+        <v>0</v>
+      </c>
+      <c r="D30" s="11">
+        <v>7</v>
+      </c>
+      <c r="E30" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" si="1"/>
+        <v>184694.9650216384</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1">
+        <v>29</v>
+      </c>
+      <c r="C31" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="D31" s="11">
+        <v>6</v>
+      </c>
+      <c r="E31" s="13">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="1"/>
+        <v>206858.36082423502</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="6">
+        <v>30</v>
+      </c>
+      <c r="C32" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="D32" s="12">
+        <v>6</v>
+      </c>
+      <c r="E32" s="14">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="F32" s="10">
+        <f t="shared" si="1"/>
+        <v>231681.36412314323</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <v>31</v>
+      </c>
+      <c r="C33" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="D33" s="11">
+        <v>5</v>
+      </c>
+      <c r="E33" s="13">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="F33" s="8">
+        <f t="shared" si="1"/>
+        <v>243265.43232930038</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <v>32</v>
+      </c>
+      <c r="C34" s="31">
+        <v>0</v>
+      </c>
+      <c r="D34" s="11">
+        <v>5</v>
+      </c>
+      <c r="E34" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="1"/>
+        <v>243265.43232930038</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1">
+        <v>33</v>
+      </c>
+      <c r="C35" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="D35" s="11">
+        <v>5</v>
+      </c>
+      <c r="E35" s="13">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="F35" s="8">
+        <f t="shared" si="1"/>
+        <v>267591.97556223045</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="1">
+        <v>35</v>
+      </c>
+      <c r="C36" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="D36" s="11">
+        <v>4</v>
+      </c>
+      <c r="E36" s="13">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" si="1"/>
+        <v>288999.33360720892</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="1">
+        <v>36</v>
+      </c>
+      <c r="C37" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="D37" s="11">
+        <v>4</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="F37" s="8">
+        <f t="shared" si="1"/>
+        <v>300559.30695149727</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="1">
+        <v>37</v>
+      </c>
+      <c r="C38" s="31">
+        <v>0</v>
+      </c>
+      <c r="D38" s="11">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" si="1"/>
+        <v>300559.30695149727</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="1">
+        <v>38</v>
+      </c>
+      <c r="C39" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="D39" s="11">
+        <v>4</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="F39" s="8">
+        <f t="shared" si="1"/>
+        <v>324604.05150761706</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="1">
+        <v>39</v>
+      </c>
+      <c r="C40" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="D40" s="11">
+        <v>4</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="F40" s="8">
+        <f t="shared" si="1"/>
+        <v>350572.37562822644</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1">
+        <v>40</v>
+      </c>
+      <c r="C41" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="D41" s="11">
+        <v>3</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" si="1"/>
+        <v>361089.54689707322</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="1">
+        <v>41</v>
+      </c>
+      <c r="C42" s="31">
+        <v>0</v>
+      </c>
+      <c r="D42" s="11">
+        <v>3</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="8">
+        <f t="shared" si="1"/>
+        <v>361089.54689707322</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1">
+        <v>42</v>
+      </c>
+      <c r="C43" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="D43" s="11">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="F43" s="8">
+        <f t="shared" si="1"/>
+        <v>382754.91971089761</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="6">
+        <v>43</v>
+      </c>
+      <c r="C44" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="D44" s="12">
+        <v>3</v>
+      </c>
+      <c r="E44" s="7">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="F44" s="10">
+        <f t="shared" si="1"/>
+        <v>405720.21489355149</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B45" s="1">
+        <v>49</v>
+      </c>
+      <c r="C45" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="60"/>
+    </row>
+    <row r="46" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B46" s="1">
+        <v>50</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="8"/>
+    </row>
+    <row r="47" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B47" s="1">
+        <v>51</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="8"/>
+    </row>
+    <row r="48" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B48" s="1">
+        <v>52</v>
+      </c>
+      <c r="C48" s="17"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="8"/>
+    </row>
+    <row r="49" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B49" s="1">
+        <v>53</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B50" s="1">
+        <v>54</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B51" s="1">
+        <v>55</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B52" s="1">
+        <v>56</v>
+      </c>
+      <c r="C52" s="17"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="8"/>
+    </row>
+    <row r="53" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B53" s="1">
+        <v>57</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="8"/>
+    </row>
+    <row r="54" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B54" s="1">
+        <v>58</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="8"/>
+    </row>
+    <row r="55" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B55" s="1">
+        <v>59</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B56" s="1">
+        <v>60</v>
+      </c>
+      <c r="C56" s="17"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="8"/>
+    </row>
+    <row r="57" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B57" s="1">
+        <v>61</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B58" s="1">
+        <v>62</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="8"/>
+    </row>
+    <row r="59" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B59" s="1">
+        <v>63</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="8"/>
+    </row>
+    <row r="60" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B60" s="1">
+        <v>64</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="8"/>
+    </row>
+    <row r="61" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B61" s="1">
+        <v>65</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="8"/>
+    </row>
+    <row r="62" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B62" s="1">
+        <v>66</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B63" s="1">
+        <v>67</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B64" s="1">
+        <v>68</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="8"/>
+    </row>
+    <row r="65" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B65" s="1">
+        <v>69</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="8"/>
+    </row>
+    <row r="66" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B66" s="1">
+        <v>70</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="8"/>
+    </row>
+    <row r="67" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B67" s="1">
+        <v>71</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="8"/>
+    </row>
+    <row r="68" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B68" s="1">
+        <v>72</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="8"/>
+    </row>
+    <row r="69" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B69" s="1">
+        <v>73</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="8"/>
+    </row>
+    <row r="70" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B70" s="1">
+        <v>74</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B71" s="1">
+        <v>75</v>
+      </c>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B72" s="1">
+        <v>76</v>
+      </c>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="8"/>
+    </row>
+    <row r="73" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B73" s="1">
+        <v>77</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="8"/>
+    </row>
+    <row r="74" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B74" s="1">
+        <v>78</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="8"/>
+    </row>
+    <row r="75" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B75" s="1">
+        <v>79</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="8"/>
+    </row>
+    <row r="76" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B76" s="1">
+        <v>80</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="8"/>
+    </row>
+    <row r="77" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B77" s="1">
+        <v>81</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="8"/>
+    </row>
+    <row r="78" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B78" s="1">
+        <v>82</v>
+      </c>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="8"/>
+    </row>
+    <row r="79" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B79" s="1">
+        <v>83</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="8"/>
+    </row>
+    <row r="80" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B80" s="1">
+        <v>84</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="8"/>
+    </row>
+    <row r="81" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B81" s="1">
+        <v>85</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="8"/>
+    </row>
+    <row r="82" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B82" s="1">
+        <v>86</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="8"/>
+    </row>
+    <row r="83" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B83" s="1">
+        <v>87</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B84" s="1">
+        <v>88</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="8"/>
+    </row>
+    <row r="85" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B85" s="1">
+        <v>89</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="8"/>
+    </row>
+    <row r="86" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B86" s="1">
+        <v>90</v>
+      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="C45:F45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B12A80-409F-4361-BFC2-32DA0A4B5CD8}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4323,11 +5558,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -5557,12 +6792,12 @@
       <c r="B66" s="1">
         <v>64</v>
       </c>
-      <c r="C66" s="59" t="s">
+      <c r="C66" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="60"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="61"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="63"/>
       <c r="G66" s="32"/>
     </row>
     <row r="67" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -5809,7 +7044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4294AE8-E493-4EF8-827C-ABCD98FFCBA8}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5832,11 +7067,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -6866,12 +8101,12 @@
       <c r="B56" s="1">
         <v>64</v>
       </c>
-      <c r="C56" s="59" t="s">
+      <c r="C56" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="60"/>
-      <c r="E56" s="60"/>
-      <c r="F56" s="61"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="63"/>
     </row>
     <row r="57" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
@@ -7141,11 +8376,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8929,11 +10164,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10700,7 +11935,7 @@
   </sheetPr>
   <dimension ref="B1:I153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -10714,16 +11949,16 @@
     <col min="6" max="6" width="30.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" style="44" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" style="48"/>
-    <col min="9" max="9" width="14.42578125" style="62"/>
+    <col min="9" max="9" width="14.42578125" style="51"/>
     <col min="10" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10745,7 +11980,7 @@
       <c r="H2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="63">
+      <c r="I2" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -10771,7 +12006,7 @@
         <f>(F3-I2)/I2</f>
         <v>0.11</v>
       </c>
-      <c r="I3" s="63">
+      <c r="I3" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -10797,7 +12032,7 @@
         <f t="shared" ref="H4:H62" si="1">(F4-I3)/I3</f>
         <v>0.23210000000000003</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -10823,7 +12058,7 @@
         <f t="shared" si="1"/>
         <v>0.36763100000000004</v>
       </c>
-      <c r="I5" s="63">
+      <c r="I5" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -10849,7 +12084,7 @@
         <f t="shared" si="1"/>
         <v>0.51807040999999998</v>
       </c>
-      <c r="I6" s="63">
+      <c r="I6" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -10875,7 +12110,7 @@
         <f t="shared" si="1"/>
         <v>0.6850581550999999</v>
       </c>
-      <c r="I7" s="63">
+      <c r="I7" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -10901,7 +12136,7 @@
         <f t="shared" si="1"/>
         <v>0.87041455216099972</v>
       </c>
-      <c r="I8" s="63">
+      <c r="I8" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -10927,7 +12162,7 @@
         <f t="shared" si="1"/>
         <v>1.0761601528987097</v>
       </c>
-      <c r="I9" s="63">
+      <c r="I9" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -10953,7 +12188,7 @@
         <f t="shared" si="1"/>
         <v>1.3045377697175677</v>
       </c>
-      <c r="I10" s="63">
+      <c r="I10" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -10979,7 +12214,7 @@
         <f t="shared" si="1"/>
         <v>1.5580369243865002</v>
       </c>
-      <c r="I11" s="63">
+      <c r="I11" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11005,7 +12240,7 @@
         <f t="shared" si="1"/>
         <v>1.8394209860690152</v>
       </c>
-      <c r="I12" s="63">
+      <c r="I12" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11031,7 +12266,7 @@
         <f t="shared" si="1"/>
         <v>2.1517572945366066</v>
       </c>
-      <c r="I13" s="63">
+      <c r="I13" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11057,7 +12292,7 @@
         <f t="shared" si="1"/>
         <v>2.498450596935633</v>
       </c>
-      <c r="I14" s="63">
+      <c r="I14" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11083,7 +12318,7 @@
         <f t="shared" si="1"/>
         <v>2.8832801625985529</v>
       </c>
-      <c r="I15" s="63">
+      <c r="I15" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11109,7 +12344,7 @@
         <f t="shared" si="1"/>
         <v>3.3104409804843935</v>
       </c>
-      <c r="I16" s="63">
+      <c r="I16" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11135,7 +12370,7 @@
         <f t="shared" si="1"/>
         <v>3.7845894883376769</v>
       </c>
-      <c r="I17" s="63">
+      <c r="I17" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11161,7 +12396,7 @@
         <f t="shared" si="1"/>
         <v>4.3108943320548212</v>
       </c>
-      <c r="I18" s="63">
+      <c r="I18" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11187,7 +12422,7 @@
         <f t="shared" si="1"/>
         <v>4.8950927085808518</v>
       </c>
-      <c r="I19" s="63">
+      <c r="I19" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11213,7 +12448,7 @@
         <f t="shared" si="1"/>
         <v>5.5435529065247442</v>
       </c>
-      <c r="I20" s="63">
+      <c r="I20" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11239,7 +12474,7 @@
         <f t="shared" si="1"/>
         <v>6.263343726242466</v>
       </c>
-      <c r="I21" s="63">
+      <c r="I21" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11265,7 +12500,7 @@
         <f t="shared" si="1"/>
         <v>7.0623115361291378</v>
       </c>
-      <c r="I22" s="63">
+      <c r="I22" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11291,7 +12526,7 @@
         <f t="shared" si="1"/>
         <v>7.9491658051033429</v>
       </c>
-      <c r="I23" s="63">
+      <c r="I23" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11317,7 +12552,7 @@
         <f t="shared" si="1"/>
         <v>8.9335740436647111</v>
       </c>
-      <c r="I24" s="63">
+      <c r="I24" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11343,7 +12578,7 @@
         <f t="shared" si="1"/>
         <v>10.026267188467829</v>
       </c>
-      <c r="I25" s="63">
+      <c r="I25" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11369,7 +12604,7 @@
         <f t="shared" si="1"/>
         <v>11.239156579199289</v>
       </c>
-      <c r="I26" s="63">
+      <c r="I26" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11395,7 +12630,7 @@
         <f t="shared" si="1"/>
         <v>12.585463802911212</v>
       </c>
-      <c r="I27" s="63">
+      <c r="I27" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11421,7 +12656,7 @@
         <f t="shared" si="1"/>
         <v>13.536446269114997</v>
       </c>
-      <c r="I28" s="63">
+      <c r="I28" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11447,7 +12682,7 @@
         <f t="shared" si="1"/>
         <v>14.553997507953046</v>
       </c>
-      <c r="I29" s="63">
+      <c r="I29" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11473,7 +12708,7 @@
         <f t="shared" si="1"/>
         <v>15.642777333509759</v>
       </c>
-      <c r="I30" s="63">
+      <c r="I30" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11499,7 +12734,7 @@
         <f t="shared" si="1"/>
         <v>16.807771746855444</v>
       </c>
-      <c r="I31" s="63">
+      <c r="I31" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11529,7 +12764,7 @@
         <f t="shared" si="1"/>
         <v>18.054315769135325</v>
       </c>
-      <c r="I32" s="63">
+      <c r="I32" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11555,7 +12790,7 @@
         <f t="shared" si="1"/>
         <v>19.007031557592093</v>
       </c>
-      <c r="I33" s="63">
+      <c r="I33" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11581,7 +12816,7 @@
         <f t="shared" si="1"/>
         <v>20.007383135471695</v>
       </c>
-      <c r="I34" s="63">
+      <c r="I34" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11607,7 +12842,7 @@
         <f t="shared" si="1"/>
         <v>21.057752292245283</v>
       </c>
-      <c r="I35" s="63">
+      <c r="I35" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11633,7 +12868,7 @@
         <f t="shared" si="1"/>
         <v>22.160639906857547</v>
       </c>
-      <c r="I36" s="63">
+      <c r="I36" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11659,7 +12894,7 @@
         <f t="shared" si="1"/>
         <v>23.318671902200425</v>
       </c>
-      <c r="I37" s="63">
+      <c r="I37" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11685,7 +12920,7 @@
         <f t="shared" si="1"/>
         <v>24.534605497310444</v>
       </c>
-      <c r="I38" s="63">
+      <c r="I38" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11711,7 +12946,7 @@
         <f t="shared" si="1"/>
         <v>25.811335772175966</v>
       </c>
-      <c r="I39" s="63">
+      <c r="I39" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11737,7 +12972,7 @@
         <f t="shared" si="1"/>
         <v>27.151902560784766</v>
       </c>
-      <c r="I40" s="63">
+      <c r="I40" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11763,7 +12998,7 @@
         <f t="shared" si="1"/>
         <v>27.996459637608311</v>
       </c>
-      <c r="I41" s="63">
+      <c r="I41" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11789,7 +13024,7 @@
         <f t="shared" si="1"/>
         <v>28.866353426736556</v>
       </c>
-      <c r="I42" s="63">
+      <c r="I42" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11815,7 +13050,7 @@
         <f t="shared" si="1"/>
         <v>29.762344029538657</v>
       </c>
-      <c r="I43" s="63">
+      <c r="I43" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11841,7 +13076,7 @@
         <f t="shared" si="1"/>
         <v>30.685214350424818</v>
       </c>
-      <c r="I44" s="63">
+      <c r="I44" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11867,7 +13102,7 @@
         <f t="shared" si="1"/>
         <v>31.635770780937563</v>
       </c>
-      <c r="I45" s="63">
+      <c r="I45" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11893,7 +13128,7 @@
         <f t="shared" si="1"/>
         <v>32.288486196556313</v>
       </c>
-      <c r="I46" s="63">
+      <c r="I46" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11919,7 +13154,7 @@
         <f t="shared" si="1"/>
         <v>32.954255920487441</v>
       </c>
-      <c r="I47" s="63">
+      <c r="I47" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11945,7 +13180,7 @@
         <f t="shared" si="1"/>
         <v>33.633341038897186</v>
       </c>
-      <c r="I48" s="63">
+      <c r="I48" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11971,7 +13206,7 @@
         <f t="shared" si="1"/>
         <v>34.326007859675137</v>
       </c>
-      <c r="I49" s="63">
+      <c r="I49" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -11997,7 +13232,7 @@
         <f t="shared" si="1"/>
         <v>35.032528016868632</v>
       </c>
-      <c r="I50" s="63">
+      <c r="I50" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -12023,7 +13258,7 @@
         <f t="shared" si="1"/>
         <v>35.753178577206008</v>
       </c>
-      <c r="I51" s="63">
+      <c r="I51" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -12049,7 +13284,7 @@
         <f t="shared" si="1"/>
         <v>36.488242148750125</v>
       </c>
-      <c r="I52" s="63">
+      <c r="I52" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -12075,7 +13310,7 @@
         <f t="shared" si="1"/>
         <v>37.238006991725129</v>
       </c>
-      <c r="I53" s="63">
+      <c r="I53" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -12101,7 +13336,7 @@
         <f t="shared" si="1"/>
         <v>38.002767131559629</v>
       </c>
-      <c r="I54" s="63">
+      <c r="I54" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -12127,7 +13362,7 @@
         <f t="shared" si="1"/>
         <v>38.782822474190823</v>
       </c>
-      <c r="I55" s="63">
+      <c r="I55" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -12153,7 +13388,7 @@
         <f t="shared" si="1"/>
         <v>39.578478923674638</v>
       </c>
-      <c r="I56" s="63">
+      <c r="I56" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -12179,7 +13414,7 @@
         <f t="shared" si="1"/>
         <v>40.390048502148133</v>
       </c>
-      <c r="I57" s="63">
+      <c r="I57" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -12205,7 +13440,7 @@
         <f t="shared" si="1"/>
         <v>41.217849472191098</v>
       </c>
-      <c r="I58" s="63">
+      <c r="I58" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -12231,7 +13466,7 @@
         <f t="shared" si="1"/>
         <v>42.062206461634915</v>
       </c>
-      <c r="I59" s="63">
+      <c r="I59" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -12257,7 +13492,7 @@
         <f t="shared" si="1"/>
         <v>42.92345059086761</v>
       </c>
-      <c r="I60" s="63">
+      <c r="I60" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -12283,7 +13518,7 @@
         <f t="shared" si="1"/>
         <v>43.801919602684961</v>
       </c>
-      <c r="I61" s="63">
+      <c r="I61" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -12313,7 +13548,7 @@
         <f t="shared" si="1"/>
         <v>44.697957994738665</v>
       </c>
-      <c r="I62" s="63">
+      <c r="I62" s="52">
         <v>11000</v>
       </c>
     </row>
@@ -12336,6 +13571,963 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78976AA-FE7E-44B7-B968-6F5F9B6DD28A}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:I126"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="48"/>
+    <col min="9" max="9" width="14.42578125" style="51"/>
+    <col min="10" max="16384" width="14.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D3" s="11">
+        <v>15</v>
+      </c>
+      <c r="E3" s="27">
+        <f>C3*D3</f>
+        <v>0.3</v>
+      </c>
+      <c r="F3" s="8">
+        <f>1200+(1200*E3)</f>
+        <v>1560</v>
+      </c>
+      <c r="H3" s="48">
+        <f>(F3-I2)/I2</f>
+        <v>0.3</v>
+      </c>
+      <c r="I3" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D4" s="11">
+        <v>15</v>
+      </c>
+      <c r="E4" s="27">
+        <f t="shared" ref="E4:E35" si="0">C4*D4</f>
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="8">
+        <f>F3+(F3*E4)</f>
+        <v>2028</v>
+      </c>
+      <c r="H4" s="48">
+        <f t="shared" ref="H4:H35" si="1">(F4-I3)/I3</f>
+        <v>0.69</v>
+      </c>
+      <c r="I4" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D5" s="11">
+        <v>15</v>
+      </c>
+      <c r="E5" s="27">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="8">
+        <f>F4+(F4*E5)</f>
+        <v>2636.4</v>
+      </c>
+      <c r="H5" s="48">
+        <f t="shared" si="1"/>
+        <v>1.1970000000000001</v>
+      </c>
+      <c r="I5" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D6" s="11">
+        <v>15</v>
+      </c>
+      <c r="E6" s="27">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="F6" s="8">
+        <f>F5+(F5*E6)</f>
+        <v>3427.32</v>
+      </c>
+      <c r="H6" s="48">
+        <f t="shared" si="1"/>
+        <v>1.8561000000000001</v>
+      </c>
+      <c r="I6" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D7" s="11">
+        <v>15</v>
+      </c>
+      <c r="E7" s="27">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" ref="F7:F35" si="2">F6+(F6*E7)</f>
+        <v>4455.5159999999996</v>
+      </c>
+      <c r="H7" s="48">
+        <f t="shared" si="1"/>
+        <v>2.7129299999999996</v>
+      </c>
+      <c r="I7" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D8" s="11">
+        <v>15</v>
+      </c>
+      <c r="E8" s="27">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="2"/>
+        <v>5792.1707999999999</v>
+      </c>
+      <c r="H8" s="48">
+        <f t="shared" si="1"/>
+        <v>3.8268089999999999</v>
+      </c>
+      <c r="I8" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="D9" s="12">
+        <v>15</v>
+      </c>
+      <c r="E9" s="28">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="2"/>
+        <v>7529.82204</v>
+      </c>
+      <c r="H9" s="50">
+        <f t="shared" si="1"/>
+        <v>5.2748517000000001</v>
+      </c>
+      <c r="I9" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D10" s="11">
+        <v>15</v>
+      </c>
+      <c r="E10" s="27">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="2"/>
+        <v>9788.7686519999988</v>
+      </c>
+      <c r="H10" s="48">
+        <f t="shared" si="1"/>
+        <v>7.157307209999999</v>
+      </c>
+      <c r="I10" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D11" s="11">
+        <v>15</v>
+      </c>
+      <c r="E11" s="27">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="2"/>
+        <v>12725.399247599998</v>
+      </c>
+      <c r="H11" s="48">
+        <f t="shared" si="1"/>
+        <v>9.6044993729999995</v>
+      </c>
+      <c r="I11" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D12" s="11">
+        <v>15</v>
+      </c>
+      <c r="E12" s="27">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="2"/>
+        <v>16543.019021879998</v>
+      </c>
+      <c r="H12" s="48">
+        <f t="shared" si="1"/>
+        <v>12.785849184899998</v>
+      </c>
+      <c r="I12" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D13" s="11">
+        <v>15</v>
+      </c>
+      <c r="E13" s="27">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="2"/>
+        <v>21505.924728443999</v>
+      </c>
+      <c r="H13" s="48">
+        <f t="shared" si="1"/>
+        <v>16.921603940369998</v>
+      </c>
+      <c r="I13" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D14" s="11">
+        <v>15</v>
+      </c>
+      <c r="E14" s="27">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="2"/>
+        <v>27957.702146977197</v>
+      </c>
+      <c r="H14" s="48">
+        <f t="shared" si="1"/>
+        <v>22.298085122480998</v>
+      </c>
+      <c r="I14" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D15" s="11">
+        <v>15</v>
+      </c>
+      <c r="E15" s="27">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="2"/>
+        <v>36345.01279107036</v>
+      </c>
+      <c r="H15" s="48">
+        <f t="shared" si="1"/>
+        <v>29.287510659225301</v>
+      </c>
+      <c r="I15" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="6">
+        <v>14</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="D16" s="12">
+        <v>15</v>
+      </c>
+      <c r="E16" s="28">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="2"/>
+        <v>47248.516628391466</v>
+      </c>
+      <c r="H16" s="50">
+        <f t="shared" si="1"/>
+        <v>38.373763856992888</v>
+      </c>
+      <c r="I16" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D17" s="11">
+        <v>15</v>
+      </c>
+      <c r="E17" s="27">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="2"/>
+        <v>61423.071616908906</v>
+      </c>
+      <c r="H17" s="48">
+        <f t="shared" si="1"/>
+        <v>50.185893014090759</v>
+      </c>
+      <c r="I17" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D18" s="11">
+        <v>15</v>
+      </c>
+      <c r="E18" s="27">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="2"/>
+        <v>79849.993101981585</v>
+      </c>
+      <c r="H18" s="48">
+        <f t="shared" si="1"/>
+        <v>65.541660918317987</v>
+      </c>
+      <c r="I18" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D19" s="11">
+        <v>15</v>
+      </c>
+      <c r="E19" s="27">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="2"/>
+        <v>103804.99103257606</v>
+      </c>
+      <c r="H19" s="48">
+        <f t="shared" si="1"/>
+        <v>85.504159193813379</v>
+      </c>
+      <c r="I19" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D20" s="11">
+        <v>15</v>
+      </c>
+      <c r="E20" s="27">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="2"/>
+        <v>134946.48834234886</v>
+      </c>
+      <c r="H20" s="48">
+        <f t="shared" si="1"/>
+        <v>111.45540695195739</v>
+      </c>
+      <c r="I20" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D21" s="11">
+        <v>12</v>
+      </c>
+      <c r="E21" s="27">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="2"/>
+        <v>167333.6455445126</v>
+      </c>
+      <c r="H21" s="48">
+        <f t="shared" si="1"/>
+        <v>138.44470462042716</v>
+      </c>
+      <c r="I21" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D22" s="11">
+        <v>12</v>
+      </c>
+      <c r="E22" s="27">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="2"/>
+        <v>207493.72047519562</v>
+      </c>
+      <c r="H22" s="48">
+        <f t="shared" si="1"/>
+        <v>171.91143372932967</v>
+      </c>
+      <c r="I22" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="6">
+        <v>21</v>
+      </c>
+      <c r="C23" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="D23" s="12">
+        <v>10</v>
+      </c>
+      <c r="E23" s="28">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="2"/>
+        <v>248992.46457023473</v>
+      </c>
+      <c r="H23" s="50">
+        <f t="shared" si="1"/>
+        <v>206.4937204751956</v>
+      </c>
+      <c r="I23" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D24" s="11">
+        <v>8</v>
+      </c>
+      <c r="E24" s="27">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="2"/>
+        <v>288831.25890147232</v>
+      </c>
+      <c r="H24" s="48">
+        <f t="shared" si="1"/>
+        <v>239.69271575122693</v>
+      </c>
+      <c r="I24" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D25" s="11">
+        <v>7</v>
+      </c>
+      <c r="E25" s="27">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="2"/>
+        <v>329267.63514767843</v>
+      </c>
+      <c r="H25" s="48">
+        <f t="shared" si="1"/>
+        <v>273.38969595639867</v>
+      </c>
+      <c r="I25" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D26" s="11">
+        <v>6</v>
+      </c>
+      <c r="E26" s="27">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="2"/>
+        <v>368779.75136539986</v>
+      </c>
+      <c r="H26" s="48">
+        <f t="shared" si="1"/>
+        <v>306.31645947116652</v>
+      </c>
+      <c r="I26" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D27" s="11">
+        <v>6</v>
+      </c>
+      <c r="E27" s="27">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="2"/>
+        <v>413033.32152924786</v>
+      </c>
+      <c r="H27" s="48">
+        <f t="shared" si="1"/>
+        <v>343.19443460770657</v>
+      </c>
+      <c r="I27" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>26</v>
+      </c>
+      <c r="C28" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D28" s="11">
+        <v>5</v>
+      </c>
+      <c r="E28" s="27">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="2"/>
+        <v>454336.65368217265</v>
+      </c>
+      <c r="H28" s="48">
+        <f t="shared" si="1"/>
+        <v>377.61387806847722</v>
+      </c>
+      <c r="I28" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>27</v>
+      </c>
+      <c r="C29" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D29" s="11">
+        <v>4</v>
+      </c>
+      <c r="E29" s="27">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="2"/>
+        <v>490683.58597674646</v>
+      </c>
+      <c r="H29" s="48">
+        <f t="shared" si="1"/>
+        <v>407.9029883139554</v>
+      </c>
+      <c r="I29" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>28</v>
+      </c>
+      <c r="C30" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D30" s="11">
+        <v>4</v>
+      </c>
+      <c r="E30" s="27">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" si="2"/>
+        <v>529938.27285488613</v>
+      </c>
+      <c r="H30" s="48">
+        <f t="shared" si="1"/>
+        <v>440.61522737907177</v>
+      </c>
+      <c r="I30" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1">
+        <v>29</v>
+      </c>
+      <c r="C31" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D31" s="11">
+        <v>4</v>
+      </c>
+      <c r="E31" s="27">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="2"/>
+        <v>572333.33468327706</v>
+      </c>
+      <c r="H31" s="48">
+        <f t="shared" si="1"/>
+        <v>475.94444556939754</v>
+      </c>
+      <c r="I31" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1">
+        <v>30</v>
+      </c>
+      <c r="C32" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D32" s="11">
+        <v>4</v>
+      </c>
+      <c r="E32" s="27">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" si="2"/>
+        <v>618120.00145793927</v>
+      </c>
+      <c r="H32" s="48">
+        <f t="shared" si="1"/>
+        <v>514.10000121494943</v>
+      </c>
+      <c r="I32" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <v>31</v>
+      </c>
+      <c r="C33" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D33" s="11">
+        <v>4</v>
+      </c>
+      <c r="E33" s="27">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="F33" s="8">
+        <f t="shared" si="2"/>
+        <v>667569.60157457436</v>
+      </c>
+      <c r="H33" s="48">
+        <f t="shared" si="1"/>
+        <v>555.30800131214528</v>
+      </c>
+      <c r="I33" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <v>32</v>
+      </c>
+      <c r="C34" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D34" s="11">
+        <v>3</v>
+      </c>
+      <c r="E34" s="27">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="2"/>
+        <v>707623.77766904887</v>
+      </c>
+      <c r="H34" s="48">
+        <f t="shared" si="1"/>
+        <v>588.68648139087406</v>
+      </c>
+      <c r="I34" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="35">
+        <v>33</v>
+      </c>
+      <c r="C35" s="36">
+        <v>0.02</v>
+      </c>
+      <c r="D35" s="37">
+        <v>3</v>
+      </c>
+      <c r="E35" s="38">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="F35" s="39">
+        <f t="shared" si="2"/>
+        <v>750081.20432919182</v>
+      </c>
+      <c r="G35" s="45">
+        <f t="shared" ref="G33:G35" si="3">F35-F6</f>
+        <v>746653.88432919187</v>
+      </c>
+      <c r="H35" s="50">
+        <f t="shared" si="1"/>
+        <v>624.06767027432647</v>
+      </c>
+      <c r="I35" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="45"/>
+      <c r="I66" s="51"/>
+    </row>
+    <row r="96" spans="1:9" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="45"/>
+      <c r="I96" s="51"/>
+    </row>
+    <row r="126" spans="1:9" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="45"/>
+      <c r="I126" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -12357,11 +14549,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -13960,12 +16152,12 @@
       <c r="B86" s="1">
         <v>84</v>
       </c>
-      <c r="C86" s="56" t="s">
+      <c r="C86" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="D86" s="57"/>
-      <c r="E86" s="57"/>
-      <c r="F86" s="58"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="60"/>
     </row>
     <row r="87" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B87" s="1">
@@ -14031,7 +16223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7CE4FA-E8B9-48A7-94D9-96D72DD88D6E}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -14053,11 +16245,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -15513,12 +17705,12 @@
       <c r="B78" s="1">
         <v>81</v>
       </c>
-      <c r="C78" s="59" t="s">
+      <c r="C78" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D78" s="60"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="61"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="63"/>
     </row>
     <row r="79" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B79" s="1">
@@ -15611,7 +17803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E76A6C-66EF-40B2-8FA4-62DA24CB4621}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -15634,11 +17826,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -16237,12 +18429,12 @@
       <c r="B33" s="1">
         <v>31</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="61"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="63"/>
       <c r="G33" s="32"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16777,7 +18969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FEF045-C5FE-4150-B420-FAA707870D09}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -16800,11 +18992,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -17937,1238 +20129,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201EA83D-F864-4020-8369-84447C2F5CD7}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="B1:F86"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45:F45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="14.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-    </row>
-    <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D3" s="11">
-        <v>12</v>
-      </c>
-      <c r="E3" s="13">
-        <f>D3*C3</f>
-        <v>0.18</v>
-      </c>
-      <c r="F3" s="8">
-        <f>7500+(7500*E3)</f>
-        <v>8850</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="13">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D4" s="11">
-        <v>12</v>
-      </c>
-      <c r="E4" s="13">
-        <f t="shared" ref="E4:E44" si="0">D4*C4</f>
-        <v>0.18</v>
-      </c>
-      <c r="F4" s="8">
-        <f>F3+(F3*E4)</f>
-        <v>10443</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="D5" s="11">
-        <v>12</v>
-      </c>
-      <c r="E5" s="13">
-        <f t="shared" si="0"/>
-        <v>0.12</v>
-      </c>
-      <c r="F5" s="8">
-        <f>F4+(F4*E5)</f>
-        <v>11696.16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="31">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11">
-        <v>12</v>
-      </c>
-      <c r="E6" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <f>F5+(F5*E6)</f>
-        <v>11696.16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="13">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D7" s="11">
-        <v>12</v>
-      </c>
-      <c r="E7" s="13">
-        <f t="shared" si="0"/>
-        <v>0.18</v>
-      </c>
-      <c r="F7" s="8">
-        <f t="shared" ref="F7:F44" si="1">F6+(F6*E7)</f>
-        <v>13801.468799999999</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="6">
-        <v>6</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D8" s="12">
-        <v>12</v>
-      </c>
-      <c r="E8" s="14">
-        <f t="shared" si="0"/>
-        <v>0.18</v>
-      </c>
-      <c r="F8" s="10">
-        <f t="shared" si="1"/>
-        <v>16285.733183999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="D9" s="11">
-        <v>12</v>
-      </c>
-      <c r="E9" s="13">
-        <f t="shared" si="0"/>
-        <v>0.12</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="1"/>
-        <v>18240.021166079998</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="1">
-        <v>8</v>
-      </c>
-      <c r="C10" s="31">
-        <v>0</v>
-      </c>
-      <c r="D10" s="11">
-        <v>12</v>
-      </c>
-      <c r="E10" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="1"/>
-        <v>18240.021166079998</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="1">
-        <v>9</v>
-      </c>
-      <c r="C11" s="13">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D11" s="11">
-        <v>12</v>
-      </c>
-      <c r="E11" s="13">
-        <f t="shared" si="0"/>
-        <v>0.18</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="1"/>
-        <v>21523.224975974397</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" s="13">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D12" s="11">
-        <v>12</v>
-      </c>
-      <c r="E12" s="13">
-        <f t="shared" si="0"/>
-        <v>0.18</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" si="1"/>
-        <v>25397.405471649789</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="1">
-        <v>11</v>
-      </c>
-      <c r="C13" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="D13" s="11">
-        <v>12</v>
-      </c>
-      <c r="E13" s="13">
-        <f t="shared" si="0"/>
-        <v>0.12</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" si="1"/>
-        <v>28445.094128247762</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="1">
-        <v>12</v>
-      </c>
-      <c r="C14" s="31">
-        <v>0</v>
-      </c>
-      <c r="D14" s="11">
-        <v>12</v>
-      </c>
-      <c r="E14" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" si="1"/>
-        <v>28445.094128247762</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="1">
-        <v>13</v>
-      </c>
-      <c r="C15" s="13">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D15" s="11">
-        <v>12</v>
-      </c>
-      <c r="E15" s="13">
-        <f t="shared" si="0"/>
-        <v>0.18</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" si="1"/>
-        <v>33565.211071332356</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="1">
-        <v>14</v>
-      </c>
-      <c r="C16" s="13">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D16" s="11">
-        <v>12</v>
-      </c>
-      <c r="E16" s="13">
-        <f t="shared" si="0"/>
-        <v>0.18</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" si="1"/>
-        <v>39606.949064172179</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="6">
-        <v>15</v>
-      </c>
-      <c r="C17" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="D17" s="12">
-        <v>12</v>
-      </c>
-      <c r="E17" s="14">
-        <f t="shared" si="0"/>
-        <v>0.12</v>
-      </c>
-      <c r="F17" s="10">
-        <f t="shared" si="1"/>
-        <v>44359.782951872839</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="1">
-        <v>16</v>
-      </c>
-      <c r="C18" s="31">
-        <v>0</v>
-      </c>
-      <c r="D18" s="11">
-        <v>12</v>
-      </c>
-      <c r="E18" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" si="1"/>
-        <v>44359.782951872839</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="1">
-        <v>17</v>
-      </c>
-      <c r="C19" s="9">
-        <v>0.02</v>
-      </c>
-      <c r="D19" s="11">
-        <v>12</v>
-      </c>
-      <c r="E19" s="13">
-        <f t="shared" si="0"/>
-        <v>0.24</v>
-      </c>
-      <c r="F19" s="8">
-        <f t="shared" si="1"/>
-        <v>55006.130860322322</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="1">
-        <v>18</v>
-      </c>
-      <c r="C20" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="D20" s="11">
-        <v>12</v>
-      </c>
-      <c r="E20" s="13">
-        <f t="shared" si="0"/>
-        <v>0.24</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" si="1"/>
-        <v>68207.602266799673</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="1">
-        <v>19</v>
-      </c>
-      <c r="C21" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="D21" s="11">
-        <v>12</v>
-      </c>
-      <c r="E21" s="13">
-        <f t="shared" si="0"/>
-        <v>0.12</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" si="1"/>
-        <v>76392.514538815638</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="1">
-        <v>20</v>
-      </c>
-      <c r="C22" s="31">
-        <v>0</v>
-      </c>
-      <c r="D22" s="11">
-        <v>12</v>
-      </c>
-      <c r="E22" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="8">
-        <f t="shared" si="1"/>
-        <v>76392.514538815638</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="1">
-        <v>21</v>
-      </c>
-      <c r="C23" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="D23" s="11">
-        <v>12</v>
-      </c>
-      <c r="E23" s="13">
-        <f t="shared" si="0"/>
-        <v>0.24</v>
-      </c>
-      <c r="F23" s="8">
-        <f t="shared" si="1"/>
-        <v>94726.718028131392</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="6">
-        <v>22</v>
-      </c>
-      <c r="C24" s="14">
-        <v>0.02</v>
-      </c>
-      <c r="D24" s="12">
-        <v>11</v>
-      </c>
-      <c r="E24" s="14">
-        <f t="shared" si="0"/>
-        <v>0.22</v>
-      </c>
-      <c r="F24" s="10">
-        <f t="shared" si="1"/>
-        <v>115566.59599432029</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="1">
-        <v>23</v>
-      </c>
-      <c r="C25" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="D25" s="11">
-        <v>11</v>
-      </c>
-      <c r="E25" s="13">
-        <f t="shared" si="0"/>
-        <v>0.11</v>
-      </c>
-      <c r="F25" s="8">
-        <f t="shared" si="1"/>
-        <v>128278.92155369552</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="1">
-        <v>24</v>
-      </c>
-      <c r="C26" s="31">
-        <v>0</v>
-      </c>
-      <c r="D26" s="11">
-        <v>9</v>
-      </c>
-      <c r="E26" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="8">
-        <f t="shared" si="1"/>
-        <v>128278.92155369552</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="1">
-        <v>25</v>
-      </c>
-      <c r="C27" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="D27" s="11">
-        <v>8</v>
-      </c>
-      <c r="E27" s="13">
-        <f t="shared" si="0"/>
-        <v>0.16</v>
-      </c>
-      <c r="F27" s="8">
-        <f t="shared" si="1"/>
-        <v>148803.5490022868</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="1">
-        <v>26</v>
-      </c>
-      <c r="C28" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="D28" s="11">
-        <v>8</v>
-      </c>
-      <c r="E28" s="13">
-        <f t="shared" si="0"/>
-        <v>0.16</v>
-      </c>
-      <c r="F28" s="8">
-        <f t="shared" si="1"/>
-        <v>172612.1168426527</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="1">
-        <v>27</v>
-      </c>
-      <c r="C29" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="D29" s="11">
-        <v>7</v>
-      </c>
-      <c r="E29" s="13">
-        <f t="shared" si="0"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F29" s="8">
-        <f t="shared" si="1"/>
-        <v>184694.9650216384</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="1">
-        <v>28</v>
-      </c>
-      <c r="C30" s="31">
-        <v>0</v>
-      </c>
-      <c r="D30" s="11">
-        <v>7</v>
-      </c>
-      <c r="E30" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="8">
-        <f t="shared" si="1"/>
-        <v>184694.9650216384</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="1">
-        <v>29</v>
-      </c>
-      <c r="C31" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="D31" s="11">
-        <v>6</v>
-      </c>
-      <c r="E31" s="13">
-        <f t="shared" si="0"/>
-        <v>0.12</v>
-      </c>
-      <c r="F31" s="8">
-        <f t="shared" si="1"/>
-        <v>206858.36082423502</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="6">
-        <v>30</v>
-      </c>
-      <c r="C32" s="14">
-        <v>0.02</v>
-      </c>
-      <c r="D32" s="12">
-        <v>6</v>
-      </c>
-      <c r="E32" s="14">
-        <f t="shared" si="0"/>
-        <v>0.12</v>
-      </c>
-      <c r="F32" s="10">
-        <f t="shared" si="1"/>
-        <v>231681.36412314323</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="1">
-        <v>31</v>
-      </c>
-      <c r="C33" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="D33" s="11">
-        <v>5</v>
-      </c>
-      <c r="E33" s="13">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="F33" s="8">
-        <f t="shared" si="1"/>
-        <v>243265.43232930038</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="1">
-        <v>32</v>
-      </c>
-      <c r="C34" s="31">
-        <v>0</v>
-      </c>
-      <c r="D34" s="11">
-        <v>5</v>
-      </c>
-      <c r="E34" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="8">
-        <f t="shared" si="1"/>
-        <v>243265.43232930038</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="1">
-        <v>33</v>
-      </c>
-      <c r="C35" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="D35" s="11">
-        <v>5</v>
-      </c>
-      <c r="E35" s="13">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-      <c r="F35" s="8">
-        <f t="shared" si="1"/>
-        <v>267591.97556223045</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="1">
-        <v>35</v>
-      </c>
-      <c r="C36" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="D36" s="11">
-        <v>4</v>
-      </c>
-      <c r="E36" s="13">
-        <f t="shared" si="0"/>
-        <v>0.08</v>
-      </c>
-      <c r="F36" s="8">
-        <f t="shared" si="1"/>
-        <v>288999.33360720892</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="1">
-        <v>36</v>
-      </c>
-      <c r="C37" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="D37" s="11">
-        <v>4</v>
-      </c>
-      <c r="E37" s="3">
-        <f t="shared" si="0"/>
-        <v>0.04</v>
-      </c>
-      <c r="F37" s="8">
-        <f t="shared" si="1"/>
-        <v>300559.30695149727</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="1">
-        <v>37</v>
-      </c>
-      <c r="C38" s="31">
-        <v>0</v>
-      </c>
-      <c r="D38" s="11">
-        <v>4</v>
-      </c>
-      <c r="E38" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="8">
-        <f t="shared" si="1"/>
-        <v>300559.30695149727</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="1">
-        <v>38</v>
-      </c>
-      <c r="C39" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="D39" s="11">
-        <v>4</v>
-      </c>
-      <c r="E39" s="3">
-        <f t="shared" si="0"/>
-        <v>0.08</v>
-      </c>
-      <c r="F39" s="8">
-        <f t="shared" si="1"/>
-        <v>324604.05150761706</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="1">
-        <v>39</v>
-      </c>
-      <c r="C40" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="D40" s="11">
-        <v>4</v>
-      </c>
-      <c r="E40" s="3">
-        <f t="shared" si="0"/>
-        <v>0.08</v>
-      </c>
-      <c r="F40" s="8">
-        <f t="shared" si="1"/>
-        <v>350572.37562822644</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="1">
-        <v>40</v>
-      </c>
-      <c r="C41" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="D41" s="11">
-        <v>3</v>
-      </c>
-      <c r="E41" s="3">
-        <f t="shared" si="0"/>
-        <v>0.03</v>
-      </c>
-      <c r="F41" s="8">
-        <f t="shared" si="1"/>
-        <v>361089.54689707322</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="1">
-        <v>41</v>
-      </c>
-      <c r="C42" s="31">
-        <v>0</v>
-      </c>
-      <c r="D42" s="11">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="8">
-        <f t="shared" si="1"/>
-        <v>361089.54689707322</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="1">
-        <v>42</v>
-      </c>
-      <c r="C43" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="D43" s="11">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3">
-        <f t="shared" si="0"/>
-        <v>0.06</v>
-      </c>
-      <c r="F43" s="8">
-        <f t="shared" si="1"/>
-        <v>382754.91971089761</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="6">
-        <v>43</v>
-      </c>
-      <c r="C44" s="14">
-        <v>0.02</v>
-      </c>
-      <c r="D44" s="12">
-        <v>3</v>
-      </c>
-      <c r="E44" s="7">
-        <f t="shared" si="0"/>
-        <v>0.06</v>
-      </c>
-      <c r="F44" s="10">
-        <f t="shared" si="1"/>
-        <v>405720.21489355149</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B45" s="1">
-        <v>49</v>
-      </c>
-      <c r="C45" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="58"/>
-    </row>
-    <row r="46" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B46" s="1">
-        <v>50</v>
-      </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B47" s="1">
-        <v>51</v>
-      </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B48" s="1">
-        <v>52</v>
-      </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="8"/>
-    </row>
-    <row r="49" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B49" s="1">
-        <v>53</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B50" s="1">
-        <v>54</v>
-      </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B51" s="1">
-        <v>55</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="8"/>
-    </row>
-    <row r="52" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B52" s="1">
-        <v>56</v>
-      </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="8"/>
-    </row>
-    <row r="53" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B53" s="1">
-        <v>57</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="8"/>
-    </row>
-    <row r="54" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B54" s="1">
-        <v>58</v>
-      </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="8"/>
-    </row>
-    <row r="55" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B55" s="1">
-        <v>59</v>
-      </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="8"/>
-    </row>
-    <row r="56" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B56" s="1">
-        <v>60</v>
-      </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="8"/>
-    </row>
-    <row r="57" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B57" s="1">
-        <v>61</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="8"/>
-    </row>
-    <row r="58" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B58" s="1">
-        <v>62</v>
-      </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="8"/>
-    </row>
-    <row r="59" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B59" s="1">
-        <v>63</v>
-      </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="8"/>
-    </row>
-    <row r="60" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B60" s="1">
-        <v>64</v>
-      </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="8"/>
-    </row>
-    <row r="61" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B61" s="1">
-        <v>65</v>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="8"/>
-    </row>
-    <row r="62" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B62" s="1">
-        <v>66</v>
-      </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="8"/>
-    </row>
-    <row r="63" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B63" s="1">
-        <v>67</v>
-      </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="8"/>
-    </row>
-    <row r="64" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B64" s="1">
-        <v>68</v>
-      </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="8"/>
-    </row>
-    <row r="65" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B65" s="1">
-        <v>69</v>
-      </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="8"/>
-    </row>
-    <row r="66" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B66" s="1">
-        <v>70</v>
-      </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="8"/>
-    </row>
-    <row r="67" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B67" s="1">
-        <v>71</v>
-      </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="8"/>
-    </row>
-    <row r="68" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B68" s="1">
-        <v>72</v>
-      </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="8"/>
-    </row>
-    <row r="69" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B69" s="1">
-        <v>73</v>
-      </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="8"/>
-    </row>
-    <row r="70" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B70" s="1">
-        <v>74</v>
-      </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="8"/>
-    </row>
-    <row r="71" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B71" s="1">
-        <v>75</v>
-      </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="8"/>
-    </row>
-    <row r="72" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B72" s="1">
-        <v>76</v>
-      </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="8"/>
-    </row>
-    <row r="73" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B73" s="1">
-        <v>77</v>
-      </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="8"/>
-    </row>
-    <row r="74" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B74" s="1">
-        <v>78</v>
-      </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="8"/>
-    </row>
-    <row r="75" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B75" s="1">
-        <v>79</v>
-      </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="8"/>
-    </row>
-    <row r="76" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B76" s="1">
-        <v>80</v>
-      </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="8"/>
-    </row>
-    <row r="77" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B77" s="1">
-        <v>81</v>
-      </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="8"/>
-    </row>
-    <row r="78" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B78" s="1">
-        <v>82</v>
-      </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="8"/>
-    </row>
-    <row r="79" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B79" s="1">
-        <v>83</v>
-      </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="8"/>
-    </row>
-    <row r="80" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B80" s="1">
-        <v>84</v>
-      </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="8"/>
-    </row>
-    <row r="81" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B81" s="1">
-        <v>85</v>
-      </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="8"/>
-    </row>
-    <row r="82" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B82" s="1">
-        <v>86</v>
-      </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="8"/>
-    </row>
-    <row r="83" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B83" s="1">
-        <v>87</v>
-      </c>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="8"/>
-    </row>
-    <row r="84" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B84" s="1">
-        <v>88</v>
-      </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="8"/>
-    </row>
-    <row r="85" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B85" s="1">
-        <v>89</v>
-      </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="8"/>
-    </row>
-    <row r="86" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B86" s="1">
-        <v>90</v>
-      </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="C45:F45"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Profits Possibilities .xlsx
+++ b/Profits Possibilities .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B79FFD-6C99-45A7-B320-28A42E7150D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66C53B2-7447-4871-8D95-8AEC5F268B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reality lev 5" sheetId="11" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Reality 3" sheetId="6" r:id="rId10"/>
     <sheet name="Reality 4" sheetId="5" r:id="rId11"/>
     <sheet name="Reality 5" sheetId="8" r:id="rId12"/>
+    <sheet name="Testing" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="12">
   <si>
     <t>Day</t>
   </si>
@@ -8352,6 +8353,963 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46006CA5-E390-4988-9857-FB907A297E9E}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:I126"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="48"/>
+    <col min="9" max="9" width="14.42578125" style="51"/>
+    <col min="10" max="16384" width="14.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D3" s="11">
+        <v>15</v>
+      </c>
+      <c r="E3" s="27">
+        <f>C3*D3</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F3" s="8">
+        <f>1200+(1200*E3)</f>
+        <v>1740</v>
+      </c>
+      <c r="H3" s="48">
+        <f>(F3-I2)/I2</f>
+        <v>0.45</v>
+      </c>
+      <c r="I3" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D4" s="11">
+        <v>15</v>
+      </c>
+      <c r="E4" s="27">
+        <f t="shared" ref="E4:E35" si="0">C4*D4</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F4" s="8">
+        <f>F3+(F3*E4)</f>
+        <v>2523</v>
+      </c>
+      <c r="H4" s="48">
+        <f t="shared" ref="H4:H35" si="1">(F4-I3)/I3</f>
+        <v>1.1025</v>
+      </c>
+      <c r="I4" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D5" s="11">
+        <v>15</v>
+      </c>
+      <c r="E5" s="27">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F5" s="8">
+        <f>F4+(F4*E5)</f>
+        <v>3658.35</v>
+      </c>
+      <c r="H5" s="48">
+        <f t="shared" si="1"/>
+        <v>2.0486249999999999</v>
+      </c>
+      <c r="I5" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D6" s="11">
+        <v>15</v>
+      </c>
+      <c r="E6" s="27">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F6" s="8">
+        <f>F5+(F5*E6)</f>
+        <v>5304.6075000000001</v>
+      </c>
+      <c r="H6" s="48">
+        <f t="shared" si="1"/>
+        <v>3.4205062499999999</v>
+      </c>
+      <c r="I6" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D7" s="11">
+        <v>15</v>
+      </c>
+      <c r="E7" s="27">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" ref="F7:F35" si="2">F6+(F6*E7)</f>
+        <v>7691.680875</v>
+      </c>
+      <c r="H7" s="48">
+        <f t="shared" si="1"/>
+        <v>5.4097340625000001</v>
+      </c>
+      <c r="I7" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D8" s="11">
+        <v>15</v>
+      </c>
+      <c r="E8" s="27">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="2"/>
+        <v>11152.93726875</v>
+      </c>
+      <c r="H8" s="48">
+        <f t="shared" si="1"/>
+        <v>8.2941143906249994</v>
+      </c>
+      <c r="I8" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="D9" s="12">
+        <v>15</v>
+      </c>
+      <c r="E9" s="28">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="2"/>
+        <v>16171.759039687498</v>
+      </c>
+      <c r="H9" s="50">
+        <f t="shared" si="1"/>
+        <v>12.476465866406249</v>
+      </c>
+      <c r="I9" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D10" s="11">
+        <v>15</v>
+      </c>
+      <c r="E10" s="27">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="2"/>
+        <v>23449.050607546873</v>
+      </c>
+      <c r="H10" s="48">
+        <f t="shared" si="1"/>
+        <v>18.540875506289062</v>
+      </c>
+      <c r="I10" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D11" s="11">
+        <v>15</v>
+      </c>
+      <c r="E11" s="27">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="2"/>
+        <v>34001.123380942969</v>
+      </c>
+      <c r="H11" s="48">
+        <f t="shared" si="1"/>
+        <v>27.33426948411914</v>
+      </c>
+      <c r="I11" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D12" s="11">
+        <v>15</v>
+      </c>
+      <c r="E12" s="27">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="2"/>
+        <v>49301.628902367302</v>
+      </c>
+      <c r="H12" s="48">
+        <f t="shared" si="1"/>
+        <v>40.084690751972751</v>
+      </c>
+      <c r="I12" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D13" s="11">
+        <v>15</v>
+      </c>
+      <c r="E13" s="27">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="2"/>
+        <v>71487.361908432591</v>
+      </c>
+      <c r="H13" s="48">
+        <f t="shared" si="1"/>
+        <v>58.572801590360491</v>
+      </c>
+      <c r="I13" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D14" s="11">
+        <v>15</v>
+      </c>
+      <c r="E14" s="27">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="2"/>
+        <v>103656.67476722726</v>
+      </c>
+      <c r="H14" s="48">
+        <f t="shared" si="1"/>
+        <v>85.380562306022725</v>
+      </c>
+      <c r="I14" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D15" s="11">
+        <v>15</v>
+      </c>
+      <c r="E15" s="27">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="2"/>
+        <v>150302.17841247952</v>
+      </c>
+      <c r="H15" s="48">
+        <f t="shared" si="1"/>
+        <v>124.25181534373293</v>
+      </c>
+      <c r="I15" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="6">
+        <v>14</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="D16" s="12">
+        <v>15</v>
+      </c>
+      <c r="E16" s="28">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="2"/>
+        <v>217938.1586980953</v>
+      </c>
+      <c r="H16" s="50">
+        <f t="shared" si="1"/>
+        <v>180.61513224841275</v>
+      </c>
+      <c r="I16" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D17" s="11">
+        <v>10</v>
+      </c>
+      <c r="E17" s="27">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="2"/>
+        <v>283319.60630752391</v>
+      </c>
+      <c r="H17" s="48">
+        <f t="shared" si="1"/>
+        <v>235.09967192293658</v>
+      </c>
+      <c r="I17" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D18" s="11">
+        <v>8</v>
+      </c>
+      <c r="E18" s="27">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="2"/>
+        <v>351316.31182132964</v>
+      </c>
+      <c r="H18" s="48">
+        <f t="shared" si="1"/>
+        <v>291.76359318444139</v>
+      </c>
+      <c r="I18" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D19" s="11">
+        <v>7</v>
+      </c>
+      <c r="E19" s="27">
+        <f t="shared" si="0"/>
+        <v>0.21</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="2"/>
+        <v>425092.73730380886</v>
+      </c>
+      <c r="H19" s="48">
+        <f t="shared" si="1"/>
+        <v>353.24394775317404</v>
+      </c>
+      <c r="I19" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D20" s="11">
+        <v>6</v>
+      </c>
+      <c r="E20" s="27">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="2"/>
+        <v>501609.43001849443</v>
+      </c>
+      <c r="H20" s="48">
+        <f t="shared" si="1"/>
+        <v>417.00785834874534</v>
+      </c>
+      <c r="I20" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D21" s="11">
+        <v>5</v>
+      </c>
+      <c r="E21" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="2"/>
+        <v>576850.84452126862</v>
+      </c>
+      <c r="H21" s="48">
+        <f t="shared" si="1"/>
+        <v>479.70903710105716</v>
+      </c>
+      <c r="I21" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D22" s="11">
+        <v>5</v>
+      </c>
+      <c r="E22" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="2"/>
+        <v>663378.47119945893</v>
+      </c>
+      <c r="H22" s="48">
+        <f t="shared" si="1"/>
+        <v>551.81539266621576</v>
+      </c>
+      <c r="I22" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="6">
+        <v>21</v>
+      </c>
+      <c r="C23" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="D23" s="12">
+        <v>4</v>
+      </c>
+      <c r="E23" s="28">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="2"/>
+        <v>742983.88774339401</v>
+      </c>
+      <c r="H23" s="50">
+        <f t="shared" si="1"/>
+        <v>618.15323978616163</v>
+      </c>
+      <c r="I23" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D24" s="11">
+        <v>3</v>
+      </c>
+      <c r="E24" s="27">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="2"/>
+        <v>809852.43764029944</v>
+      </c>
+      <c r="H24" s="48">
+        <f t="shared" si="1"/>
+        <v>673.87703136691619</v>
+      </c>
+      <c r="I24" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D25" s="11">
+        <v>3</v>
+      </c>
+      <c r="E25" s="27">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="2"/>
+        <v>882739.15702792641</v>
+      </c>
+      <c r="H25" s="48">
+        <f t="shared" si="1"/>
+        <v>734.61596418993872</v>
+      </c>
+      <c r="I25" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D26" s="11">
+        <v>3</v>
+      </c>
+      <c r="E26" s="27">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="2"/>
+        <v>962185.68116043974</v>
+      </c>
+      <c r="H26" s="48">
+        <f t="shared" si="1"/>
+        <v>800.82140096703313</v>
+      </c>
+      <c r="I26" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D27" s="11">
+        <v>3</v>
+      </c>
+      <c r="E27" s="27">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="2"/>
+        <v>1048782.3924648792</v>
+      </c>
+      <c r="H27" s="48">
+        <f t="shared" si="1"/>
+        <v>872.98532705406603</v>
+      </c>
+      <c r="I27" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>26</v>
+      </c>
+      <c r="C28" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D28" s="11">
+        <v>3</v>
+      </c>
+      <c r="E28" s="27">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="2"/>
+        <v>1143172.8077867182</v>
+      </c>
+      <c r="H28" s="48">
+        <f t="shared" si="1"/>
+        <v>951.64400648893184</v>
+      </c>
+      <c r="I28" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>27</v>
+      </c>
+      <c r="C29" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D29" s="11">
+        <v>3</v>
+      </c>
+      <c r="E29" s="27">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="2"/>
+        <v>1246058.3604875228</v>
+      </c>
+      <c r="H29" s="48">
+        <f t="shared" si="1"/>
+        <v>1037.3819670729356</v>
+      </c>
+      <c r="I29" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>28</v>
+      </c>
+      <c r="C30" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D30" s="11">
+        <v>3</v>
+      </c>
+      <c r="E30" s="27">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" si="2"/>
+        <v>1358203.6129313998</v>
+      </c>
+      <c r="H30" s="48">
+        <f t="shared" si="1"/>
+        <v>1130.8363441094998</v>
+      </c>
+      <c r="I30" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1">
+        <v>29</v>
+      </c>
+      <c r="C31" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D31" s="11">
+        <v>3</v>
+      </c>
+      <c r="E31" s="27">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="2"/>
+        <v>1480441.9380952257</v>
+      </c>
+      <c r="H31" s="48">
+        <f t="shared" si="1"/>
+        <v>1232.7016150793547</v>
+      </c>
+      <c r="I31" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1">
+        <v>30</v>
+      </c>
+      <c r="C32" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D32" s="11">
+        <v>3</v>
+      </c>
+      <c r="E32" s="27">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" si="2"/>
+        <v>1613681.7125237961</v>
+      </c>
+      <c r="H32" s="48">
+        <f t="shared" si="1"/>
+        <v>1343.7347604364968</v>
+      </c>
+      <c r="I32" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <v>31</v>
+      </c>
+      <c r="C33" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D33" s="11">
+        <v>3</v>
+      </c>
+      <c r="E33" s="27">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="F33" s="8">
+        <f t="shared" si="2"/>
+        <v>1758913.0666509378</v>
+      </c>
+      <c r="H33" s="48">
+        <f t="shared" si="1"/>
+        <v>1464.7608888757816</v>
+      </c>
+      <c r="I33" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <v>32</v>
+      </c>
+      <c r="C34" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D34" s="11">
+        <v>3</v>
+      </c>
+      <c r="E34" s="27">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="2"/>
+        <v>1917215.2426495221</v>
+      </c>
+      <c r="H34" s="48">
+        <f t="shared" si="1"/>
+        <v>1596.6793688746018</v>
+      </c>
+      <c r="I34" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="35">
+        <v>33</v>
+      </c>
+      <c r="C35" s="42">
+        <v>0.03</v>
+      </c>
+      <c r="D35" s="37">
+        <v>3</v>
+      </c>
+      <c r="E35" s="38">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="F35" s="39">
+        <f t="shared" si="2"/>
+        <v>2089764.6144879791</v>
+      </c>
+      <c r="G35" s="45">
+        <f t="shared" ref="G35" si="3">F35-F6</f>
+        <v>2084460.0069879792</v>
+      </c>
+      <c r="H35" s="50">
+        <f t="shared" si="1"/>
+        <v>1740.4705120733158</v>
+      </c>
+      <c r="I35" s="52">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="45"/>
+      <c r="I66" s="51"/>
+    </row>
+    <row r="96" spans="1:9" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="45"/>
+      <c r="I96" s="51"/>
+    </row>
+    <row r="126" spans="1:9" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="45"/>
+      <c r="I126" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374A0E1D-0A2D-49FA-BD3B-0830D25921C5}">
   <sheetPr>
@@ -13577,8 +14535,8 @@
   </sheetPr>
   <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14477,7 +15435,7 @@
         <v>750081.20432919182</v>
       </c>
       <c r="G35" s="45">
-        <f t="shared" ref="G33:G35" si="3">F35-F6</f>
+        <f t="shared" ref="G35" si="3">F35-F6</f>
         <v>746653.88432919187</v>
       </c>
       <c r="H35" s="50">

--- a/Profits Possibilities .xlsx
+++ b/Profits Possibilities .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66C53B2-7447-4871-8D95-8AEC5F268B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C98EEB-6300-4C2A-B5C8-E0B19BF137B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reality lev 5" sheetId="11" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="36">
   <si>
     <t>Day</t>
   </si>
@@ -80,6 +80,79 @@
   <si>
     <t>% GAIN</t>
   </si>
+  <si>
+    <t>Sylvana Nurse</t>
+  </si>
+  <si>
+    <t>Chabel AC</t>
+  </si>
+  <si>
+    <t>Under Bridge Antelias</t>
+  </si>
+  <si>
+    <t>Sofi Marriage</t>
+  </si>
+  <si>
+    <t>Teta</t>
+  </si>
+  <si>
+    <t>Maxim Genia</t>
+  </si>
+  <si>
+    <t>Peter Helena</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>Sass</t>
+  </si>
+  <si>
+    <t>Georges Mirella</t>
+  </si>
+  <si>
+    <t>Bash</t>
+  </si>
+  <si>
+    <t>Micho Dish</t>
+  </si>
+  <si>
+    <t>Aida Charbel</t>
+  </si>
+  <si>
+    <t>Ammo Youssef</t>
+  </si>
+  <si>
+    <t>Marwan Hicham</t>
+  </si>
+  <si>
+    <t>Mazhar</t>
+  </si>
+  <si>
+    <t>Bhajat</t>
+  </si>
+  <si>
+    <t>Hammoudi Riyad</t>
+  </si>
+  <si>
+    <t>Tony Broumana</t>
+  </si>
+  <si>
+    <t>The way you manage your everyday emotions outside of trading mirrors the way you will end up reacting to the markets.
+Control your life, then control your trades.</t>
+  </si>
+  <si>
+    <t>Elie Ghissele Forn</t>
+  </si>
+  <si>
+    <t>Ali khodra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
+  </si>
 </sst>
 </file>
 
@@ -88,7 +161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -169,6 +242,35 @@
       <b/>
       <sz val="8"/>
       <color theme="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -303,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -453,6 +555,12 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -486,6 +594,13 @@
     <xf numFmtId="10" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -821,7 +936,7 @@
     <col min="8" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="56" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1" spans="2:6" s="58" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -2562,13 +2677,13 @@
       </c>
     </row>
     <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="53" t="s">
+      <c r="B93" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C93" s="54"/>
-      <c r="D93" s="54"/>
-      <c r="E93" s="54"/>
-      <c r="F93" s="55"/>
+      <c r="C93" s="56"/>
+      <c r="D93" s="56"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="57"/>
     </row>
     <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="43">
@@ -4309,7 +4424,7 @@
   </sheetPr>
   <dimension ref="B1:F86"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C45" sqref="C45:F45"/>
     </sheetView>
   </sheetViews>
@@ -4325,11 +4440,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -5150,12 +5265,12 @@
       <c r="B45" s="1">
         <v>49</v>
       </c>
-      <c r="C45" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="60"/>
+      <c r="C45" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="62"/>
     </row>
     <row r="46" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
@@ -5544,7 +5659,7 @@
   <dimension ref="B1:G92"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5559,11 +5674,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -6793,12 +6908,12 @@
       <c r="B66" s="1">
         <v>64</v>
       </c>
-      <c r="C66" s="61" t="s">
+      <c r="C66" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="62"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="63"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="65"/>
       <c r="G66" s="32"/>
     </row>
     <row r="67" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -7052,7 +7167,7 @@
   </sheetPr>
   <dimension ref="B1:F82"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
@@ -7068,11 +7183,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -8102,12 +8217,12 @@
       <c r="B56" s="1">
         <v>64</v>
       </c>
-      <c r="C56" s="61" t="s">
+      <c r="C56" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="63"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="65"/>
     </row>
     <row r="57" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
@@ -8358,10 +8473,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8375,18 +8490,19 @@
     <col min="7" max="7" width="22.28515625" style="44" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" style="48"/>
     <col min="9" max="9" width="14.42578125" style="51"/>
-    <col min="10" max="16384" width="14.42578125" style="2"/>
+    <col min="10" max="10" width="72.7109375" style="53" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+    <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -8408,8 +8524,11 @@
       <c r="I2" s="52">
         <v>1200</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -8434,8 +8553,11 @@
       <c r="I3" s="52">
         <v>1200</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -8460,8 +8582,11 @@
       <c r="I4" s="52">
         <v>1200</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -8486,8 +8611,11 @@
       <c r="I5" s="52">
         <v>1200</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -8512,8 +8640,11 @@
       <c r="I6" s="52">
         <v>1200</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -8538,8 +8669,11 @@
       <c r="I7" s="52">
         <v>1200</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -8564,8 +8698,11 @@
       <c r="I8" s="52">
         <v>1200</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6">
         <v>7</v>
       </c>
@@ -8590,8 +8727,11 @@
       <c r="I9" s="52">
         <v>1200</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -8616,8 +8756,11 @@
       <c r="I10" s="52">
         <v>1200</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -8642,8 +8785,11 @@
       <c r="I11" s="52">
         <v>1200</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -8668,8 +8814,11 @@
       <c r="I12" s="52">
         <v>1200</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -8694,8 +8843,11 @@
       <c r="I13" s="52">
         <v>1200</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -8720,8 +8872,11 @@
       <c r="I14" s="52">
         <v>1200</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -8746,8 +8901,11 @@
       <c r="I15" s="52">
         <v>1200</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6">
         <v>14</v>
       </c>
@@ -8772,8 +8930,11 @@
       <c r="I16" s="52">
         <v>1200</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J16" s="53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>15</v>
       </c>
@@ -8798,8 +8959,11 @@
       <c r="I17" s="52">
         <v>1200</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -8824,8 +8988,11 @@
       <c r="I18" s="52">
         <v>1200</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J18" s="53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -8850,8 +9017,11 @@
       <c r="I19" s="52">
         <v>1200</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J19" s="53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>18</v>
       </c>
@@ -8876,8 +9046,11 @@
       <c r="I20" s="52">
         <v>1200</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J20" s="53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>19</v>
       </c>
@@ -8902,8 +9075,11 @@
       <c r="I21" s="52">
         <v>1200</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J21" s="53" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>20</v>
       </c>
@@ -8928,8 +9104,11 @@
       <c r="I22" s="52">
         <v>1200</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J22" s="66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="6">
         <v>21</v>
       </c>
@@ -8954,8 +9133,9 @@
       <c r="I23" s="52">
         <v>1200</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J23" s="66"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>22</v>
       </c>
@@ -8980,8 +9160,9 @@
       <c r="I24" s="52">
         <v>1200</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J24" s="66"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>23</v>
       </c>
@@ -9006,8 +9187,11 @@
       <c r="I25" s="52">
         <v>1200</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J25" s="53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>24</v>
       </c>
@@ -9032,8 +9216,11 @@
       <c r="I26" s="52">
         <v>1200</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J26" s="53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>25</v>
       </c>
@@ -9059,7 +9246,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>26</v>
       </c>
@@ -9085,7 +9272,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>27</v>
       </c>
@@ -9111,7 +9298,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>28</v>
       </c>
@@ -9137,7 +9324,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>29</v>
       </c>
@@ -9163,7 +9350,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
         <v>30</v>
       </c>
@@ -9271,7 +9458,10 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="32"/>
+    </row>
+    <row r="66" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -9280,8 +9470,9 @@
       <c r="F66" s="2"/>
       <c r="G66" s="45"/>
       <c r="I66" s="51"/>
-    </row>
-    <row r="96" spans="1:9" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J66" s="54"/>
+    </row>
+    <row r="96" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -9290,8 +9481,9 @@
       <c r="F96" s="2"/>
       <c r="G96" s="45"/>
       <c r="I96" s="51"/>
-    </row>
-    <row r="126" spans="1:9" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J96" s="54"/>
+    </row>
+    <row r="126" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -9300,10 +9492,12 @@
       <c r="F126" s="2"/>
       <c r="G126" s="45"/>
       <c r="I126" s="51"/>
+      <c r="J126" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:F1"/>
+    <mergeCell ref="J22:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9334,11 +9528,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11103,10 +11297,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:G183"/>
+  <dimension ref="B1:K183"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11117,19 +11311,20 @@
     <col min="4" max="4" width="20.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="30.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="44" customWidth="1"/>
-    <col min="8" max="16384" width="14.42578125" style="2"/>
+    <col min="7" max="7" width="19.42578125" style="44" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="48"/>
+    <col min="9" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+    <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -11145,1728 +11340,2370 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D3" s="11">
         <v>7</v>
       </c>
       <c r="E3" s="27">
         <f>C3*D3</f>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F3" s="8">
-        <f>11000+(11000*E3)</f>
-        <v>11231</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f>1000+(1000*E3)</f>
+        <v>1140</v>
+      </c>
+      <c r="H3" s="48">
+        <f>(F3-I2)/I2</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I3" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D4" s="11">
         <v>7</v>
       </c>
       <c r="E4" s="27">
         <f t="shared" ref="E4:E67" si="0">C4*D4</f>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F4" s="8">
         <f>F3+(F3*E4)</f>
-        <v>11466.851000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1299.5999999999999</v>
+      </c>
+      <c r="H4" s="48">
+        <f t="shared" ref="H4:H67" si="1">(F4-I3)/I3</f>
+        <v>0.29959999999999992</v>
+      </c>
+      <c r="I4" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D5" s="11">
         <v>7</v>
       </c>
       <c r="E5" s="27">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F5" s="8">
         <f>F4+(F4*E5)</f>
-        <v>11707.654871000001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1481.5439999999999</v>
+      </c>
+      <c r="H5" s="48">
+        <f t="shared" si="1"/>
+        <v>0.48154399999999986</v>
+      </c>
+      <c r="I5" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D6" s="11">
         <v>7</v>
       </c>
       <c r="E6" s="27">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F6" s="8">
         <f>F5+(F5*E6)</f>
-        <v>11953.515623291001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1688.9601599999999</v>
+      </c>
+      <c r="H6" s="48">
+        <f t="shared" si="1"/>
+        <v>0.68896015999999982</v>
+      </c>
+      <c r="I6" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D7" s="11">
         <v>7</v>
       </c>
       <c r="E7" s="27">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" ref="F7:F70" si="1">F6+(F6*E7)</f>
-        <v>12204.539451380113</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="F7:F70" si="2">F6+(F6*E7)</f>
+        <v>1925.4145823999997</v>
+      </c>
+      <c r="H7" s="48">
+        <f t="shared" si="1"/>
+        <v>0.92541458239999974</v>
+      </c>
+      <c r="I7" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D8" s="11">
         <v>7</v>
       </c>
       <c r="E8" s="27">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="1"/>
-        <v>12460.834779859095</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2194.9726239359998</v>
+      </c>
+      <c r="H8" s="48">
+        <f t="shared" si="1"/>
+        <v>1.1949726239359997</v>
+      </c>
+      <c r="I8" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6">
         <v>7</v>
       </c>
       <c r="C9" s="26">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D9" s="12">
         <v>7</v>
       </c>
       <c r="E9" s="28">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F9" s="10">
-        <f t="shared" si="1"/>
-        <v>12722.512310236136</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2502.2687912870397</v>
+      </c>
+      <c r="H9" s="50">
+        <f t="shared" si="1"/>
+        <v>1.5022687912870396</v>
+      </c>
+      <c r="I9" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>8</v>
       </c>
       <c r="C10" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D10" s="11">
         <v>7</v>
       </c>
       <c r="E10" s="27">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="1"/>
-        <v>12989.685068751094</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2852.5864220672252</v>
+      </c>
+      <c r="H10" s="48">
+        <f t="shared" si="1"/>
+        <v>1.8525864220672252</v>
+      </c>
+      <c r="I10" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>9</v>
       </c>
       <c r="C11" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D11" s="11">
         <v>7</v>
       </c>
       <c r="E11" s="27">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="1"/>
-        <v>13262.468455194867</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>3251.9485211566366</v>
+      </c>
+      <c r="H11" s="48">
+        <f t="shared" si="1"/>
+        <v>2.2519485211566366</v>
+      </c>
+      <c r="I11" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
         <v>10</v>
       </c>
       <c r="C12" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D12" s="11">
         <v>7</v>
       </c>
       <c r="E12" s="27">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="1"/>
-        <v>13540.980292753959</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>3707.2213141185657</v>
+      </c>
+      <c r="H12" s="48">
+        <f t="shared" si="1"/>
+        <v>2.7072213141185659</v>
+      </c>
+      <c r="I12" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
         <v>11</v>
       </c>
       <c r="C13" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D13" s="11">
         <v>7</v>
       </c>
       <c r="E13" s="27">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="1"/>
-        <v>13825.340878901792</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4226.2322980951649</v>
+      </c>
+      <c r="H13" s="48">
+        <f t="shared" si="1"/>
+        <v>3.226232298095165</v>
+      </c>
+      <c r="I13" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>12</v>
       </c>
       <c r="C14" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D14" s="11">
         <v>7</v>
       </c>
       <c r="E14" s="27">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="1"/>
-        <v>14115.673037358731</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>4817.9048198284881</v>
+      </c>
+      <c r="H14" s="48">
+        <f t="shared" si="1"/>
+        <v>3.8179048198284882</v>
+      </c>
+      <c r="I14" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
         <v>13</v>
       </c>
       <c r="C15" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D15" s="11">
         <v>7</v>
       </c>
       <c r="E15" s="27">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="1"/>
-        <v>14412.102171143264</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>5492.4114946044765</v>
+      </c>
+      <c r="H15" s="48">
+        <f t="shared" si="1"/>
+        <v>4.4924114946044762</v>
+      </c>
+      <c r="I15" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="6">
         <v>14</v>
       </c>
       <c r="C16" s="26">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D16" s="12">
         <v>7</v>
       </c>
       <c r="E16" s="28">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F16" s="10">
-        <f t="shared" si="1"/>
-        <v>14714.756316737272</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>6261.3491038491029</v>
+      </c>
+      <c r="H16" s="50">
+        <f t="shared" si="1"/>
+        <v>5.2613491038491027</v>
+      </c>
+      <c r="I16" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
         <v>15</v>
       </c>
       <c r="C17" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D17" s="11">
         <v>7</v>
       </c>
       <c r="E17" s="27">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="1"/>
-        <v>15023.766199388754</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>7137.9379783879776</v>
+      </c>
+      <c r="H17" s="48">
+        <f t="shared" si="1"/>
+        <v>6.1379379783879777</v>
+      </c>
+      <c r="I17" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
         <v>16</v>
       </c>
       <c r="C18" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D18" s="11">
         <v>7</v>
       </c>
       <c r="E18" s="27">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="1"/>
-        <v>15339.265289575918</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>8137.249295362295</v>
+      </c>
+      <c r="H18" s="48">
+        <f t="shared" si="1"/>
+        <v>7.1372492953622952</v>
+      </c>
+      <c r="I18" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>17</v>
       </c>
       <c r="C19" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D19" s="11">
         <v>7</v>
       </c>
       <c r="E19" s="27">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="1"/>
-        <v>15661.389860657013</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>9276.4641967130156</v>
+      </c>
+      <c r="H19" s="48">
+        <f t="shared" si="1"/>
+        <v>8.2764641967130164</v>
+      </c>
+      <c r="I19" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
         <v>18</v>
       </c>
       <c r="C20" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D20" s="11">
         <v>7</v>
       </c>
       <c r="E20" s="27">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="1"/>
-        <v>15990.27904773081</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>10575.169184252838</v>
+      </c>
+      <c r="H20" s="48">
+        <f t="shared" si="1"/>
+        <v>9.5751691842528377</v>
+      </c>
+      <c r="I20" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1">
         <v>19</v>
       </c>
       <c r="C21" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D21" s="11">
         <v>7</v>
       </c>
       <c r="E21" s="27">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="1"/>
-        <v>16326.074907733157</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>12055.692870048235</v>
+      </c>
+      <c r="H21" s="48">
+        <f t="shared" si="1"/>
+        <v>11.055692870048235</v>
+      </c>
+      <c r="I21" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>20</v>
       </c>
       <c r="C22" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D22" s="11">
         <v>7</v>
       </c>
       <c r="E22" s="27">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="1"/>
-        <v>16668.922480795554</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>13743.489871854988</v>
+      </c>
+      <c r="H22" s="48">
+        <f t="shared" si="1"/>
+        <v>12.743489871854988</v>
+      </c>
+      <c r="I22" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="6">
         <v>21</v>
       </c>
       <c r="C23" s="26">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D23" s="12">
         <v>7</v>
       </c>
       <c r="E23" s="28">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F23" s="10">
-        <f t="shared" si="1"/>
-        <v>17018.96985289226</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>15667.578453914688</v>
+      </c>
+      <c r="H23" s="50">
+        <f t="shared" si="1"/>
+        <v>14.667578453914688</v>
+      </c>
+      <c r="I23" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>22</v>
       </c>
       <c r="C24" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D24" s="11">
         <v>7</v>
       </c>
       <c r="E24" s="27">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="1"/>
-        <v>17376.368219802996</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>17861.039437462743</v>
+      </c>
+      <c r="H24" s="48">
+        <f t="shared" si="1"/>
+        <v>16.861039437462743</v>
+      </c>
+      <c r="I24" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>23</v>
       </c>
       <c r="C25" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D25" s="11">
         <v>7</v>
       </c>
       <c r="E25" s="27">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="1"/>
-        <v>17741.271952418858</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>20361.584958707528</v>
+      </c>
+      <c r="H25" s="48">
+        <f t="shared" si="1"/>
+        <v>19.361584958707528</v>
+      </c>
+      <c r="I25" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>24</v>
       </c>
       <c r="C26" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D26" s="11">
         <v>7</v>
       </c>
       <c r="E26" s="27">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="1"/>
-        <v>18113.838663419654</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>23212.206852926582</v>
+      </c>
+      <c r="H26" s="48">
+        <f t="shared" si="1"/>
+        <v>22.212206852926581</v>
+      </c>
+      <c r="I26" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>25</v>
       </c>
       <c r="C27" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D27" s="11">
         <v>7</v>
       </c>
       <c r="E27" s="27">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F27" s="8">
-        <f t="shared" si="1"/>
-        <v>18494.229275351467</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>26461.915812336305</v>
+      </c>
+      <c r="H27" s="48">
+        <f t="shared" si="1"/>
+        <v>25.461915812336304</v>
+      </c>
+      <c r="I27" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>26</v>
       </c>
       <c r="C28" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D28" s="11">
         <v>7</v>
       </c>
       <c r="E28" s="27">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F28" s="8">
-        <f t="shared" si="1"/>
-        <v>18882.608090133846</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>30166.584026063389</v>
+      </c>
+      <c r="H28" s="48">
+        <f t="shared" si="1"/>
+        <v>29.16658402606339</v>
+      </c>
+      <c r="I28" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>27</v>
       </c>
       <c r="C29" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D29" s="11">
         <v>7</v>
       </c>
       <c r="E29" s="27">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F29" s="8">
-        <f t="shared" si="1"/>
-        <v>19279.142860026659</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>34389.905789712262</v>
+      </c>
+      <c r="H29" s="48">
+        <f t="shared" si="1"/>
+        <v>33.389905789712259</v>
+      </c>
+      <c r="I29" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>28</v>
       </c>
       <c r="C30" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D30" s="11">
         <v>7</v>
       </c>
       <c r="E30" s="27">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F30" s="8">
-        <f t="shared" si="1"/>
-        <v>19684.004860087218</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>39204.49260027198</v>
+      </c>
+      <c r="H30" s="48">
+        <f t="shared" si="1"/>
+        <v>38.204492600271983</v>
+      </c>
+      <c r="I30" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
         <v>29</v>
       </c>
       <c r="C31" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D31" s="11">
         <v>7</v>
       </c>
       <c r="E31" s="27">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F31" s="8">
-        <f t="shared" si="1"/>
-        <v>20097.368962149048</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>44693.121564310059</v>
+      </c>
+      <c r="H31" s="48">
+        <f t="shared" si="1"/>
+        <v>43.693121564310061</v>
+      </c>
+      <c r="I31" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="35">
         <v>30</v>
       </c>
       <c r="C32" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D32" s="37">
         <v>7</v>
       </c>
       <c r="E32" s="38">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F32" s="39">
-        <f t="shared" si="1"/>
-        <v>20519.41371035418</v>
+        <f t="shared" si="2"/>
+        <v>50950.158583313467</v>
       </c>
       <c r="G32" s="45">
         <f>F32-F3</f>
-        <v>9288.4137103541798</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49810.158583313467</v>
+      </c>
+      <c r="H32" s="50">
+        <f t="shared" si="1"/>
+        <v>49.950158583313467</v>
+      </c>
+      <c r="I32" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>31</v>
       </c>
       <c r="C33" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D33" s="11">
         <v>7</v>
       </c>
       <c r="E33" s="27">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F33" s="8">
-        <f t="shared" si="1"/>
-        <v>20950.321398271619</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>58083.180784977354</v>
+      </c>
+      <c r="H33" s="48">
+        <f t="shared" si="1"/>
+        <v>57.083180784977351</v>
+      </c>
+      <c r="I33" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>32</v>
       </c>
       <c r="C34" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D34" s="11">
         <v>7</v>
       </c>
       <c r="E34" s="27">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F34" s="8">
-        <f t="shared" si="1"/>
-        <v>21390.278147635323</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>66214.826094874181</v>
+      </c>
+      <c r="H34" s="48">
+        <f t="shared" si="1"/>
+        <v>65.214826094874184</v>
+      </c>
+      <c r="I34" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>33</v>
       </c>
       <c r="C35" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D35" s="11">
         <v>7</v>
       </c>
       <c r="E35" s="27">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F35" s="8">
-        <f t="shared" si="1"/>
-        <v>21839.473988735666</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>75484.901748156568</v>
+      </c>
+      <c r="H35" s="48">
+        <f t="shared" si="1"/>
+        <v>74.484901748156574</v>
+      </c>
+      <c r="I35" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1">
         <v>34</v>
       </c>
       <c r="C36" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D36" s="11">
         <v>7</v>
       </c>
       <c r="E36" s="29">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F36" s="8">
-        <f t="shared" si="1"/>
-        <v>22298.102942499114</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>86052.787992898491</v>
+      </c>
+      <c r="H36" s="48">
+        <f t="shared" si="1"/>
+        <v>85.052787992898487</v>
+      </c>
+      <c r="I36" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
         <v>35</v>
       </c>
       <c r="C37" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D37" s="11">
         <v>7</v>
       </c>
       <c r="E37" s="29">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F37" s="8">
-        <f t="shared" si="1"/>
-        <v>22766.363104291595</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>98100.178311904281</v>
+      </c>
+      <c r="H37" s="48">
+        <f t="shared" si="1"/>
+        <v>97.100178311904287</v>
+      </c>
+      <c r="I37" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
         <v>36</v>
       </c>
       <c r="C38" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D38" s="11">
         <v>7</v>
       </c>
       <c r="E38" s="29">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F38" s="8">
-        <f t="shared" si="1"/>
-        <v>23244.456729481717</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>111834.20327557088</v>
+      </c>
+      <c r="H38" s="48">
+        <f t="shared" si="1"/>
+        <v>110.83420327557089</v>
+      </c>
+      <c r="I38" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="6">
         <v>37</v>
       </c>
       <c r="C39" s="26">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D39" s="12">
         <v>7</v>
       </c>
       <c r="E39" s="30">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F39" s="10">
-        <f t="shared" si="1"/>
-        <v>23732.590320800835</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>127490.9917341508</v>
+      </c>
+      <c r="H39" s="50">
+        <f t="shared" si="1"/>
+        <v>126.4909917341508</v>
+      </c>
+      <c r="I39" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
         <v>38</v>
       </c>
       <c r="C40" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D40" s="11">
         <v>7</v>
       </c>
       <c r="E40" s="29">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F40" s="8">
-        <f t="shared" si="1"/>
-        <v>24230.974717537654</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>145339.73057693191</v>
+      </c>
+      <c r="H40" s="48">
+        <f t="shared" si="1"/>
+        <v>144.33973057693191</v>
+      </c>
+      <c r="I40" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1">
         <v>39</v>
       </c>
       <c r="C41" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D41" s="11">
         <v>7</v>
       </c>
       <c r="E41" s="29">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F41" s="8">
-        <f t="shared" si="1"/>
-        <v>24739.825186605944</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>165687.29285770238</v>
+      </c>
+      <c r="H41" s="48">
+        <f t="shared" si="1"/>
+        <v>164.68729285770237</v>
+      </c>
+      <c r="I41" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>40</v>
       </c>
       <c r="C42" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D42" s="11">
         <v>7</v>
       </c>
       <c r="E42" s="29">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F42" s="8">
-        <f t="shared" si="1"/>
-        <v>25259.36151552467</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>188883.51385778072</v>
+      </c>
+      <c r="H42" s="48">
+        <f t="shared" si="1"/>
+        <v>187.88351385778071</v>
+      </c>
+      <c r="I42" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1">
         <v>41</v>
       </c>
       <c r="C43" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D43" s="11">
         <v>7</v>
       </c>
       <c r="E43" s="29">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F43" s="8">
-        <f t="shared" si="1"/>
-        <v>25789.808107350687</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>215327.20579787003</v>
+      </c>
+      <c r="H43" s="48">
+        <f t="shared" si="1"/>
+        <v>214.32720579787002</v>
+      </c>
+      <c r="I43" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
         <v>42</v>
       </c>
       <c r="C44" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D44" s="11">
         <v>7</v>
       </c>
       <c r="E44" s="29">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F44" s="8">
-        <f t="shared" si="1"/>
-        <v>26331.394077605051</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>245473.01460957184</v>
+      </c>
+      <c r="H44" s="48">
+        <f t="shared" si="1"/>
+        <v>244.47301460957183</v>
+      </c>
+      <c r="I44" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <v>43</v>
       </c>
       <c r="C45" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D45" s="11">
         <v>7</v>
       </c>
       <c r="E45" s="29">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F45" s="8">
-        <f t="shared" si="1"/>
-        <v>26884.353353234757</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>279839.23665491189</v>
+      </c>
+      <c r="H45" s="48">
+        <f t="shared" si="1"/>
+        <v>278.83923665491187</v>
+      </c>
+      <c r="I45" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="6">
         <v>44</v>
       </c>
       <c r="C46" s="26">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D46" s="12">
         <v>7</v>
       </c>
       <c r="E46" s="30">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F46" s="10">
-        <f t="shared" si="1"/>
-        <v>27448.924773652689</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>319016.72978659958</v>
+      </c>
+      <c r="H46" s="50">
+        <f t="shared" si="1"/>
+        <v>318.01672978659957</v>
+      </c>
+      <c r="I46" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
         <v>45</v>
       </c>
       <c r="C47" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D47" s="11">
         <v>7</v>
       </c>
       <c r="E47" s="29">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F47" s="8">
-        <f t="shared" si="1"/>
-        <v>28025.352193899394</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>363679.07195672352</v>
+      </c>
+      <c r="H47" s="48">
+        <f t="shared" si="1"/>
+        <v>362.67907195672353</v>
+      </c>
+      <c r="I47" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="1">
         <v>46</v>
       </c>
       <c r="C48" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D48" s="11">
         <v>7</v>
       </c>
       <c r="E48" s="29">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F48" s="8">
-        <f t="shared" si="1"/>
-        <v>28613.884589971283</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>414594.14203066484</v>
+      </c>
+      <c r="H48" s="48">
+        <f t="shared" si="1"/>
+        <v>413.59414203066484</v>
+      </c>
+      <c r="I48" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1">
         <v>47</v>
       </c>
       <c r="C49" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D49" s="11">
         <v>7</v>
       </c>
       <c r="E49" s="29">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F49" s="8">
-        <f t="shared" si="1"/>
-        <v>29214.77616636068</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>472637.32191495789</v>
+      </c>
+      <c r="H49" s="48">
+        <f t="shared" si="1"/>
+        <v>471.63732191495791</v>
+      </c>
+      <c r="I49" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="1">
         <v>48</v>
       </c>
       <c r="C50" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D50" s="11">
         <v>7</v>
       </c>
       <c r="E50" s="29">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F50" s="8">
-        <f t="shared" si="1"/>
-        <v>29828.286465854253</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>538806.54698305205</v>
+      </c>
+      <c r="H50" s="48">
+        <f t="shared" si="1"/>
+        <v>537.80654698305204</v>
+      </c>
+      <c r="I50" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="1">
         <v>49</v>
       </c>
       <c r="C51" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D51" s="11">
         <v>7</v>
       </c>
       <c r="E51" s="29">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F51" s="8">
-        <f t="shared" si="1"/>
-        <v>30454.680481637191</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>614239.46356067935</v>
+      </c>
+      <c r="H51" s="48">
+        <f t="shared" si="1"/>
+        <v>613.23946356067938</v>
+      </c>
+      <c r="I51" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B52" s="1">
         <v>50</v>
       </c>
       <c r="C52" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D52" s="11">
         <v>7</v>
       </c>
       <c r="E52" s="29">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F52" s="8">
-        <f t="shared" si="1"/>
-        <v>31094.228771751572</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>700232.98845917452</v>
+      </c>
+      <c r="H52" s="48">
+        <f t="shared" si="1"/>
+        <v>699.23298845917452</v>
+      </c>
+      <c r="I52" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B53" s="6">
         <v>51</v>
       </c>
       <c r="C53" s="26">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D53" s="12">
         <v>7</v>
       </c>
       <c r="E53" s="30">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F53" s="10">
-        <f t="shared" si="1"/>
-        <v>31747.207575958353</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>798265.60684345895</v>
+      </c>
+      <c r="H53" s="50">
+        <f t="shared" si="1"/>
+        <v>797.26560684345895</v>
+      </c>
+      <c r="I53" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" s="1">
         <v>52</v>
       </c>
       <c r="C54" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D54" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E54" s="29">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.12</v>
       </c>
       <c r="F54" s="8">
-        <f t="shared" si="1"/>
-        <v>32413.898935053479</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>894057.47966467403</v>
+      </c>
+      <c r="H54" s="48">
+        <f t="shared" si="1"/>
+        <v>893.05747966467402</v>
+      </c>
+      <c r="I54" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B55" s="1">
         <v>53</v>
       </c>
       <c r="C55" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D55" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E55" s="29">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.12</v>
       </c>
       <c r="F55" s="8">
-        <f t="shared" si="1"/>
-        <v>33094.590812689603</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1001344.3772244349</v>
+      </c>
+      <c r="H55" s="48">
+        <f t="shared" si="1"/>
+        <v>1000.3443772244349</v>
+      </c>
+      <c r="I55" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B56" s="1">
         <v>54</v>
       </c>
       <c r="C56" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D56" s="11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E56" s="29">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F56" s="8">
-        <f t="shared" si="1"/>
-        <v>33789.577219756087</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1101478.8149468782</v>
+      </c>
+      <c r="H56" s="48">
+        <f t="shared" si="1"/>
+        <v>1100.4788149468782</v>
+      </c>
+      <c r="I56" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
         <v>55</v>
       </c>
       <c r="C57" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D57" s="11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E57" s="29">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F57" s="8">
-        <f t="shared" si="1"/>
-        <v>34499.158341370967</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1211626.6964415661</v>
+      </c>
+      <c r="H57" s="48">
+        <f t="shared" si="1"/>
+        <v>1210.6266964415661</v>
+      </c>
+      <c r="I57" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B58" s="1">
         <v>56</v>
       </c>
       <c r="C58" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D58" s="11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E58" s="29">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F58" s="8">
-        <f t="shared" si="1"/>
-        <v>35223.640666539759</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1332789.3660857228</v>
+      </c>
+      <c r="H58" s="48">
+        <f t="shared" si="1"/>
+        <v>1331.7893660857228</v>
+      </c>
+      <c r="I58" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B59" s="1">
         <v>57</v>
       </c>
       <c r="C59" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D59" s="11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E59" s="29">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F59" s="8">
-        <f t="shared" si="1"/>
-        <v>35963.337120537093</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1466068.3026942951</v>
+      </c>
+      <c r="H59" s="48">
+        <f t="shared" si="1"/>
+        <v>1465.068302694295</v>
+      </c>
+      <c r="I59" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B60" s="1">
         <v>58</v>
       </c>
       <c r="C60" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D60" s="11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E60" s="29">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F60" s="8">
-        <f t="shared" si="1"/>
-        <v>36718.56720006837</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1583353.7669098387</v>
+      </c>
+      <c r="H60" s="48">
+        <f t="shared" si="1"/>
+        <v>1582.3537669098387</v>
+      </c>
+      <c r="I60" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B61" s="1">
         <v>59</v>
       </c>
       <c r="C61" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D61" s="11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E61" s="29">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F61" s="8">
-        <f t="shared" si="1"/>
-        <v>37489.657111269808</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1710022.0682626257</v>
+      </c>
+      <c r="H61" s="48">
+        <f t="shared" si="1"/>
+        <v>1709.0220682626257</v>
+      </c>
+      <c r="I61" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B62" s="35">
         <v>60</v>
       </c>
       <c r="C62" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D62" s="37">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E62" s="40">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F62" s="39">
-        <f t="shared" si="1"/>
-        <v>38276.939910606474</v>
+        <f t="shared" si="2"/>
+        <v>1812623.3923583832</v>
       </c>
       <c r="G62" s="45">
         <f>F62-F32</f>
-        <v>17757.526200252294</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1761673.2337750697</v>
+      </c>
+      <c r="H62" s="50">
+        <f t="shared" si="1"/>
+        <v>1811.6233923583832</v>
+      </c>
+      <c r="I62" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B63" s="1">
         <v>61</v>
       </c>
       <c r="C63" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D63" s="11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E63" s="29">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F63" s="8">
-        <f t="shared" si="1"/>
-        <v>39080.755648729209</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>1921380.7958998862</v>
+      </c>
+      <c r="H63" s="48">
+        <f t="shared" si="1"/>
+        <v>1920.3807958998862</v>
+      </c>
+      <c r="I63" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B64" s="1">
         <v>62</v>
       </c>
       <c r="C64" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D64" s="11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E64" s="29">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F64" s="8">
-        <f t="shared" si="1"/>
-        <v>39901.451517352521</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2036663.6436538794</v>
+      </c>
+      <c r="H64" s="48">
+        <f t="shared" si="1"/>
+        <v>2035.6636436538795</v>
+      </c>
+      <c r="I64" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B65" s="1">
         <v>63</v>
       </c>
       <c r="C65" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D65" s="11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E65" s="29">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F65" s="8">
-        <f t="shared" si="1"/>
-        <v>40739.381999216923</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2158863.462273112</v>
+      </c>
+      <c r="H65" s="48">
+        <f t="shared" si="1"/>
+        <v>2157.863462273112</v>
+      </c>
+      <c r="I65" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B66" s="1">
         <v>64</v>
       </c>
       <c r="C66" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D66" s="11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E66" s="29">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F66" s="8">
-        <f t="shared" si="1"/>
-        <v>41594.909021200481</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2288395.2700094986</v>
+      </c>
+      <c r="H66" s="48">
+        <f t="shared" si="1"/>
+        <v>2287.3952700094987</v>
+      </c>
+      <c r="I66" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B67" s="1">
         <v>65</v>
       </c>
       <c r="C67" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D67" s="11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E67" s="29">
         <f t="shared" si="0"/>
-        <v>2.1000000000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F67" s="8">
-        <f t="shared" si="1"/>
-        <v>42468.402110645693</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2425698.9862100687</v>
+      </c>
+      <c r="H67" s="48">
+        <f t="shared" si="1"/>
+        <v>2424.6989862100686</v>
+      </c>
+      <c r="I67" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B68" s="1">
         <v>66</v>
       </c>
       <c r="C68" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D68" s="11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E68" s="29">
-        <f t="shared" ref="E68:E81" si="2">C68*D68</f>
-        <v>2.1000000000000001E-2</v>
+        <f t="shared" ref="E68:E81" si="3">C68*D68</f>
+        <v>0.04</v>
       </c>
       <c r="F68" s="8">
-        <f t="shared" si="1"/>
-        <v>43360.238554969255</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2522726.9456584714</v>
+      </c>
+      <c r="H68" s="48">
+        <f t="shared" ref="H68:H92" si="4">(F68-I67)/I67</f>
+        <v>2521.7269456584713</v>
+      </c>
+      <c r="I68" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B69" s="6">
         <v>67</v>
       </c>
       <c r="C69" s="26">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D69" s="12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E69" s="30">
-        <f t="shared" si="2"/>
-        <v>2.1000000000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.04</v>
       </c>
       <c r="F69" s="10">
-        <f t="shared" si="1"/>
-        <v>44270.803564623609</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2623636.0234848103</v>
+      </c>
+      <c r="H69" s="50">
+        <f t="shared" si="4"/>
+        <v>2622.6360234848103</v>
+      </c>
+      <c r="I69" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B70" s="1">
         <v>68</v>
       </c>
       <c r="C70" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D70" s="11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E70" s="29">
-        <f t="shared" si="2"/>
-        <v>2.1000000000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.04</v>
       </c>
       <c r="F70" s="8">
-        <f t="shared" si="1"/>
-        <v>45200.490439480702</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>2728581.4644242027</v>
+      </c>
+      <c r="H70" s="48">
+        <f t="shared" si="4"/>
+        <v>2727.5814644242027</v>
+      </c>
+      <c r="I70" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B71" s="1">
         <v>69</v>
       </c>
       <c r="C71" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D71" s="11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E71" s="29">
-        <f t="shared" si="2"/>
-        <v>2.1000000000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.04</v>
       </c>
       <c r="F71" s="8">
-        <f t="shared" ref="F71:F82" si="3">F70+(F70*E71)</f>
-        <v>46149.700738709798</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" ref="F71:F82" si="5">F70+(F70*E71)</f>
+        <v>2837724.7230011709</v>
+      </c>
+      <c r="H71" s="48">
+        <f t="shared" si="4"/>
+        <v>2836.7247230011708</v>
+      </c>
+      <c r="I71" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B72" s="1">
         <v>70</v>
       </c>
       <c r="C72" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D72" s="11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E72" s="29">
-        <f t="shared" si="2"/>
-        <v>2.1000000000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.04</v>
       </c>
       <c r="F72" s="8">
-        <f t="shared" si="3"/>
-        <v>47118.844454222701</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>2951233.7119212179</v>
+      </c>
+      <c r="H72" s="48">
+        <f t="shared" si="4"/>
+        <v>2950.2337119212179</v>
+      </c>
+      <c r="I72" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B73" s="1">
         <v>71</v>
       </c>
       <c r="C73" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D73" s="11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E73" s="29">
-        <f t="shared" si="2"/>
-        <v>2.1000000000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.04</v>
       </c>
       <c r="F73" s="8">
-        <f t="shared" si="3"/>
-        <v>48108.34018776138</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>3069283.0603980664</v>
+      </c>
+      <c r="H73" s="48">
+        <f t="shared" si="4"/>
+        <v>3068.2830603980665</v>
+      </c>
+      <c r="I73" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B74" s="1">
         <v>72</v>
       </c>
       <c r="C74" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D74" s="11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E74" s="29">
-        <f t="shared" si="2"/>
-        <v>2.1000000000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.04</v>
       </c>
       <c r="F74" s="8">
-        <f t="shared" si="3"/>
-        <v>49118.615331704372</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>3192054.3828139892</v>
+      </c>
+      <c r="H74" s="48">
+        <f t="shared" si="4"/>
+        <v>3191.0543828139894</v>
+      </c>
+      <c r="I74" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B75" s="1">
         <v>73</v>
       </c>
       <c r="C75" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D75" s="11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E75" s="29">
-        <f t="shared" si="2"/>
-        <v>2.1000000000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.04</v>
       </c>
       <c r="F75" s="8">
-        <f t="shared" si="3"/>
-        <v>50150.106253670165</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>3319736.5581265488</v>
+      </c>
+      <c r="H75" s="48">
+        <f t="shared" si="4"/>
+        <v>3318.736558126549</v>
+      </c>
+      <c r="I75" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B76" s="6">
         <v>74</v>
       </c>
       <c r="C76" s="26">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D76" s="12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E76" s="30">
-        <f t="shared" si="2"/>
-        <v>2.1000000000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.04</v>
       </c>
       <c r="F76" s="10">
-        <f t="shared" si="3"/>
-        <v>51203.258484997241</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>3452526.0204516109</v>
+      </c>
+      <c r="H76" s="50">
+        <f t="shared" si="4"/>
+        <v>3451.5260204516107</v>
+      </c>
+      <c r="I76" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B77" s="1">
         <v>75</v>
       </c>
       <c r="C77" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D77" s="11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E77" s="29">
-        <f t="shared" si="2"/>
-        <v>2.1000000000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.04</v>
       </c>
       <c r="F77" s="8">
-        <f t="shared" si="3"/>
-        <v>52278.526913182184</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>3590627.0612696754</v>
+      </c>
+      <c r="H77" s="48">
+        <f t="shared" si="4"/>
+        <v>3589.6270612696753</v>
+      </c>
+      <c r="I77" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B78" s="1">
         <v>76</v>
       </c>
       <c r="C78" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D78" s="11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E78" s="29">
-        <f t="shared" si="2"/>
-        <v>2.1000000000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.04</v>
       </c>
       <c r="F78" s="8">
-        <f t="shared" si="3"/>
-        <v>53376.375978359007</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>3734252.1437204625</v>
+      </c>
+      <c r="H78" s="48">
+        <f t="shared" si="4"/>
+        <v>3733.2521437204623</v>
+      </c>
+      <c r="I78" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B79" s="1">
         <v>77</v>
       </c>
       <c r="C79" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D79" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E79" s="29">
-        <f t="shared" si="2"/>
-        <v>2.1000000000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.02</v>
       </c>
       <c r="F79" s="8">
-        <f t="shared" si="3"/>
-        <v>54497.279873904547</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>3808937.1865948718</v>
+      </c>
+      <c r="H79" s="48">
+        <f t="shared" si="4"/>
+        <v>3807.9371865948719</v>
+      </c>
+      <c r="I79" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B80" s="1">
         <v>78</v>
       </c>
       <c r="C80" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D80" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E80" s="29">
-        <f t="shared" si="2"/>
-        <v>2.1000000000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.02</v>
       </c>
       <c r="F80" s="8">
-        <f t="shared" si="3"/>
-        <v>55641.722751256544</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>3885115.9303267691</v>
+      </c>
+      <c r="H80" s="48">
+        <f t="shared" si="4"/>
+        <v>3884.1159303267691</v>
+      </c>
+      <c r="I80" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B81" s="1">
         <v>79</v>
       </c>
       <c r="C81" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D81" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E81" s="29">
-        <f t="shared" si="2"/>
-        <v>2.1000000000000001E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.02</v>
       </c>
       <c r="F81" s="8">
-        <f t="shared" si="3"/>
-        <v>56810.198929032929</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>3962818.2489333046</v>
+      </c>
+      <c r="H81" s="48">
+        <f t="shared" si="4"/>
+        <v>3961.8182489333044</v>
+      </c>
+      <c r="I81" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="1">
         <v>80</v>
       </c>
       <c r="C82" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D82" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E82" s="29">
-        <f t="shared" ref="E82:E92" si="4">C82*D82</f>
-        <v>2.1000000000000001E-2</v>
+        <f t="shared" ref="E82:E92" si="6">C82*D82</f>
+        <v>0.02</v>
       </c>
       <c r="F82" s="8">
-        <f t="shared" si="3"/>
-        <v>58003.213106542622</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>4042074.6139119705</v>
+      </c>
+      <c r="H82" s="48">
+        <f t="shared" si="4"/>
+        <v>4041.0746139119706</v>
+      </c>
+      <c r="I82" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="6">
         <v>81</v>
       </c>
       <c r="C83" s="26">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D83" s="12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E83" s="30">
+        <f t="shared" si="6"/>
+        <v>0.02</v>
+      </c>
+      <c r="F83" s="10">
+        <f t="shared" ref="F83:F92" si="7">F82+(F82*E83)</f>
+        <v>4122916.1061902097</v>
+      </c>
+      <c r="H83" s="50">
         <f t="shared" si="4"/>
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="F83" s="10">
-        <f t="shared" ref="F83:F92" si="5">F82+(F82*E83)</f>
-        <v>59221.280581780018</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4121.9161061902096</v>
+      </c>
+      <c r="I83" s="67">
+        <v>1000</v>
+      </c>
+      <c r="K83" s="68" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="1">
         <v>82</v>
       </c>
       <c r="C84" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D84" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E84" s="29">
+        <f t="shared" si="6"/>
+        <v>0.02</v>
+      </c>
+      <c r="F84" s="8">
+        <f t="shared" si="7"/>
+        <v>4205374.4283140143</v>
+      </c>
+      <c r="H84" s="48">
         <f t="shared" si="4"/>
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="F84" s="8">
-        <f t="shared" si="5"/>
-        <v>60464.927473997399</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4204.374428314014</v>
+      </c>
+      <c r="I84" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="1">
         <v>83</v>
       </c>
       <c r="C85" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D85" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E85" s="29">
+        <f t="shared" si="6"/>
+        <v>0.02</v>
+      </c>
+      <c r="F85" s="8">
+        <f t="shared" si="7"/>
+        <v>4289481.9168802947</v>
+      </c>
+      <c r="H85" s="48">
         <f t="shared" si="4"/>
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="F85" s="8">
-        <f t="shared" si="5"/>
-        <v>61734.690950951343</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4288.4819168802951</v>
+      </c>
+      <c r="I85" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="1">
         <v>84</v>
       </c>
       <c r="C86" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D86" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E86" s="29">
+        <f t="shared" si="6"/>
+        <v>0.02</v>
+      </c>
+      <c r="F86" s="8">
+        <f t="shared" si="7"/>
+        <v>4375271.5552179003</v>
+      </c>
+      <c r="H86" s="48">
         <f t="shared" si="4"/>
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="F86" s="8">
-        <f t="shared" si="5"/>
-        <v>63031.11946092132</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4374.2715552179006</v>
+      </c>
+      <c r="I86" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="1">
         <v>85</v>
       </c>
       <c r="C87" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D87" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E87" s="29">
+        <f t="shared" si="6"/>
+        <v>0.02</v>
+      </c>
+      <c r="F87" s="8">
+        <f t="shared" si="7"/>
+        <v>4462776.9863222586</v>
+      </c>
+      <c r="H87" s="48">
         <f t="shared" si="4"/>
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="F87" s="8">
-        <f t="shared" si="5"/>
-        <v>64354.772969600665</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4461.7769863222584</v>
+      </c>
+      <c r="I87" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="1">
         <v>86</v>
       </c>
       <c r="C88" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D88" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E88" s="29">
+        <f t="shared" si="6"/>
+        <v>0.02</v>
+      </c>
+      <c r="F88" s="8">
+        <f t="shared" si="7"/>
+        <v>4552032.5260487041</v>
+      </c>
+      <c r="H88" s="48">
         <f t="shared" si="4"/>
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="F88" s="8">
-        <f t="shared" si="5"/>
-        <v>65706.223201962275</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4551.0325260487043</v>
+      </c>
+      <c r="I88" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="1">
         <v>87</v>
       </c>
       <c r="C89" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D89" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E89" s="29">
+        <f t="shared" si="6"/>
+        <v>0.02</v>
+      </c>
+      <c r="F89" s="8">
+        <f t="shared" si="7"/>
+        <v>4643073.1765696779</v>
+      </c>
+      <c r="H89" s="48">
         <f t="shared" si="4"/>
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="F89" s="8">
-        <f t="shared" si="5"/>
-        <v>67086.053889203482</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4642.0731765696783</v>
+      </c>
+      <c r="I89" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="1">
         <v>88</v>
       </c>
       <c r="C90" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D90" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E90" s="29">
+        <f t="shared" si="6"/>
+        <v>0.02</v>
+      </c>
+      <c r="F90" s="8">
+        <f t="shared" si="7"/>
+        <v>4735934.6401010714</v>
+      </c>
+      <c r="H90" s="48">
         <f t="shared" si="4"/>
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="F90" s="8">
-        <f t="shared" si="5"/>
-        <v>68494.86102087675</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4734.9346401010716</v>
+      </c>
+      <c r="I90" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="1">
         <v>89</v>
       </c>
       <c r="C91" s="23">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D91" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E91" s="29">
+        <f t="shared" si="6"/>
+        <v>0.02</v>
+      </c>
+      <c r="F91" s="8">
+        <f t="shared" si="7"/>
+        <v>4830653.3329030927</v>
+      </c>
+      <c r="H91" s="48">
         <f t="shared" si="4"/>
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="F91" s="8">
-        <f t="shared" si="5"/>
-        <v>69933.253102315168</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4829.6533329030926</v>
+      </c>
+      <c r="I91" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="35">
         <v>90</v>
       </c>
       <c r="C92" s="36">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D92" s="37">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E92" s="40">
-        <f t="shared" si="4"/>
-        <v>2.1000000000000001E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.02</v>
       </c>
       <c r="F92" s="39">
-        <f t="shared" si="5"/>
-        <v>71401.851417463782</v>
+        <f t="shared" si="7"/>
+        <v>4927266.3995611547</v>
       </c>
       <c r="G92" s="45">
         <f>F92-F62</f>
-        <v>33124.911506857308</v>
-      </c>
+        <v>3114643.0072027715</v>
+      </c>
+      <c r="H92" s="50">
+        <f t="shared" si="4"/>
+        <v>4926.2663995611547</v>
+      </c>
+      <c r="I92" s="67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F93" s="32"/>
     </row>
     <row r="123" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G123" s="45"/>
@@ -12894,7 +13731,7 @@
   <dimension ref="B1:I153"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12912,11 +13749,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14554,11 +15391,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15507,11 +16344,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -17110,12 +17947,12 @@
       <c r="B86" s="1">
         <v>84</v>
       </c>
-      <c r="C86" s="58" t="s">
+      <c r="C86" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D86" s="59"/>
-      <c r="E86" s="59"/>
-      <c r="F86" s="60"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="62"/>
     </row>
     <row r="87" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B87" s="1">
@@ -17203,11 +18040,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -18663,12 +19500,12 @@
       <c r="B78" s="1">
         <v>81</v>
       </c>
-      <c r="C78" s="61" t="s">
+      <c r="C78" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="63"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="65"/>
     </row>
     <row r="79" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B79" s="1">
@@ -18784,11 +19621,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -19387,12 +20224,12 @@
       <c r="B33" s="1">
         <v>31</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="63"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="65"/>
       <c r="G33" s="32"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19934,7 +20771,7 @@
   </sheetPr>
   <dimension ref="B1:F92"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
@@ -19950,11 +20787,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">

--- a/Profits Possibilities .xlsx
+++ b/Profits Possibilities .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C98EEB-6300-4C2A-B5C8-E0B19BF137B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AD49E1-2753-4C77-808E-45F75EC3EC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reality lev 5" sheetId="11" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Reality 4" sheetId="5" r:id="rId11"/>
     <sheet name="Reality 5" sheetId="8" r:id="rId12"/>
     <sheet name="Testing" sheetId="15" r:id="rId13"/>
+    <sheet name="Testing 2" sheetId="16" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
   <si>
     <t>Day</t>
   </si>
@@ -561,6 +562,10 @@
     <xf numFmtId="9" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -597,10 +602,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -936,7 +937,7 @@
     <col min="8" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="58" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1" spans="2:6" s="60" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -2677,13 +2678,13 @@
       </c>
     </row>
     <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="55" t="s">
+      <c r="B93" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C93" s="56"/>
-      <c r="D93" s="56"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="57"/>
+      <c r="C93" s="58"/>
+      <c r="D93" s="58"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="59"/>
     </row>
     <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="43">
@@ -4440,11 +4441,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -5265,12 +5266,12 @@
       <c r="B45" s="1">
         <v>49</v>
       </c>
-      <c r="C45" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="62"/>
+      <c r="C45" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="64"/>
     </row>
     <row r="46" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
@@ -5674,11 +5675,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -6908,12 +6909,12 @@
       <c r="B66" s="1">
         <v>64</v>
       </c>
-      <c r="C66" s="63" t="s">
+      <c r="C66" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="65"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="67"/>
       <c r="G66" s="32"/>
     </row>
     <row r="67" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -7183,11 +7184,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -8217,12 +8218,12 @@
       <c r="B56" s="1">
         <v>64</v>
       </c>
-      <c r="C56" s="63" t="s">
+      <c r="C56" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="65"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="67"/>
     </row>
     <row r="57" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
@@ -8495,11 +8496,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9104,7 +9105,7 @@
       <c r="I22" s="52">
         <v>1200</v>
       </c>
-      <c r="J22" s="66" t="s">
+      <c r="J22" s="68" t="s">
         <v>32</v>
       </c>
     </row>
@@ -9133,7 +9134,7 @@
       <c r="I23" s="52">
         <v>1200</v>
       </c>
-      <c r="J23" s="66"/>
+      <c r="J23" s="68"/>
     </row>
     <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
@@ -9160,7 +9161,7 @@
       <c r="I24" s="52">
         <v>1200</v>
       </c>
-      <c r="J24" s="66"/>
+      <c r="J24" s="68"/>
     </row>
     <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
@@ -9456,6 +9457,974 @@
       </c>
       <c r="I35" s="52">
         <v>1200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="32"/>
+    </row>
+    <row r="66" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="45"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="54"/>
+    </row>
+    <row r="96" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="45"/>
+      <c r="I96" s="51"/>
+      <c r="J96" s="54"/>
+    </row>
+    <row r="126" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="45"/>
+      <c r="I126" s="51"/>
+      <c r="J126" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="J22:J24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B532F46-1B5F-4042-8DB6-0517EDD3C71B}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:J126"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="48"/>
+    <col min="9" max="9" width="14.42578125" style="51"/>
+    <col min="10" max="10" width="72.7109375" style="53" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D3" s="11">
+        <v>15</v>
+      </c>
+      <c r="E3" s="27">
+        <f>C3*D3</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F3" s="8">
+        <f>100+(100*E3)</f>
+        <v>145</v>
+      </c>
+      <c r="H3" s="48">
+        <f>(F3-I2)/I2</f>
+        <v>0.45</v>
+      </c>
+      <c r="I3" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D4" s="11">
+        <v>15</v>
+      </c>
+      <c r="E4" s="27">
+        <f t="shared" ref="E4:E35" si="0">C4*D4</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F4" s="8">
+        <f>F3+(F3*E4)</f>
+        <v>210.25</v>
+      </c>
+      <c r="H4" s="48">
+        <f t="shared" ref="H4:H35" si="1">(F4-I3)/I3</f>
+        <v>1.1025</v>
+      </c>
+      <c r="I4" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D5" s="11">
+        <v>15</v>
+      </c>
+      <c r="E5" s="27">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F5" s="8">
+        <f>F4+(F4*E5)</f>
+        <v>304.86250000000001</v>
+      </c>
+      <c r="H5" s="48">
+        <f t="shared" si="1"/>
+        <v>2.0486249999999999</v>
+      </c>
+      <c r="I5" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D6" s="11">
+        <v>15</v>
+      </c>
+      <c r="E6" s="27">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F6" s="8">
+        <f>F5+(F5*E6)</f>
+        <v>442.05062499999997</v>
+      </c>
+      <c r="H6" s="48">
+        <f t="shared" si="1"/>
+        <v>3.4205062499999999</v>
+      </c>
+      <c r="I6" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D7" s="11">
+        <v>15</v>
+      </c>
+      <c r="E7" s="27">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" ref="F7:F35" si="2">F6+(F6*E7)</f>
+        <v>640.97340624999993</v>
+      </c>
+      <c r="H7" s="48">
+        <f t="shared" si="1"/>
+        <v>5.4097340624999992</v>
+      </c>
+      <c r="I7" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D8" s="11">
+        <v>15</v>
+      </c>
+      <c r="E8" s="27">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="2"/>
+        <v>929.41143906249988</v>
+      </c>
+      <c r="H8" s="48">
+        <f t="shared" si="1"/>
+        <v>8.2941143906249994</v>
+      </c>
+      <c r="I8" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="D9" s="12">
+        <v>15</v>
+      </c>
+      <c r="E9" s="28">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="2"/>
+        <v>1347.6465866406247</v>
+      </c>
+      <c r="H9" s="50">
+        <f t="shared" si="1"/>
+        <v>12.476465866406247</v>
+      </c>
+      <c r="I9" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D10" s="11">
+        <v>15</v>
+      </c>
+      <c r="E10" s="27">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="2"/>
+        <v>1954.0875506289058</v>
+      </c>
+      <c r="H10" s="48">
+        <f t="shared" si="1"/>
+        <v>18.540875506289058</v>
+      </c>
+      <c r="I10" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D11" s="11">
+        <v>15</v>
+      </c>
+      <c r="E11" s="27">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="2"/>
+        <v>2833.4269484119131</v>
+      </c>
+      <c r="H11" s="48">
+        <f t="shared" si="1"/>
+        <v>27.334269484119133</v>
+      </c>
+      <c r="I11" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D12" s="11">
+        <v>15</v>
+      </c>
+      <c r="E12" s="27">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="2"/>
+        <v>4108.4690751972739</v>
+      </c>
+      <c r="H12" s="48">
+        <f t="shared" si="1"/>
+        <v>40.084690751972737</v>
+      </c>
+      <c r="I12" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D13" s="11">
+        <v>15</v>
+      </c>
+      <c r="E13" s="27">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="2"/>
+        <v>5957.2801590360468</v>
+      </c>
+      <c r="H13" s="48">
+        <f t="shared" si="1"/>
+        <v>58.57280159036047</v>
+      </c>
+      <c r="I13" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D14" s="11">
+        <v>15</v>
+      </c>
+      <c r="E14" s="27">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="2"/>
+        <v>8638.0562306022675</v>
+      </c>
+      <c r="H14" s="48">
+        <f t="shared" si="1"/>
+        <v>85.380562306022682</v>
+      </c>
+      <c r="I14" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D15" s="11">
+        <v>15</v>
+      </c>
+      <c r="E15" s="27">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="2"/>
+        <v>12525.181534373287</v>
+      </c>
+      <c r="H15" s="48">
+        <f t="shared" si="1"/>
+        <v>124.25181534373287</v>
+      </c>
+      <c r="I15" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="6">
+        <v>14</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="D16" s="12">
+        <v>15</v>
+      </c>
+      <c r="E16" s="28">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="2"/>
+        <v>18161.513224841266</v>
+      </c>
+      <c r="H16" s="50">
+        <f t="shared" si="1"/>
+        <v>180.61513224841266</v>
+      </c>
+      <c r="I16" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D17" s="11">
+        <v>15</v>
+      </c>
+      <c r="E17" s="27">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="2"/>
+        <v>26334.194176019835</v>
+      </c>
+      <c r="H17" s="48">
+        <f t="shared" si="1"/>
+        <v>262.34194176019832</v>
+      </c>
+      <c r="I17" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D18" s="11">
+        <v>15</v>
+      </c>
+      <c r="E18" s="27">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="2"/>
+        <v>38184.58155522876</v>
+      </c>
+      <c r="H18" s="48">
+        <f t="shared" si="1"/>
+        <v>380.8458155522876</v>
+      </c>
+      <c r="I18" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D19" s="11">
+        <v>15</v>
+      </c>
+      <c r="E19" s="27">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="2"/>
+        <v>55367.643255081697</v>
+      </c>
+      <c r="H19" s="48">
+        <f t="shared" si="1"/>
+        <v>552.67643255081703</v>
+      </c>
+      <c r="I19" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D20" s="11">
+        <v>15</v>
+      </c>
+      <c r="E20" s="27">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="2"/>
+        <v>80283.082719868456</v>
+      </c>
+      <c r="H20" s="48">
+        <f t="shared" si="1"/>
+        <v>801.83082719868457</v>
+      </c>
+      <c r="I20" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D21" s="11">
+        <v>15</v>
+      </c>
+      <c r="E21" s="27">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="2"/>
+        <v>116410.46994380926</v>
+      </c>
+      <c r="H21" s="48">
+        <f t="shared" si="1"/>
+        <v>1163.1046994380927</v>
+      </c>
+      <c r="I21" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D22" s="11">
+        <v>15</v>
+      </c>
+      <c r="E22" s="27">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="2"/>
+        <v>168795.18141852343</v>
+      </c>
+      <c r="H22" s="48">
+        <f t="shared" si="1"/>
+        <v>1686.9518141852343</v>
+      </c>
+      <c r="I22" s="52">
+        <v>100</v>
+      </c>
+      <c r="J22" s="68"/>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="6">
+        <v>21</v>
+      </c>
+      <c r="C23" s="26">
+        <v>0.03</v>
+      </c>
+      <c r="D23" s="12">
+        <v>15</v>
+      </c>
+      <c r="E23" s="28">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="2"/>
+        <v>244753.01305685897</v>
+      </c>
+      <c r="H23" s="50">
+        <f t="shared" si="1"/>
+        <v>2446.5301305685898</v>
+      </c>
+      <c r="I23" s="52">
+        <v>100</v>
+      </c>
+      <c r="J23" s="68"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D24" s="11">
+        <v>12</v>
+      </c>
+      <c r="E24" s="27">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="2"/>
+        <v>332864.09775732819</v>
+      </c>
+      <c r="H24" s="48">
+        <f t="shared" si="1"/>
+        <v>3327.6409775732818</v>
+      </c>
+      <c r="I24" s="52">
+        <v>100</v>
+      </c>
+      <c r="J24" s="68"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D25" s="11">
+        <v>12</v>
+      </c>
+      <c r="E25" s="27">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="2"/>
+        <v>452695.17294996633</v>
+      </c>
+      <c r="H25" s="48">
+        <f t="shared" si="1"/>
+        <v>4525.9517294996631</v>
+      </c>
+      <c r="I25" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D26" s="11">
+        <v>12</v>
+      </c>
+      <c r="E26" s="27">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="2"/>
+        <v>615665.43521195417</v>
+      </c>
+      <c r="H26" s="48">
+        <f t="shared" si="1"/>
+        <v>6155.6543521195417</v>
+      </c>
+      <c r="I26" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D27" s="11">
+        <v>10</v>
+      </c>
+      <c r="E27" s="27">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="2"/>
+        <v>800365.06577554042</v>
+      </c>
+      <c r="H27" s="48">
+        <f t="shared" si="1"/>
+        <v>8002.6506577554046</v>
+      </c>
+      <c r="I27" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>26</v>
+      </c>
+      <c r="C28" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D28" s="11">
+        <v>7</v>
+      </c>
+      <c r="E28" s="27">
+        <f t="shared" si="0"/>
+        <v>0.21</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="2"/>
+        <v>968441.72958840395</v>
+      </c>
+      <c r="H28" s="48">
+        <f t="shared" si="1"/>
+        <v>9683.417295884039</v>
+      </c>
+      <c r="I28" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>27</v>
+      </c>
+      <c r="C29" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D29" s="11">
+        <v>6</v>
+      </c>
+      <c r="E29" s="27">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="2"/>
+        <v>1142761.2409143166</v>
+      </c>
+      <c r="H29" s="48">
+        <f t="shared" si="1"/>
+        <v>11426.612409143167</v>
+      </c>
+      <c r="I29" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>28</v>
+      </c>
+      <c r="C30" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D30" s="11">
+        <v>5</v>
+      </c>
+      <c r="E30" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" si="2"/>
+        <v>1314175.4270514641</v>
+      </c>
+      <c r="H30" s="48">
+        <f t="shared" si="1"/>
+        <v>13140.754270514641</v>
+      </c>
+      <c r="I30" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1">
+        <v>29</v>
+      </c>
+      <c r="C31" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D31" s="11">
+        <v>4</v>
+      </c>
+      <c r="E31" s="27">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="2"/>
+        <v>1471876.4782976399</v>
+      </c>
+      <c r="H31" s="48">
+        <f t="shared" si="1"/>
+        <v>14717.764782976399</v>
+      </c>
+      <c r="I31" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1">
+        <v>30</v>
+      </c>
+      <c r="C32" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D32" s="11">
+        <v>3</v>
+      </c>
+      <c r="E32" s="27">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" si="2"/>
+        <v>1604345.3613444273</v>
+      </c>
+      <c r="H32" s="48">
+        <f t="shared" si="1"/>
+        <v>16042.453613444273</v>
+      </c>
+      <c r="I32" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <v>31</v>
+      </c>
+      <c r="C33" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D33" s="11">
+        <v>3</v>
+      </c>
+      <c r="E33" s="27">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="F33" s="8">
+        <f t="shared" si="2"/>
+        <v>1748736.4438654259</v>
+      </c>
+      <c r="H33" s="48">
+        <f t="shared" si="1"/>
+        <v>17486.364438654258</v>
+      </c>
+      <c r="I33" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <v>32</v>
+      </c>
+      <c r="C34" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D34" s="11">
+        <v>3</v>
+      </c>
+      <c r="E34" s="27">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="2"/>
+        <v>1906122.7238133142</v>
+      </c>
+      <c r="H34" s="48">
+        <f t="shared" si="1"/>
+        <v>19060.227238133142</v>
+      </c>
+      <c r="I34" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="35">
+        <v>33</v>
+      </c>
+      <c r="C35" s="42">
+        <v>0.03</v>
+      </c>
+      <c r="D35" s="41">
+        <v>3</v>
+      </c>
+      <c r="E35" s="38">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
+      <c r="F35" s="39">
+        <f t="shared" si="2"/>
+        <v>2077673.7689565124</v>
+      </c>
+      <c r="G35" s="45">
+        <f t="shared" ref="G35" si="3">F35-F6</f>
+        <v>2077231.7183315125</v>
+      </c>
+      <c r="H35" s="50">
+        <f t="shared" si="1"/>
+        <v>20775.737689565125</v>
+      </c>
+      <c r="I35" s="52">
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9528,11 +10497,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11299,7 +12268,7 @@
   </sheetPr>
   <dimension ref="B1:K183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -11317,11 +12286,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11343,7 +12312,7 @@
       <c r="H2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="67">
+      <c r="I2" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -11369,7 +12338,7 @@
         <f>(F3-I2)/I2</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="I3" s="67">
+      <c r="I3" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -11395,7 +12364,7 @@
         <f t="shared" ref="H4:H67" si="1">(F4-I3)/I3</f>
         <v>0.29959999999999992</v>
       </c>
-      <c r="I4" s="67">
+      <c r="I4" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -11421,7 +12390,7 @@
         <f t="shared" si="1"/>
         <v>0.48154399999999986</v>
       </c>
-      <c r="I5" s="67">
+      <c r="I5" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -11447,7 +12416,7 @@
         <f t="shared" si="1"/>
         <v>0.68896015999999982</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -11473,7 +12442,7 @@
         <f t="shared" si="1"/>
         <v>0.92541458239999974</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -11499,7 +12468,7 @@
         <f t="shared" si="1"/>
         <v>1.1949726239359997</v>
       </c>
-      <c r="I8" s="67">
+      <c r="I8" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -11525,7 +12494,7 @@
         <f t="shared" si="1"/>
         <v>1.5022687912870396</v>
       </c>
-      <c r="I9" s="67">
+      <c r="I9" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -11551,7 +12520,7 @@
         <f t="shared" si="1"/>
         <v>1.8525864220672252</v>
       </c>
-      <c r="I10" s="67">
+      <c r="I10" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -11577,7 +12546,7 @@
         <f t="shared" si="1"/>
         <v>2.2519485211566366</v>
       </c>
-      <c r="I11" s="67">
+      <c r="I11" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -11603,7 +12572,7 @@
         <f t="shared" si="1"/>
         <v>2.7072213141185659</v>
       </c>
-      <c r="I12" s="67">
+      <c r="I12" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -11629,7 +12598,7 @@
         <f t="shared" si="1"/>
         <v>3.226232298095165</v>
       </c>
-      <c r="I13" s="67">
+      <c r="I13" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -11655,7 +12624,7 @@
         <f t="shared" si="1"/>
         <v>3.8179048198284882</v>
       </c>
-      <c r="I14" s="67">
+      <c r="I14" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -11681,7 +12650,7 @@
         <f t="shared" si="1"/>
         <v>4.4924114946044762</v>
       </c>
-      <c r="I15" s="67">
+      <c r="I15" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -11707,7 +12676,7 @@
         <f t="shared" si="1"/>
         <v>5.2613491038491027</v>
       </c>
-      <c r="I16" s="67">
+      <c r="I16" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -11733,7 +12702,7 @@
         <f t="shared" si="1"/>
         <v>6.1379379783879777</v>
       </c>
-      <c r="I17" s="67">
+      <c r="I17" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -11759,7 +12728,7 @@
         <f t="shared" si="1"/>
         <v>7.1372492953622952</v>
       </c>
-      <c r="I18" s="67">
+      <c r="I18" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -11785,7 +12754,7 @@
         <f t="shared" si="1"/>
         <v>8.2764641967130164</v>
       </c>
-      <c r="I19" s="67">
+      <c r="I19" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -11811,7 +12780,7 @@
         <f t="shared" si="1"/>
         <v>9.5751691842528377</v>
       </c>
-      <c r="I20" s="67">
+      <c r="I20" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -11837,7 +12806,7 @@
         <f t="shared" si="1"/>
         <v>11.055692870048235</v>
       </c>
-      <c r="I21" s="67">
+      <c r="I21" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -11863,7 +12832,7 @@
         <f t="shared" si="1"/>
         <v>12.743489871854988</v>
       </c>
-      <c r="I22" s="67">
+      <c r="I22" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -11889,7 +12858,7 @@
         <f t="shared" si="1"/>
         <v>14.667578453914688</v>
       </c>
-      <c r="I23" s="67">
+      <c r="I23" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -11915,7 +12884,7 @@
         <f t="shared" si="1"/>
         <v>16.861039437462743</v>
       </c>
-      <c r="I24" s="67">
+      <c r="I24" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -11941,7 +12910,7 @@
         <f t="shared" si="1"/>
         <v>19.361584958707528</v>
       </c>
-      <c r="I25" s="67">
+      <c r="I25" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -11967,7 +12936,7 @@
         <f t="shared" si="1"/>
         <v>22.212206852926581</v>
       </c>
-      <c r="I26" s="67">
+      <c r="I26" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -11993,7 +12962,7 @@
         <f t="shared" si="1"/>
         <v>25.461915812336304</v>
       </c>
-      <c r="I27" s="67">
+      <c r="I27" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12019,7 +12988,7 @@
         <f t="shared" si="1"/>
         <v>29.16658402606339</v>
       </c>
-      <c r="I28" s="67">
+      <c r="I28" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12045,7 +13014,7 @@
         <f t="shared" si="1"/>
         <v>33.389905789712259</v>
       </c>
-      <c r="I29" s="67">
+      <c r="I29" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12071,7 +13040,7 @@
         <f t="shared" si="1"/>
         <v>38.204492600271983</v>
       </c>
-      <c r="I30" s="67">
+      <c r="I30" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12097,7 +13066,7 @@
         <f t="shared" si="1"/>
         <v>43.693121564310061</v>
       </c>
-      <c r="I31" s="67">
+      <c r="I31" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12127,7 +13096,7 @@
         <f t="shared" si="1"/>
         <v>49.950158583313467</v>
       </c>
-      <c r="I32" s="67">
+      <c r="I32" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12153,7 +13122,7 @@
         <f t="shared" si="1"/>
         <v>57.083180784977351</v>
       </c>
-      <c r="I33" s="67">
+      <c r="I33" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12179,7 +13148,7 @@
         <f t="shared" si="1"/>
         <v>65.214826094874184</v>
       </c>
-      <c r="I34" s="67">
+      <c r="I34" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12205,7 +13174,7 @@
         <f t="shared" si="1"/>
         <v>74.484901748156574</v>
       </c>
-      <c r="I35" s="67">
+      <c r="I35" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12231,7 +13200,7 @@
         <f t="shared" si="1"/>
         <v>85.052787992898487</v>
       </c>
-      <c r="I36" s="67">
+      <c r="I36" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12257,7 +13226,7 @@
         <f t="shared" si="1"/>
         <v>97.100178311904287</v>
       </c>
-      <c r="I37" s="67">
+      <c r="I37" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12283,7 +13252,7 @@
         <f t="shared" si="1"/>
         <v>110.83420327557089</v>
       </c>
-      <c r="I38" s="67">
+      <c r="I38" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12309,7 +13278,7 @@
         <f t="shared" si="1"/>
         <v>126.4909917341508</v>
       </c>
-      <c r="I39" s="67">
+      <c r="I39" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12335,7 +13304,7 @@
         <f t="shared" si="1"/>
         <v>144.33973057693191</v>
       </c>
-      <c r="I40" s="67">
+      <c r="I40" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12361,7 +13330,7 @@
         <f t="shared" si="1"/>
         <v>164.68729285770237</v>
       </c>
-      <c r="I41" s="67">
+      <c r="I41" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12387,7 +13356,7 @@
         <f t="shared" si="1"/>
         <v>187.88351385778071</v>
       </c>
-      <c r="I42" s="67">
+      <c r="I42" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12413,7 +13382,7 @@
         <f t="shared" si="1"/>
         <v>214.32720579787002</v>
       </c>
-      <c r="I43" s="67">
+      <c r="I43" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12439,7 +13408,7 @@
         <f t="shared" si="1"/>
         <v>244.47301460957183</v>
       </c>
-      <c r="I44" s="67">
+      <c r="I44" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12465,7 +13434,7 @@
         <f t="shared" si="1"/>
         <v>278.83923665491187</v>
       </c>
-      <c r="I45" s="67">
+      <c r="I45" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12491,7 +13460,7 @@
         <f t="shared" si="1"/>
         <v>318.01672978659957</v>
       </c>
-      <c r="I46" s="67">
+      <c r="I46" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12517,7 +13486,7 @@
         <f t="shared" si="1"/>
         <v>362.67907195672353</v>
       </c>
-      <c r="I47" s="67">
+      <c r="I47" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12543,7 +13512,7 @@
         <f t="shared" si="1"/>
         <v>413.59414203066484</v>
       </c>
-      <c r="I48" s="67">
+      <c r="I48" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12569,7 +13538,7 @@
         <f t="shared" si="1"/>
         <v>471.63732191495791</v>
       </c>
-      <c r="I49" s="67">
+      <c r="I49" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12595,7 +13564,7 @@
         <f t="shared" si="1"/>
         <v>537.80654698305204</v>
       </c>
-      <c r="I50" s="67">
+      <c r="I50" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12621,7 +13590,7 @@
         <f t="shared" si="1"/>
         <v>613.23946356067938</v>
       </c>
-      <c r="I51" s="67">
+      <c r="I51" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12647,7 +13616,7 @@
         <f t="shared" si="1"/>
         <v>699.23298845917452</v>
       </c>
-      <c r="I52" s="67">
+      <c r="I52" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12673,7 +13642,7 @@
         <f t="shared" si="1"/>
         <v>797.26560684345895</v>
       </c>
-      <c r="I53" s="67">
+      <c r="I53" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12699,7 +13668,7 @@
         <f t="shared" si="1"/>
         <v>893.05747966467402</v>
       </c>
-      <c r="I54" s="67">
+      <c r="I54" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12725,7 +13694,7 @@
         <f t="shared" si="1"/>
         <v>1000.3443772244349</v>
       </c>
-      <c r="I55" s="67">
+      <c r="I55" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12751,7 +13720,7 @@
         <f t="shared" si="1"/>
         <v>1100.4788149468782</v>
       </c>
-      <c r="I56" s="67">
+      <c r="I56" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12777,7 +13746,7 @@
         <f t="shared" si="1"/>
         <v>1210.6266964415661</v>
       </c>
-      <c r="I57" s="67">
+      <c r="I57" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12803,7 +13772,7 @@
         <f t="shared" si="1"/>
         <v>1331.7893660857228</v>
       </c>
-      <c r="I58" s="67">
+      <c r="I58" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12829,7 +13798,7 @@
         <f t="shared" si="1"/>
         <v>1465.068302694295</v>
       </c>
-      <c r="I59" s="67">
+      <c r="I59" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12855,7 +13824,7 @@
         <f t="shared" si="1"/>
         <v>1582.3537669098387</v>
       </c>
-      <c r="I60" s="67">
+      <c r="I60" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12881,7 +13850,7 @@
         <f t="shared" si="1"/>
         <v>1709.0220682626257</v>
       </c>
-      <c r="I61" s="67">
+      <c r="I61" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12911,7 +13880,7 @@
         <f t="shared" si="1"/>
         <v>1811.6233923583832</v>
       </c>
-      <c r="I62" s="67">
+      <c r="I62" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12937,7 +13906,7 @@
         <f t="shared" si="1"/>
         <v>1920.3807958998862</v>
       </c>
-      <c r="I63" s="67">
+      <c r="I63" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12963,7 +13932,7 @@
         <f t="shared" si="1"/>
         <v>2035.6636436538795</v>
       </c>
-      <c r="I64" s="67">
+      <c r="I64" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -12989,7 +13958,7 @@
         <f t="shared" si="1"/>
         <v>2157.863462273112</v>
       </c>
-      <c r="I65" s="67">
+      <c r="I65" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -13015,7 +13984,7 @@
         <f t="shared" si="1"/>
         <v>2287.3952700094987</v>
       </c>
-      <c r="I66" s="67">
+      <c r="I66" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -13041,7 +14010,7 @@
         <f t="shared" si="1"/>
         <v>2424.6989862100686</v>
       </c>
-      <c r="I67" s="67">
+      <c r="I67" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -13067,7 +14036,7 @@
         <f t="shared" ref="H68:H92" si="4">(F68-I67)/I67</f>
         <v>2521.7269456584713</v>
       </c>
-      <c r="I68" s="67">
+      <c r="I68" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -13093,7 +14062,7 @@
         <f t="shared" si="4"/>
         <v>2622.6360234848103</v>
       </c>
-      <c r="I69" s="67">
+      <c r="I69" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -13119,7 +14088,7 @@
         <f t="shared" si="4"/>
         <v>2727.5814644242027</v>
       </c>
-      <c r="I70" s="67">
+      <c r="I70" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -13145,7 +14114,7 @@
         <f t="shared" si="4"/>
         <v>2836.7247230011708</v>
       </c>
-      <c r="I71" s="67">
+      <c r="I71" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -13171,7 +14140,7 @@
         <f t="shared" si="4"/>
         <v>2950.2337119212179</v>
       </c>
-      <c r="I72" s="67">
+      <c r="I72" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -13197,7 +14166,7 @@
         <f t="shared" si="4"/>
         <v>3068.2830603980665</v>
       </c>
-      <c r="I73" s="67">
+      <c r="I73" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -13223,7 +14192,7 @@
         <f t="shared" si="4"/>
         <v>3191.0543828139894</v>
       </c>
-      <c r="I74" s="67">
+      <c r="I74" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -13249,7 +14218,7 @@
         <f t="shared" si="4"/>
         <v>3318.736558126549</v>
       </c>
-      <c r="I75" s="67">
+      <c r="I75" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -13275,7 +14244,7 @@
         <f t="shared" si="4"/>
         <v>3451.5260204516107</v>
       </c>
-      <c r="I76" s="67">
+      <c r="I76" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -13301,7 +14270,7 @@
         <f t="shared" si="4"/>
         <v>3589.6270612696753</v>
       </c>
-      <c r="I77" s="67">
+      <c r="I77" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -13327,7 +14296,7 @@
         <f t="shared" si="4"/>
         <v>3733.2521437204623</v>
       </c>
-      <c r="I78" s="67">
+      <c r="I78" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -13353,7 +14322,7 @@
         <f t="shared" si="4"/>
         <v>3807.9371865948719</v>
       </c>
-      <c r="I79" s="67">
+      <c r="I79" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -13379,7 +14348,7 @@
         <f t="shared" si="4"/>
         <v>3884.1159303267691</v>
       </c>
-      <c r="I80" s="67">
+      <c r="I80" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -13405,7 +14374,7 @@
         <f t="shared" si="4"/>
         <v>3961.8182489333044</v>
       </c>
-      <c r="I81" s="67">
+      <c r="I81" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -13431,7 +14400,7 @@
         <f t="shared" si="4"/>
         <v>4041.0746139119706</v>
       </c>
-      <c r="I82" s="67">
+      <c r="I82" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -13457,10 +14426,10 @@
         <f t="shared" si="4"/>
         <v>4121.9161061902096</v>
       </c>
-      <c r="I83" s="67">
+      <c r="I83" s="55">
         <v>1000</v>
       </c>
-      <c r="K83" s="68" t="s">
+      <c r="K83" s="56" t="s">
         <v>35</v>
       </c>
     </row>
@@ -13486,7 +14455,7 @@
         <f t="shared" si="4"/>
         <v>4204.374428314014</v>
       </c>
-      <c r="I84" s="67">
+      <c r="I84" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -13512,7 +14481,7 @@
         <f t="shared" si="4"/>
         <v>4288.4819168802951</v>
       </c>
-      <c r="I85" s="67">
+      <c r="I85" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -13538,7 +14507,7 @@
         <f t="shared" si="4"/>
         <v>4374.2715552179006</v>
       </c>
-      <c r="I86" s="67">
+      <c r="I86" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -13564,7 +14533,7 @@
         <f t="shared" si="4"/>
         <v>4461.7769863222584</v>
       </c>
-      <c r="I87" s="67">
+      <c r="I87" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -13590,7 +14559,7 @@
         <f t="shared" si="4"/>
         <v>4551.0325260487043</v>
       </c>
-      <c r="I88" s="67">
+      <c r="I88" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -13616,7 +14585,7 @@
         <f t="shared" si="4"/>
         <v>4642.0731765696783</v>
       </c>
-      <c r="I89" s="67">
+      <c r="I89" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -13642,7 +14611,7 @@
         <f t="shared" si="4"/>
         <v>4734.9346401010716</v>
       </c>
-      <c r="I90" s="67">
+      <c r="I90" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -13668,7 +14637,7 @@
         <f t="shared" si="4"/>
         <v>4829.6533329030926</v>
       </c>
-      <c r="I91" s="67">
+      <c r="I91" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -13698,7 +14667,7 @@
         <f t="shared" si="4"/>
         <v>4926.2663995611547</v>
       </c>
-      <c r="I92" s="67">
+      <c r="I92" s="55">
         <v>1000</v>
       </c>
     </row>
@@ -13749,11 +14718,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15391,11 +16360,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16344,11 +17313,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -17947,12 +18916,12 @@
       <c r="B86" s="1">
         <v>84</v>
       </c>
-      <c r="C86" s="60" t="s">
+      <c r="C86" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="D86" s="61"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="62"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="64"/>
     </row>
     <row r="87" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B87" s="1">
@@ -18040,11 +19009,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -19500,12 +20469,12 @@
       <c r="B78" s="1">
         <v>81</v>
       </c>
-      <c r="C78" s="63" t="s">
+      <c r="C78" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="65"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="67"/>
     </row>
     <row r="79" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B79" s="1">
@@ -19621,11 +20590,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -20224,12 +21193,12 @@
       <c r="B33" s="1">
         <v>31</v>
       </c>
-      <c r="C33" s="63" t="s">
+      <c r="C33" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="65"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="67"/>
       <c r="G33" s="32"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20787,11 +21756,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">

--- a/Profits Possibilities .xlsx
+++ b/Profits Possibilities .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AD49E1-2753-4C77-808E-45F75EC3EC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91396D82-5EA8-4C79-AFD0-CCC25C527B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reality lev 5" sheetId="11" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="37">
   <si>
     <t>Day</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t xml:space="preserve">          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Profit will be = 60,000$ per day </t>
   </si>
 </sst>
 </file>
@@ -9512,8 +9515,8 @@
   </sheetPr>
   <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18994,8 +18997,8 @@
   </sheetPr>
   <dimension ref="B1:G87"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78:F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19839,15 +19842,15 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="D45" s="19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E45" s="3">
         <f t="shared" si="0"/>
-        <v>7.4999999999999997E-2</v>
+        <v>0.09</v>
       </c>
       <c r="F45" s="8">
         <f t="shared" si="1"/>
-        <v>140807.63209922292</v>
+        <v>142772.38975642138</v>
       </c>
     </row>
     <row r="46" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19858,15 +19861,15 @@
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D46" s="19">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E46" s="3">
         <f t="shared" si="0"/>
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="F46" s="8">
         <f t="shared" si="1"/>
-        <v>133767.25049426177</v>
+        <v>134206.04637103609</v>
       </c>
     </row>
     <row r="47" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19877,15 +19880,15 @@
         <v>0.02</v>
       </c>
       <c r="D47" s="20">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E47" s="7">
         <f t="shared" si="0"/>
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="F47" s="10">
         <f t="shared" si="1"/>
-        <v>157845.35558322887</v>
+        <v>166415.49750008475</v>
       </c>
     </row>
     <row r="48" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19896,15 +19899,15 @@
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D48" s="19">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E48" s="3">
         <f t="shared" si="0"/>
-        <v>-4.4999999999999998E-2</v>
+        <v>-0.06</v>
       </c>
       <c r="F48" s="8">
         <f t="shared" si="1"/>
-        <v>150742.31458198358</v>
+        <v>156430.56765007967</v>
       </c>
     </row>
     <row r="49" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19915,15 +19918,15 @@
         <v>0.01</v>
       </c>
       <c r="D49" s="19">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E49" s="3">
         <f t="shared" si="0"/>
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="F49" s="8">
         <f t="shared" si="1"/>
-        <v>164309.12289436211</v>
+        <v>175202.23576808922</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -19934,15 +19937,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D50" s="19">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E50" s="3">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="F50" s="8">
         <f t="shared" si="1"/>
-        <v>170881.4878101366</v>
+        <v>185714.36991417457</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -19953,15 +19956,15 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="D51" s="19">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E51" s="3">
         <f t="shared" si="0"/>
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="F51" s="8">
         <f t="shared" si="1"/>
-        <v>181134.37707874482</v>
+        <v>202428.66320645029</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -19972,7 +19975,7 @@
         <v>0</v>
       </c>
       <c r="D52" s="19">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E52" s="3">
         <f t="shared" si="0"/>
@@ -19980,7 +19983,7 @@
       </c>
       <c r="F52" s="8">
         <f t="shared" si="1"/>
-        <v>181134.37707874482</v>
+        <v>202428.66320645029</v>
       </c>
     </row>
     <row r="53" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -19991,15 +19994,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D53" s="19">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E53" s="3">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="F53" s="8">
         <f t="shared" si="1"/>
-        <v>202870.50232819418</v>
+        <v>238865.82258361136</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -20010,15 +20013,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D54" s="19">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E54" s="3">
         <f t="shared" si="0"/>
-        <v>3.5000000000000003E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F54" s="8">
         <f t="shared" si="1"/>
-        <v>209970.96990968098</v>
+        <v>253197.77193862805</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -20029,15 +20032,15 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="D55" s="19">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E55" s="3">
         <f t="shared" si="0"/>
-        <v>5.2499999999999998E-2</v>
+        <v>0.09</v>
       </c>
       <c r="F55" s="8">
         <f t="shared" si="1"/>
-        <v>220994.44582993924</v>
+        <v>275985.5714131046</v>
       </c>
     </row>
     <row r="56" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -20048,15 +20051,15 @@
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D56" s="19">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E56" s="3">
         <f t="shared" si="0"/>
-        <v>-3.5000000000000003E-2</v>
+        <v>-0.06</v>
       </c>
       <c r="F56" s="8">
         <f t="shared" si="1"/>
-        <v>213259.64022589137</v>
+        <v>259426.43712831833</v>
       </c>
     </row>
     <row r="57" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -20067,15 +20070,15 @@
         <v>0.02</v>
       </c>
       <c r="D57" s="19">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E57" s="3">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="F57" s="8">
         <f t="shared" si="1"/>
-        <v>238850.79705299833</v>
+        <v>321688.78203911474</v>
       </c>
     </row>
     <row r="58" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -20086,15 +20089,15 @@
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D58" s="19">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E58" s="3">
         <f t="shared" si="0"/>
-        <v>-0.03</v>
+        <v>-0.06</v>
       </c>
       <c r="F58" s="8">
         <f t="shared" si="1"/>
-        <v>231685.27314140837</v>
+        <v>302387.45511676784</v>
       </c>
     </row>
     <row r="59" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -20105,15 +20108,15 @@
         <v>0.01</v>
       </c>
       <c r="D59" s="19">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E59" s="3">
         <f t="shared" si="0"/>
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="F59" s="8">
         <f t="shared" si="1"/>
-        <v>245586.38952989288</v>
+        <v>338673.94973077998</v>
       </c>
     </row>
     <row r="60" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -20124,15 +20127,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D60" s="19">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" si="0"/>
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F60" s="8">
         <f t="shared" si="1"/>
-        <v>252953.98121578968</v>
+        <v>358994.3867146268</v>
       </c>
     </row>
     <row r="61" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -20143,15 +20146,15 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="D61" s="19">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E61" s="3">
         <f t="shared" si="0"/>
-        <v>4.4999999999999998E-2</v>
+        <v>0.09</v>
       </c>
       <c r="F61" s="8">
         <f t="shared" si="1"/>
-        <v>264336.91037050023</v>
+        <v>391303.88151894324</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -20162,7 +20165,7 @@
         <v>0</v>
       </c>
       <c r="D62" s="20">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E62" s="7">
         <f t="shared" si="0"/>
@@ -20170,7 +20173,7 @@
       </c>
       <c r="F62" s="10">
         <f t="shared" si="1"/>
-        <v>264336.91037050023</v>
+        <v>391303.88151894324</v>
       </c>
     </row>
     <row r="63" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -20181,15 +20184,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D63" s="19">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E63" s="3">
         <f t="shared" si="0"/>
-        <v>7.4999999999999997E-2</v>
+        <v>0.18</v>
       </c>
       <c r="F63" s="8">
         <f t="shared" si="1"/>
-        <v>284162.17864828778</v>
+        <v>461738.58019235299</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -20200,15 +20203,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D64" s="19">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E64" s="3">
         <f t="shared" si="0"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F64" s="8">
         <f t="shared" si="1"/>
-        <v>291266.233114495</v>
+        <v>489442.89500389417</v>
       </c>
     </row>
     <row r="65" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -20219,15 +20222,15 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="D65" s="19">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E65" s="3">
         <f t="shared" si="0"/>
-        <v>3.7499999999999999E-2</v>
+        <v>0.09</v>
       </c>
       <c r="F65" s="8">
         <f t="shared" si="1"/>
-        <v>302188.71685628855</v>
+        <v>533492.75555424462</v>
       </c>
     </row>
     <row r="66" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -20238,15 +20241,15 @@
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D66" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E66" s="3">
         <f t="shared" si="0"/>
-        <v>-2.5000000000000001E-2</v>
+        <v>-0.05</v>
       </c>
       <c r="F66" s="8">
         <f t="shared" si="1"/>
-        <v>294633.99893488135</v>
+        <v>506818.11777653237</v>
       </c>
     </row>
     <row r="67" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -20257,15 +20260,15 @@
         <v>0.02</v>
       </c>
       <c r="D67" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E67" s="3">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F67" s="8">
         <f t="shared" si="1"/>
-        <v>324097.39882836951</v>
+        <v>608181.74133183889</v>
       </c>
     </row>
     <row r="68" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -20276,15 +20279,15 @@
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D68" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E68" s="3">
         <f t="shared" ref="E68:E77" si="2">D68*C68</f>
-        <v>-2.5000000000000001E-2</v>
+        <v>-0.05</v>
       </c>
       <c r="F68" s="8">
         <f t="shared" si="1"/>
-        <v>315994.96385766024</v>
+        <v>577772.65426524694</v>
       </c>
     </row>
     <row r="69" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -20295,15 +20298,15 @@
         <v>0.01</v>
       </c>
       <c r="D69" s="19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E69" s="3">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="F69" s="8">
         <f t="shared" ref="F69:F77" si="3">F68+(F68*E69)</f>
-        <v>331794.71205054328</v>
+        <v>635549.91969177162</v>
       </c>
     </row>
     <row r="70" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -20314,15 +20317,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D70" s="19">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E70" s="3">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="F70" s="8">
         <f t="shared" si="3"/>
-        <v>338430.60629155417</v>
+        <v>667327.41567636025</v>
       </c>
     </row>
     <row r="71" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -20333,15 +20336,15 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="D71" s="19">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E71" s="3">
         <f t="shared" si="2"/>
-        <v>0.03</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F71" s="8">
         <f t="shared" si="3"/>
-        <v>348583.52448030078</v>
+        <v>717376.9718520873</v>
       </c>
       <c r="G71" s="32"/>
     </row>
@@ -20353,7 +20356,7 @@
         <v>0</v>
       </c>
       <c r="D72" s="19">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E72" s="3">
         <f t="shared" si="2"/>
@@ -20361,7 +20364,7 @@
       </c>
       <c r="F72" s="8">
         <f t="shared" si="3"/>
-        <v>348583.52448030078</v>
+        <v>717376.9718520873</v>
       </c>
       <c r="G72" s="32"/>
     </row>
@@ -20373,15 +20376,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D73" s="19">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E73" s="3">
         <f t="shared" si="2"/>
-        <v>0.06</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="F73" s="8">
         <f t="shared" si="3"/>
-        <v>369498.53594911884</v>
+        <v>814222.86305211904</v>
       </c>
       <c r="G73" s="32"/>
     </row>
@@ -20393,15 +20396,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D74" s="19">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E74" s="3">
         <f t="shared" si="2"/>
-        <v>0.02</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F74" s="8">
         <f t="shared" si="3"/>
-        <v>376888.50666810124</v>
+        <v>850862.89188946434</v>
       </c>
       <c r="G74" s="32"/>
     </row>
@@ -20413,15 +20416,15 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="D75" s="19">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E75" s="3">
         <f t="shared" si="2"/>
-        <v>0.03</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="F75" s="8">
         <f t="shared" si="3"/>
-        <v>388195.16186814429</v>
+        <v>908296.13709200313</v>
       </c>
       <c r="G75" s="32"/>
     </row>
@@ -20433,15 +20436,15 @@
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="D76" s="19">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E76" s="3">
         <f t="shared" si="2"/>
-        <v>-0.02</v>
+        <v>-4.4999999999999998E-2</v>
       </c>
       <c r="F76" s="8">
         <f t="shared" si="3"/>
-        <v>380431.25863078143</v>
+        <v>867422.81092286296</v>
       </c>
       <c r="G76" s="32"/>
     </row>
@@ -20453,15 +20456,15 @@
         <v>0.02</v>
       </c>
       <c r="D77" s="20">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E77" s="7">
         <f t="shared" si="2"/>
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="F77" s="10">
         <f t="shared" si="3"/>
-        <v>410865.75932124397</v>
+        <v>1023558.9168889783</v>
       </c>
       <c r="G77" s="32"/>
     </row>
@@ -20470,7 +20473,7 @@
         <v>81</v>
       </c>
       <c r="C78" s="65" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D78" s="66"/>
       <c r="E78" s="66"/>

--- a/Profits Possibilities .xlsx
+++ b/Profits Possibilities .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91396D82-5EA8-4C79-AFD0-CCC25C527B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2530A97C-9EF9-4DAE-B6F7-F997210BB060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reality lev 5" sheetId="11" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="Reality 5" sheetId="8" r:id="rId12"/>
     <sheet name="Testing" sheetId="15" r:id="rId13"/>
     <sheet name="Testing 2" sheetId="16" r:id="rId14"/>
+    <sheet name="Testing 3" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="38">
   <si>
     <t>Day</t>
   </si>
@@ -156,6 +157,9 @@
   </si>
   <si>
     <t xml:space="preserve">Average Profit will be = 60,000$ per day </t>
+  </si>
+  <si>
+    <t>sayyid - masri helper</t>
   </si>
 </sst>
 </file>
@@ -409,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -569,6 +573,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -940,7 +947,7 @@
     <col min="8" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="60" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1" spans="2:6" s="61" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -2681,13 +2688,13 @@
       </c>
     </row>
     <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="57" t="s">
+      <c r="B93" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C93" s="58"/>
-      <c r="D93" s="58"/>
-      <c r="E93" s="58"/>
-      <c r="F93" s="59"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="59"/>
+      <c r="E93" s="59"/>
+      <c r="F93" s="60"/>
     </row>
     <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="43">
@@ -4444,11 +4451,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -5269,12 +5276,12 @@
       <c r="B45" s="1">
         <v>49</v>
       </c>
-      <c r="C45" s="62" t="s">
+      <c r="C45" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="65"/>
     </row>
     <row r="46" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
@@ -5678,11 +5685,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -6912,12 +6919,12 @@
       <c r="B66" s="1">
         <v>64</v>
       </c>
-      <c r="C66" s="65" t="s">
+      <c r="C66" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="66"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="67"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="68"/>
       <c r="G66" s="32"/>
     </row>
     <row r="67" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -7187,11 +7194,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -8221,12 +8228,12 @@
       <c r="B56" s="1">
         <v>64</v>
       </c>
-      <c r="C56" s="65" t="s">
+      <c r="C56" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="66"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="68"/>
     </row>
     <row r="57" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
@@ -8479,7 +8486,7 @@
   </sheetPr>
   <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -8499,11 +8506,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9108,7 +9115,7 @@
       <c r="I22" s="52">
         <v>1200</v>
       </c>
-      <c r="J22" s="68" t="s">
+      <c r="J22" s="69" t="s">
         <v>32</v>
       </c>
     </row>
@@ -9137,7 +9144,7 @@
       <c r="I23" s="52">
         <v>1200</v>
       </c>
-      <c r="J23" s="68"/>
+      <c r="J23" s="69"/>
     </row>
     <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
@@ -9164,7 +9171,7 @@
       <c r="I24" s="52">
         <v>1200</v>
       </c>
-      <c r="J24" s="68"/>
+      <c r="J24" s="69"/>
     </row>
     <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
@@ -9248,6 +9255,9 @@
       </c>
       <c r="I27" s="52">
         <v>1200</v>
+      </c>
+      <c r="J27" s="53" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9515,8 +9525,8 @@
   </sheetPr>
   <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9535,11 +9545,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10084,7 +10094,7 @@
       <c r="I22" s="52">
         <v>100</v>
       </c>
-      <c r="J22" s="68"/>
+      <c r="J22" s="69"/>
     </row>
     <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="6">
@@ -10111,7 +10121,7 @@
       <c r="I23" s="52">
         <v>100</v>
       </c>
-      <c r="J23" s="68"/>
+      <c r="J23" s="69"/>
     </row>
     <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
@@ -10138,7 +10148,7 @@
       <c r="I24" s="52">
         <v>100</v>
       </c>
-      <c r="J24" s="68"/>
+      <c r="J24" s="69"/>
     </row>
     <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
@@ -10465,6 +10475,1661 @@
       <c r="G126" s="45"/>
       <c r="I126" s="51"/>
       <c r="J126" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="J22:J24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2B8F3F-4BA4-490A-8122-1BD5198EC4CD}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:J119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="48"/>
+    <col min="9" max="9" width="14.42578125" style="51"/>
+    <col min="10" max="10" width="72.7109375" style="53" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D3" s="11">
+        <v>15</v>
+      </c>
+      <c r="E3" s="27">
+        <f>C3*D3</f>
+        <v>0.15</v>
+      </c>
+      <c r="F3" s="8">
+        <f>100+(100*E3)</f>
+        <v>115</v>
+      </c>
+      <c r="H3" s="48">
+        <f>(F3-I2)/I2</f>
+        <v>0.15</v>
+      </c>
+      <c r="I3" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="11">
+        <v>15</v>
+      </c>
+      <c r="E4" s="27">
+        <f t="shared" ref="E4:E35" si="0">C4*D4</f>
+        <v>0.15</v>
+      </c>
+      <c r="F4" s="8">
+        <f>F3+(F3*E4)</f>
+        <v>132.25</v>
+      </c>
+      <c r="H4" s="48">
+        <f t="shared" ref="H4:H61" si="1">(F4-I3)/I3</f>
+        <v>0.32250000000000001</v>
+      </c>
+      <c r="I4" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="11">
+        <v>15</v>
+      </c>
+      <c r="E5" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F5" s="8">
+        <f>F4+(F4*E5)</f>
+        <v>152.08750000000001</v>
+      </c>
+      <c r="H5" s="48">
+        <f t="shared" si="1"/>
+        <v>0.52087500000000009</v>
+      </c>
+      <c r="I5" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D6" s="11">
+        <v>15</v>
+      </c>
+      <c r="E6" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F6" s="8">
+        <f>F5+(F5*E6)</f>
+        <v>174.90062499999999</v>
+      </c>
+      <c r="H6" s="48">
+        <f t="shared" si="1"/>
+        <v>0.74900624999999987</v>
+      </c>
+      <c r="I6" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D7" s="11">
+        <v>15</v>
+      </c>
+      <c r="E7" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" ref="F7:F62" si="2">F6+(F6*E7)</f>
+        <v>201.13571875</v>
+      </c>
+      <c r="H7" s="48">
+        <f t="shared" si="1"/>
+        <v>1.0113571875</v>
+      </c>
+      <c r="I7" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D8" s="11">
+        <v>15</v>
+      </c>
+      <c r="E8" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="2"/>
+        <v>231.30607656249998</v>
+      </c>
+      <c r="H8" s="48">
+        <f t="shared" si="1"/>
+        <v>1.3130607656249997</v>
+      </c>
+      <c r="I8" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="D9" s="12">
+        <v>15</v>
+      </c>
+      <c r="E9" s="28">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="2"/>
+        <v>266.001988046875</v>
+      </c>
+      <c r="H9" s="50">
+        <f t="shared" si="1"/>
+        <v>1.66001988046875</v>
+      </c>
+      <c r="I9" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D10" s="11">
+        <v>15</v>
+      </c>
+      <c r="E10" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="2"/>
+        <v>305.90228625390625</v>
+      </c>
+      <c r="H10" s="48">
+        <f t="shared" si="1"/>
+        <v>2.0590228625390625</v>
+      </c>
+      <c r="I10" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D11" s="11">
+        <v>15</v>
+      </c>
+      <c r="E11" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="2"/>
+        <v>351.78762919199221</v>
+      </c>
+      <c r="H11" s="48">
+        <f t="shared" si="1"/>
+        <v>2.5178762919199222</v>
+      </c>
+      <c r="I11" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D12" s="11">
+        <v>15</v>
+      </c>
+      <c r="E12" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="2"/>
+        <v>404.55577357079102</v>
+      </c>
+      <c r="H12" s="48">
+        <f t="shared" si="1"/>
+        <v>3.0455577357079102</v>
+      </c>
+      <c r="I12" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D13" s="11">
+        <v>15</v>
+      </c>
+      <c r="E13" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="2"/>
+        <v>465.23913960640965</v>
+      </c>
+      <c r="H13" s="48">
+        <f t="shared" si="1"/>
+        <v>3.6523913960640964</v>
+      </c>
+      <c r="I13" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D14" s="11">
+        <v>15</v>
+      </c>
+      <c r="E14" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="2"/>
+        <v>535.02501054737104</v>
+      </c>
+      <c r="H14" s="48">
+        <f t="shared" si="1"/>
+        <v>4.3502501054737106</v>
+      </c>
+      <c r="I14" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D15" s="11">
+        <v>15</v>
+      </c>
+      <c r="E15" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="2"/>
+        <v>615.27876212947672</v>
+      </c>
+      <c r="H15" s="48">
+        <f t="shared" si="1"/>
+        <v>5.1527876212947668</v>
+      </c>
+      <c r="I15" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="6">
+        <v>14</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="D16" s="12">
+        <v>15</v>
+      </c>
+      <c r="E16" s="28">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="2"/>
+        <v>707.57057644889824</v>
+      </c>
+      <c r="H16" s="50">
+        <f t="shared" si="1"/>
+        <v>6.0757057644889825</v>
+      </c>
+      <c r="I16" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D17" s="11">
+        <v>15</v>
+      </c>
+      <c r="E17" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="2"/>
+        <v>813.70616291623298</v>
+      </c>
+      <c r="H17" s="48">
+        <f t="shared" si="1"/>
+        <v>7.1370616291623294</v>
+      </c>
+      <c r="I17" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D18" s="11">
+        <v>15</v>
+      </c>
+      <c r="E18" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="2"/>
+        <v>935.76208735366788</v>
+      </c>
+      <c r="H18" s="48">
+        <f t="shared" si="1"/>
+        <v>8.3576208735366784</v>
+      </c>
+      <c r="I18" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D19" s="11">
+        <v>15</v>
+      </c>
+      <c r="E19" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="2"/>
+        <v>1076.1264004567181</v>
+      </c>
+      <c r="H19" s="48">
+        <f t="shared" si="1"/>
+        <v>9.761264004567181</v>
+      </c>
+      <c r="I19" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D20" s="11">
+        <v>15</v>
+      </c>
+      <c r="E20" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="2"/>
+        <v>1237.5453605252258</v>
+      </c>
+      <c r="H20" s="48">
+        <f t="shared" si="1"/>
+        <v>11.375453605252257</v>
+      </c>
+      <c r="I20" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D21" s="11">
+        <v>15</v>
+      </c>
+      <c r="E21" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="2"/>
+        <v>1423.1771646040097</v>
+      </c>
+      <c r="H21" s="48">
+        <f t="shared" si="1"/>
+        <v>13.231771646040096</v>
+      </c>
+      <c r="I21" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D22" s="11">
+        <v>15</v>
+      </c>
+      <c r="E22" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="2"/>
+        <v>1636.6537392946111</v>
+      </c>
+      <c r="H22" s="48">
+        <f t="shared" si="1"/>
+        <v>15.36653739294611</v>
+      </c>
+      <c r="I22" s="52">
+        <v>100</v>
+      </c>
+      <c r="J22" s="69"/>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="6">
+        <v>21</v>
+      </c>
+      <c r="C23" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="D23" s="12">
+        <v>15</v>
+      </c>
+      <c r="E23" s="28">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="2"/>
+        <v>1882.1518001888028</v>
+      </c>
+      <c r="H23" s="50">
+        <f t="shared" si="1"/>
+        <v>17.821518001888027</v>
+      </c>
+      <c r="I23" s="52">
+        <v>100</v>
+      </c>
+      <c r="J23" s="69"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D24" s="11">
+        <v>15</v>
+      </c>
+      <c r="E24" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="2"/>
+        <v>2164.4745702171231</v>
+      </c>
+      <c r="H24" s="48">
+        <f t="shared" si="1"/>
+        <v>20.644745702171232</v>
+      </c>
+      <c r="I24" s="52">
+        <v>100</v>
+      </c>
+      <c r="J24" s="69"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D25" s="11">
+        <v>15</v>
+      </c>
+      <c r="E25" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="2"/>
+        <v>2489.1457557496915</v>
+      </c>
+      <c r="H25" s="48">
+        <f t="shared" si="1"/>
+        <v>23.891457557496913</v>
+      </c>
+      <c r="I25" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D26" s="11">
+        <v>15</v>
+      </c>
+      <c r="E26" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="2"/>
+        <v>2862.5176191121454</v>
+      </c>
+      <c r="H26" s="48">
+        <f t="shared" si="1"/>
+        <v>27.625176191121454</v>
+      </c>
+      <c r="I26" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D27" s="11">
+        <v>15</v>
+      </c>
+      <c r="E27" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="2"/>
+        <v>3291.895261978967</v>
+      </c>
+      <c r="H27" s="48">
+        <f t="shared" si="1"/>
+        <v>31.918952619789671</v>
+      </c>
+      <c r="I27" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>26</v>
+      </c>
+      <c r="C28" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D28" s="11">
+        <v>15</v>
+      </c>
+      <c r="E28" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="2"/>
+        <v>3785.6795512758122</v>
+      </c>
+      <c r="H28" s="48">
+        <f t="shared" si="1"/>
+        <v>36.856795512758119</v>
+      </c>
+      <c r="I28" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>27</v>
+      </c>
+      <c r="C29" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D29" s="11">
+        <v>15</v>
+      </c>
+      <c r="E29" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="2"/>
+        <v>4353.5314839671837</v>
+      </c>
+      <c r="H29" s="48">
+        <f t="shared" si="1"/>
+        <v>42.535314839671834</v>
+      </c>
+      <c r="I29" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>28</v>
+      </c>
+      <c r="C30" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D30" s="11">
+        <v>15</v>
+      </c>
+      <c r="E30" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" si="2"/>
+        <v>5006.5612065622608</v>
+      </c>
+      <c r="H30" s="48">
+        <f t="shared" si="1"/>
+        <v>49.065612065622609</v>
+      </c>
+      <c r="I30" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1">
+        <v>29</v>
+      </c>
+      <c r="C31" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D31" s="11">
+        <v>15</v>
+      </c>
+      <c r="E31" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="2"/>
+        <v>5757.5453875466001</v>
+      </c>
+      <c r="H31" s="48">
+        <f t="shared" si="1"/>
+        <v>56.575453875466003</v>
+      </c>
+      <c r="I31" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1">
+        <v>30</v>
+      </c>
+      <c r="C32" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D32" s="11">
+        <v>15</v>
+      </c>
+      <c r="E32" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" si="2"/>
+        <v>6621.1771956785897</v>
+      </c>
+      <c r="H32" s="48">
+        <f t="shared" si="1"/>
+        <v>65.211771956785896</v>
+      </c>
+      <c r="I32" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <v>31</v>
+      </c>
+      <c r="C33" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D33" s="11">
+        <v>15</v>
+      </c>
+      <c r="E33" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F33" s="8">
+        <f t="shared" si="2"/>
+        <v>7614.3537750303785</v>
+      </c>
+      <c r="H33" s="48">
+        <f t="shared" si="1"/>
+        <v>75.143537750303778</v>
+      </c>
+      <c r="I33" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <v>32</v>
+      </c>
+      <c r="C34" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D34" s="11">
+        <v>15</v>
+      </c>
+      <c r="E34" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="2"/>
+        <v>8756.5068412849359</v>
+      </c>
+      <c r="H34" s="48">
+        <f t="shared" si="1"/>
+        <v>86.565068412849357</v>
+      </c>
+      <c r="I34" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="35">
+        <v>33</v>
+      </c>
+      <c r="C35" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="D35" s="41">
+        <v>15</v>
+      </c>
+      <c r="E35" s="38">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="F35" s="39">
+        <f t="shared" si="2"/>
+        <v>10069.982867477676</v>
+      </c>
+      <c r="G35" s="45">
+        <f t="shared" ref="G35" si="3">F35-F6</f>
+        <v>9895.0822424776761</v>
+      </c>
+      <c r="H35" s="50">
+        <f t="shared" si="1"/>
+        <v>99.699828674776768</v>
+      </c>
+      <c r="I35" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1">
+        <v>34</v>
+      </c>
+      <c r="C36" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D36" s="11">
+        <v>15</v>
+      </c>
+      <c r="E36" s="27">
+        <f>C36*D36</f>
+        <v>0.15</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" si="2"/>
+        <v>11580.480297599328</v>
+      </c>
+      <c r="G36" s="44"/>
+      <c r="H36" s="48">
+        <f t="shared" si="1"/>
+        <v>114.80480297599328</v>
+      </c>
+      <c r="I36" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="1">
+        <v>35</v>
+      </c>
+      <c r="C37" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D37" s="11">
+        <v>15</v>
+      </c>
+      <c r="E37" s="27">
+        <f t="shared" ref="E37:E62" si="4">C37*D37</f>
+        <v>0.15</v>
+      </c>
+      <c r="F37" s="8">
+        <f t="shared" si="2"/>
+        <v>13317.552342239227</v>
+      </c>
+      <c r="H37" s="48">
+        <f t="shared" si="1"/>
+        <v>132.17552342239227</v>
+      </c>
+      <c r="I37" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="1">
+        <v>36</v>
+      </c>
+      <c r="C38" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D38" s="11">
+        <v>15</v>
+      </c>
+      <c r="E38" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" si="2"/>
+        <v>15315.185193575111</v>
+      </c>
+      <c r="H38" s="48">
+        <f t="shared" si="1"/>
+        <v>152.1518519357511</v>
+      </c>
+      <c r="I38" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="1">
+        <v>37</v>
+      </c>
+      <c r="C39" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D39" s="11">
+        <v>15</v>
+      </c>
+      <c r="E39" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F39" s="8">
+        <f t="shared" si="2"/>
+        <v>17612.462972611378</v>
+      </c>
+      <c r="H39" s="48">
+        <f t="shared" si="1"/>
+        <v>175.12462972611377</v>
+      </c>
+      <c r="I39" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="1">
+        <v>38</v>
+      </c>
+      <c r="C40" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D40" s="11">
+        <v>15</v>
+      </c>
+      <c r="E40" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F40" s="8">
+        <f t="shared" si="2"/>
+        <v>20254.332418503083</v>
+      </c>
+      <c r="H40" s="48">
+        <f t="shared" si="1"/>
+        <v>201.54332418503083</v>
+      </c>
+      <c r="I40" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1">
+        <v>39</v>
+      </c>
+      <c r="C41" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D41" s="11">
+        <v>15</v>
+      </c>
+      <c r="E41" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" si="2"/>
+        <v>23292.482281278546</v>
+      </c>
+      <c r="H41" s="48">
+        <f t="shared" si="1"/>
+        <v>231.92482281278546</v>
+      </c>
+      <c r="I41" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="6">
+        <v>40</v>
+      </c>
+      <c r="C42" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="D42" s="12">
+        <v>15</v>
+      </c>
+      <c r="E42" s="28">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F42" s="10">
+        <f t="shared" si="2"/>
+        <v>26786.354623470328</v>
+      </c>
+      <c r="H42" s="48">
+        <f t="shared" si="1"/>
+        <v>266.86354623470328</v>
+      </c>
+      <c r="I42" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1">
+        <v>41</v>
+      </c>
+      <c r="C43" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D43" s="11">
+        <v>15</v>
+      </c>
+      <c r="E43" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F43" s="8">
+        <f t="shared" si="2"/>
+        <v>30804.307816990877</v>
+      </c>
+      <c r="H43" s="48">
+        <f t="shared" si="1"/>
+        <v>307.04307816990877</v>
+      </c>
+      <c r="I43" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="1">
+        <v>42</v>
+      </c>
+      <c r="C44" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D44" s="11">
+        <v>15</v>
+      </c>
+      <c r="E44" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F44" s="8">
+        <f t="shared" si="2"/>
+        <v>35424.953989539506</v>
+      </c>
+      <c r="H44" s="48">
+        <f t="shared" si="1"/>
+        <v>353.24953989539506</v>
+      </c>
+      <c r="I44" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="1">
+        <v>43</v>
+      </c>
+      <c r="C45" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D45" s="11">
+        <v>15</v>
+      </c>
+      <c r="E45" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F45" s="8">
+        <f t="shared" si="2"/>
+        <v>40738.697087970431</v>
+      </c>
+      <c r="H45" s="48">
+        <f t="shared" si="1"/>
+        <v>406.38697087970434</v>
+      </c>
+      <c r="I45" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="1">
+        <v>44</v>
+      </c>
+      <c r="C46" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D46" s="11">
+        <v>15</v>
+      </c>
+      <c r="E46" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F46" s="8">
+        <f t="shared" si="2"/>
+        <v>46849.501651165992</v>
+      </c>
+      <c r="H46" s="48">
+        <f t="shared" si="1"/>
+        <v>467.49501651165991</v>
+      </c>
+      <c r="I46" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="1">
+        <v>45</v>
+      </c>
+      <c r="C47" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D47" s="11">
+        <v>15</v>
+      </c>
+      <c r="E47" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F47" s="8">
+        <f t="shared" si="2"/>
+        <v>53876.926898840888</v>
+      </c>
+      <c r="H47" s="48">
+        <f t="shared" si="1"/>
+        <v>537.76926898840884</v>
+      </c>
+      <c r="I47" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="1">
+        <v>46</v>
+      </c>
+      <c r="C48" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D48" s="11">
+        <v>15</v>
+      </c>
+      <c r="E48" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F48" s="8">
+        <f t="shared" si="2"/>
+        <v>61958.465933667023</v>
+      </c>
+      <c r="H48" s="48">
+        <f t="shared" si="1"/>
+        <v>618.58465933667026</v>
+      </c>
+      <c r="I48" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="6">
+        <v>47</v>
+      </c>
+      <c r="C49" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="D49" s="12">
+        <v>15</v>
+      </c>
+      <c r="E49" s="28">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F49" s="10">
+        <f t="shared" si="2"/>
+        <v>71252.23582371707</v>
+      </c>
+      <c r="H49" s="48">
+        <f t="shared" si="1"/>
+        <v>711.52235823717069</v>
+      </c>
+      <c r="I49" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="1">
+        <v>48</v>
+      </c>
+      <c r="C50" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D50" s="11">
+        <v>15</v>
+      </c>
+      <c r="E50" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F50" s="8">
+        <f t="shared" si="2"/>
+        <v>81940.071197274636</v>
+      </c>
+      <c r="H50" s="48">
+        <f t="shared" si="1"/>
+        <v>818.40071197274631</v>
+      </c>
+      <c r="I50" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="1">
+        <v>49</v>
+      </c>
+      <c r="C51" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D51" s="11">
+        <v>15</v>
+      </c>
+      <c r="E51" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F51" s="8">
+        <f t="shared" si="2"/>
+        <v>94231.081876865836</v>
+      </c>
+      <c r="H51" s="48">
+        <f t="shared" si="1"/>
+        <v>941.31081876865835</v>
+      </c>
+      <c r="I51" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="1">
+        <v>50</v>
+      </c>
+      <c r="C52" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D52" s="11">
+        <v>15</v>
+      </c>
+      <c r="E52" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F52" s="8">
+        <f t="shared" si="2"/>
+        <v>108365.74415839571</v>
+      </c>
+      <c r="H52" s="48">
+        <f t="shared" si="1"/>
+        <v>1082.6574415839571</v>
+      </c>
+      <c r="I52" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="1">
+        <v>51</v>
+      </c>
+      <c r="C53" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D53" s="11">
+        <v>15</v>
+      </c>
+      <c r="E53" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F53" s="8">
+        <f t="shared" si="2"/>
+        <v>124620.60578215506</v>
+      </c>
+      <c r="H53" s="48">
+        <f t="shared" si="1"/>
+        <v>1245.2060578215505</v>
+      </c>
+      <c r="I53" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="1">
+        <v>52</v>
+      </c>
+      <c r="C54" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D54" s="11">
+        <v>15</v>
+      </c>
+      <c r="E54" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F54" s="8">
+        <f t="shared" si="2"/>
+        <v>143313.69664947831</v>
+      </c>
+      <c r="H54" s="48">
+        <f t="shared" si="1"/>
+        <v>1432.1369664947831</v>
+      </c>
+      <c r="I54" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="1">
+        <v>53</v>
+      </c>
+      <c r="C55" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D55" s="11">
+        <v>15</v>
+      </c>
+      <c r="E55" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F55" s="8">
+        <f t="shared" si="2"/>
+        <v>164810.75114690006</v>
+      </c>
+      <c r="H55" s="48">
+        <f t="shared" si="1"/>
+        <v>1647.1075114690007</v>
+      </c>
+      <c r="I55" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="6">
+        <v>54</v>
+      </c>
+      <c r="C56" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="D56" s="12">
+        <v>15</v>
+      </c>
+      <c r="E56" s="28">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F56" s="10">
+        <f t="shared" si="2"/>
+        <v>189532.36381893506</v>
+      </c>
+      <c r="H56" s="48">
+        <f t="shared" si="1"/>
+        <v>1894.3236381893505</v>
+      </c>
+      <c r="I56" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="1">
+        <v>55</v>
+      </c>
+      <c r="C57" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D57" s="11">
+        <v>15</v>
+      </c>
+      <c r="E57" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F57" s="8">
+        <f t="shared" si="2"/>
+        <v>217962.21839177533</v>
+      </c>
+      <c r="H57" s="48">
+        <f t="shared" si="1"/>
+        <v>2178.6221839177533</v>
+      </c>
+      <c r="I57" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="1">
+        <v>56</v>
+      </c>
+      <c r="C58" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D58" s="11">
+        <v>15</v>
+      </c>
+      <c r="E58" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F58" s="8">
+        <f t="shared" si="2"/>
+        <v>250656.55115054164</v>
+      </c>
+      <c r="H58" s="48">
+        <f t="shared" si="1"/>
+        <v>2505.5655115054165</v>
+      </c>
+      <c r="I58" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="1">
+        <v>57</v>
+      </c>
+      <c r="C59" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D59" s="11">
+        <v>15</v>
+      </c>
+      <c r="E59" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F59" s="8">
+        <f t="shared" si="2"/>
+        <v>288255.03382312285</v>
+      </c>
+      <c r="H59" s="48">
+        <f t="shared" si="1"/>
+        <v>2881.5503382312286</v>
+      </c>
+      <c r="I59" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="1">
+        <v>58</v>
+      </c>
+      <c r="C60" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D60" s="11">
+        <v>15</v>
+      </c>
+      <c r="E60" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F60" s="8">
+        <f t="shared" si="2"/>
+        <v>331493.28889659129</v>
+      </c>
+      <c r="H60" s="48">
+        <f t="shared" si="1"/>
+        <v>3313.9328889659128</v>
+      </c>
+      <c r="I60" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="1">
+        <v>59</v>
+      </c>
+      <c r="C61" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D61" s="11">
+        <v>15</v>
+      </c>
+      <c r="E61" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F61" s="8">
+        <f t="shared" si="2"/>
+        <v>381217.28223108</v>
+      </c>
+      <c r="H61" s="48">
+        <f t="shared" si="1"/>
+        <v>3811.1728223107998</v>
+      </c>
+      <c r="I61" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="35">
+        <v>60</v>
+      </c>
+      <c r="C62" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="D62" s="41">
+        <v>15</v>
+      </c>
+      <c r="E62" s="47">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F62" s="57">
+        <f t="shared" si="2"/>
+        <v>438399.87456574198</v>
+      </c>
+      <c r="G62" s="45">
+        <f>F62-F3</f>
+        <v>438284.87456574198</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="45"/>
+      <c r="I89" s="51"/>
+      <c r="J89" s="54"/>
+    </row>
+    <row r="119" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="45"/>
+      <c r="I119" s="51"/>
+      <c r="J119" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10484,7 +12149,7 @@
   <dimension ref="B1:G183"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10500,11 +12165,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -12289,11 +13954,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14702,7 +16367,7 @@
   </sheetPr>
   <dimension ref="B1:I153"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -14721,11 +16386,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16363,11 +18028,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17316,11 +18981,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -18919,12 +20584,12 @@
       <c r="B86" s="1">
         <v>84</v>
       </c>
-      <c r="C86" s="62" t="s">
+      <c r="C86" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D86" s="63"/>
-      <c r="E86" s="63"/>
-      <c r="F86" s="64"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="64"/>
+      <c r="F86" s="65"/>
     </row>
     <row r="87" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B87" s="1">
@@ -18997,7 +20662,7 @@
   </sheetPr>
   <dimension ref="B1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C78" sqref="C78:F78"/>
     </sheetView>
   </sheetViews>
@@ -19012,11 +20677,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -20472,12 +22137,12 @@
       <c r="B78" s="1">
         <v>81</v>
       </c>
-      <c r="C78" s="65" t="s">
+      <c r="C78" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D78" s="66"/>
-      <c r="E78" s="66"/>
-      <c r="F78" s="67"/>
+      <c r="D78" s="67"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="68"/>
     </row>
     <row r="79" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B79" s="1">
@@ -20593,11 +22258,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -21196,12 +22861,12 @@
       <c r="B33" s="1">
         <v>31</v>
       </c>
-      <c r="C33" s="65" t="s">
+      <c r="C33" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="32"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -21759,11 +23424,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">

--- a/Profits Possibilities .xlsx
+++ b/Profits Possibilities .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2530A97C-9EF9-4DAE-B6F7-F997210BB060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4102D8-D488-4E13-B371-969DE639743F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reality lev 5" sheetId="11" r:id="rId1"/>
@@ -26,8 +26,12 @@
     <sheet name="Reality 4" sheetId="5" r:id="rId11"/>
     <sheet name="Reality 5" sheetId="8" r:id="rId12"/>
     <sheet name="Testing" sheetId="15" r:id="rId13"/>
-    <sheet name="Testing 2" sheetId="16" r:id="rId14"/>
-    <sheet name="Testing 3" sheetId="17" r:id="rId15"/>
+    <sheet name="Testing 3" sheetId="17" r:id="rId14"/>
+    <sheet name="Teating 4" sheetId="18" r:id="rId15"/>
+    <sheet name="M15 King" sheetId="19" r:id="rId16"/>
+    <sheet name="M1 Queen" sheetId="16" r:id="rId17"/>
+    <sheet name="M1 Qrazy Queen " sheetId="20" r:id="rId18"/>
+    <sheet name="M1 Qrazy Queen 2" sheetId="21" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="52">
   <si>
     <t>Day</t>
   </si>
@@ -161,6 +165,48 @@
   <si>
     <t>sayyid - masri helper</t>
   </si>
+  <si>
+    <t>Tony Cousin</t>
+  </si>
+  <si>
+    <t>Pere Marwan, Pere Jean Pierre</t>
+  </si>
+  <si>
+    <t>Dr Angela</t>
+  </si>
+  <si>
+    <t>Charbel AC</t>
+  </si>
+  <si>
+    <t>Carmel Sisters Harissa</t>
+  </si>
+  <si>
+    <t>Average Profit will be = 150,000$ per day</t>
+  </si>
+  <si>
+    <t>Average Profit will be = 100,000$ per day</t>
+  </si>
+  <si>
+    <t>Abdo khodra</t>
+  </si>
+  <si>
+    <t>Jose Work</t>
+  </si>
+  <si>
+    <t>Lello Cous France</t>
+  </si>
+  <si>
+    <t>Khalo Michel &amp; Rachid</t>
+  </si>
+  <si>
+    <t>Elias Group Patrick</t>
+  </si>
+  <si>
+    <t>Rouhana Group Patrick</t>
+  </si>
+  <si>
+    <t>Average Profit will be = 250,000$ per day</t>
+  </si>
 </sst>
 </file>
 
@@ -169,7 +215,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -283,8 +329,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,8 +393,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -409,11 +475,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -576,6 +651,30 @@
     <xf numFmtId="1" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -609,8 +708,14 @@
     <xf numFmtId="10" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -947,7 +1052,7 @@
     <col min="8" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="61" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1" spans="2:6" s="69" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -2688,13 +2793,13 @@
       </c>
     </row>
     <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="58" t="s">
+      <c r="B93" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C93" s="59"/>
-      <c r="D93" s="59"/>
-      <c r="E93" s="59"/>
-      <c r="F93" s="60"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="67"/>
+      <c r="E93" s="67"/>
+      <c r="F93" s="68"/>
     </row>
     <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="43">
@@ -4435,7 +4540,7 @@
   </sheetPr>
   <dimension ref="B1:F86"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C45" sqref="C45:F45"/>
     </sheetView>
   </sheetViews>
@@ -4451,11 +4556,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -5276,12 +5381,12 @@
       <c r="B45" s="1">
         <v>49</v>
       </c>
-      <c r="C45" s="63" t="s">
+      <c r="C45" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="65"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="73"/>
     </row>
     <row r="46" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" s="1">
@@ -5685,11 +5790,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -6919,12 +7024,12 @@
       <c r="B66" s="1">
         <v>64</v>
       </c>
-      <c r="C66" s="66" t="s">
+      <c r="C66" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="68"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="76"/>
       <c r="G66" s="32"/>
     </row>
     <row r="67" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -7178,7 +7283,7 @@
   </sheetPr>
   <dimension ref="B1:F82"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
@@ -7194,11 +7299,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -8228,12 +8333,12 @@
       <c r="B56" s="1">
         <v>64</v>
       </c>
-      <c r="C56" s="66" t="s">
+      <c r="C56" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="68"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="76"/>
     </row>
     <row r="57" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B57" s="1">
@@ -8486,8 +8591,8 @@
   </sheetPr>
   <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8506,11 +8611,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9115,7 +9220,7 @@
       <c r="I22" s="52">
         <v>1200</v>
       </c>
-      <c r="J22" s="69" t="s">
+      <c r="J22" s="77" t="s">
         <v>32</v>
       </c>
     </row>
@@ -9144,7 +9249,7 @@
       <c r="I23" s="52">
         <v>1200</v>
       </c>
-      <c r="J23" s="69"/>
+      <c r="J23" s="77"/>
     </row>
     <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
@@ -9171,7 +9276,7 @@
       <c r="I24" s="52">
         <v>1200</v>
       </c>
-      <c r="J24" s="69"/>
+      <c r="J24" s="77"/>
     </row>
     <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
@@ -9285,6 +9390,9 @@
       <c r="I28" s="52">
         <v>1200</v>
       </c>
+      <c r="J28" s="53" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="29" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
@@ -9311,6 +9419,9 @@
       <c r="I29" s="52">
         <v>1200</v>
       </c>
+      <c r="J29" s="53" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="30" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
@@ -9337,6 +9448,9 @@
       <c r="I30" s="52">
         <v>1200</v>
       </c>
+      <c r="J30" s="53" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="31" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1">
@@ -9363,6 +9477,9 @@
       <c r="I31" s="52">
         <v>1200</v>
       </c>
+      <c r="J31" s="53" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="32" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
@@ -9389,8 +9506,11 @@
       <c r="I32" s="52">
         <v>1200</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J32" s="53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>31</v>
       </c>
@@ -9415,8 +9535,11 @@
       <c r="I33" s="52">
         <v>1200</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J33" s="53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>32</v>
       </c>
@@ -9441,8 +9564,11 @@
       <c r="I34" s="52">
         <v>1200</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J34" s="53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="35">
         <v>33</v>
       </c>
@@ -9471,9 +9597,25 @@
       <c r="I35" s="52">
         <v>1200</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J35" s="53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J36" s="53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F37" s="32"/>
+      <c r="J37" s="53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J38" s="53" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="66" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
@@ -9519,14 +9661,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B532F46-1B5F-4042-8DB6-0517EDD3C71B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2B8F3F-4BA4-490A-8122-1BD5198EC4CD}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J126"/>
+  <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9545,11 +9687,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9580,22 +9722,22 @@
         <v>1</v>
       </c>
       <c r="C3" s="23">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D3" s="11">
         <v>15</v>
       </c>
       <c r="E3" s="27">
         <f>C3*D3</f>
-        <v>0.44999999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="F3" s="8">
         <f>100+(100*E3)</f>
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="H3" s="48">
         <f>(F3-I2)/I2</f>
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="I3" s="52">
         <v>100</v>
@@ -9606,22 +9748,22 @@
         <v>2</v>
       </c>
       <c r="C4" s="23">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D4" s="11">
         <v>15</v>
       </c>
       <c r="E4" s="27">
         <f t="shared" ref="E4:E35" si="0">C4*D4</f>
-        <v>0.44999999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="F4" s="8">
         <f>F3+(F3*E4)</f>
-        <v>210.25</v>
+        <v>132.25</v>
       </c>
       <c r="H4" s="48">
-        <f t="shared" ref="H4:H35" si="1">(F4-I3)/I3</f>
-        <v>1.1025</v>
+        <f t="shared" ref="H4:H61" si="1">(F4-I3)/I3</f>
+        <v>0.32250000000000001</v>
       </c>
       <c r="I4" s="52">
         <v>100</v>
@@ -9632,22 +9774,22 @@
         <v>3</v>
       </c>
       <c r="C5" s="23">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D5" s="11">
         <v>15</v>
       </c>
       <c r="E5" s="27">
         <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="F5" s="8">
         <f>F4+(F4*E5)</f>
-        <v>304.86250000000001</v>
+        <v>152.08750000000001</v>
       </c>
       <c r="H5" s="48">
         <f t="shared" si="1"/>
-        <v>2.0486249999999999</v>
+        <v>0.52087500000000009</v>
       </c>
       <c r="I5" s="52">
         <v>100</v>
@@ -9658,22 +9800,22 @@
         <v>4</v>
       </c>
       <c r="C6" s="23">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D6" s="11">
         <v>15</v>
       </c>
       <c r="E6" s="27">
         <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="F6" s="8">
         <f>F5+(F5*E6)</f>
-        <v>442.05062499999997</v>
+        <v>174.90062499999999</v>
       </c>
       <c r="H6" s="48">
         <f t="shared" si="1"/>
-        <v>3.4205062499999999</v>
+        <v>0.74900624999999987</v>
       </c>
       <c r="I6" s="52">
         <v>100</v>
@@ -9684,22 +9826,22 @@
         <v>5</v>
       </c>
       <c r="C7" s="23">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D7" s="11">
         <v>15</v>
       </c>
       <c r="E7" s="27">
         <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" ref="F7:F35" si="2">F6+(F6*E7)</f>
-        <v>640.97340624999993</v>
+        <f t="shared" ref="F7:F62" si="2">F6+(F6*E7)</f>
+        <v>201.13571875</v>
       </c>
       <c r="H7" s="48">
         <f t="shared" si="1"/>
-        <v>5.4097340624999992</v>
+        <v>1.0113571875</v>
       </c>
       <c r="I7" s="52">
         <v>100</v>
@@ -9710,22 +9852,22 @@
         <v>6</v>
       </c>
       <c r="C8" s="23">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D8" s="11">
         <v>15</v>
       </c>
       <c r="E8" s="27">
         <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" si="2"/>
-        <v>929.41143906249988</v>
+        <v>231.30607656249998</v>
       </c>
       <c r="H8" s="48">
         <f t="shared" si="1"/>
-        <v>8.2941143906249994</v>
+        <v>1.3130607656249997</v>
       </c>
       <c r="I8" s="52">
         <v>100</v>
@@ -9736,22 +9878,22 @@
         <v>7</v>
       </c>
       <c r="C9" s="26">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D9" s="12">
         <v>15</v>
       </c>
       <c r="E9" s="28">
         <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" si="2"/>
-        <v>1347.6465866406247</v>
+        <v>266.001988046875</v>
       </c>
       <c r="H9" s="50">
         <f t="shared" si="1"/>
-        <v>12.476465866406247</v>
+        <v>1.66001988046875</v>
       </c>
       <c r="I9" s="52">
         <v>100</v>
@@ -9762,22 +9904,22 @@
         <v>8</v>
       </c>
       <c r="C10" s="23">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D10" s="11">
         <v>15</v>
       </c>
       <c r="E10" s="27">
         <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="2"/>
-        <v>1954.0875506289058</v>
+        <v>305.90228625390625</v>
       </c>
       <c r="H10" s="48">
         <f t="shared" si="1"/>
-        <v>18.540875506289058</v>
+        <v>2.0590228625390625</v>
       </c>
       <c r="I10" s="52">
         <v>100</v>
@@ -9788,22 +9930,22 @@
         <v>9</v>
       </c>
       <c r="C11" s="23">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D11" s="11">
         <v>15</v>
       </c>
       <c r="E11" s="27">
         <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="2"/>
-        <v>2833.4269484119131</v>
+        <v>351.78762919199221</v>
       </c>
       <c r="H11" s="48">
         <f t="shared" si="1"/>
-        <v>27.334269484119133</v>
+        <v>2.5178762919199222</v>
       </c>
       <c r="I11" s="52">
         <v>100</v>
@@ -9814,22 +9956,22 @@
         <v>10</v>
       </c>
       <c r="C12" s="23">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D12" s="11">
         <v>15</v>
       </c>
       <c r="E12" s="27">
         <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" si="2"/>
-        <v>4108.4690751972739</v>
+        <v>404.55577357079102</v>
       </c>
       <c r="H12" s="48">
         <f t="shared" si="1"/>
-        <v>40.084690751972737</v>
+        <v>3.0455577357079102</v>
       </c>
       <c r="I12" s="52">
         <v>100</v>
@@ -9840,22 +9982,22 @@
         <v>11</v>
       </c>
       <c r="C13" s="23">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D13" s="11">
         <v>15</v>
       </c>
       <c r="E13" s="27">
         <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="2"/>
-        <v>5957.2801590360468</v>
+        <v>465.23913960640965</v>
       </c>
       <c r="H13" s="48">
         <f t="shared" si="1"/>
-        <v>58.57280159036047</v>
+        <v>3.6523913960640964</v>
       </c>
       <c r="I13" s="52">
         <v>100</v>
@@ -9866,22 +10008,22 @@
         <v>12</v>
       </c>
       <c r="C14" s="23">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D14" s="11">
         <v>15</v>
       </c>
       <c r="E14" s="27">
         <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" si="2"/>
-        <v>8638.0562306022675</v>
+        <v>535.02501054737104</v>
       </c>
       <c r="H14" s="48">
         <f t="shared" si="1"/>
-        <v>85.380562306022682</v>
+        <v>4.3502501054737106</v>
       </c>
       <c r="I14" s="52">
         <v>100</v>
@@ -9892,22 +10034,22 @@
         <v>13</v>
       </c>
       <c r="C15" s="23">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D15" s="11">
         <v>15</v>
       </c>
       <c r="E15" s="27">
         <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="2"/>
-        <v>12525.181534373287</v>
+        <v>615.27876212947672</v>
       </c>
       <c r="H15" s="48">
         <f t="shared" si="1"/>
-        <v>124.25181534373287</v>
+        <v>5.1527876212947668</v>
       </c>
       <c r="I15" s="52">
         <v>100</v>
@@ -9918,22 +10060,22 @@
         <v>14</v>
       </c>
       <c r="C16" s="26">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D16" s="12">
         <v>15</v>
       </c>
       <c r="E16" s="28">
         <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="F16" s="12">
         <f t="shared" si="2"/>
-        <v>18161.513224841266</v>
+        <v>707.57057644889824</v>
       </c>
       <c r="H16" s="50">
         <f t="shared" si="1"/>
-        <v>180.61513224841266</v>
+        <v>6.0757057644889825</v>
       </c>
       <c r="I16" s="52">
         <v>100</v>
@@ -9944,22 +10086,22 @@
         <v>15</v>
       </c>
       <c r="C17" s="23">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D17" s="11">
         <v>15</v>
       </c>
       <c r="E17" s="27">
         <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" si="2"/>
-        <v>26334.194176019835</v>
+        <v>813.70616291623298</v>
       </c>
       <c r="H17" s="48">
         <f t="shared" si="1"/>
-        <v>262.34194176019832</v>
+        <v>7.1370616291623294</v>
       </c>
       <c r="I17" s="52">
         <v>100</v>
@@ -9970,22 +10112,22 @@
         <v>16</v>
       </c>
       <c r="C18" s="23">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D18" s="11">
         <v>15</v>
       </c>
       <c r="E18" s="27">
         <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" si="2"/>
-        <v>38184.58155522876</v>
+        <v>935.76208735366788</v>
       </c>
       <c r="H18" s="48">
         <f t="shared" si="1"/>
-        <v>380.8458155522876</v>
+        <v>8.3576208735366784</v>
       </c>
       <c r="I18" s="52">
         <v>100</v>
@@ -9996,22 +10138,22 @@
         <v>17</v>
       </c>
       <c r="C19" s="23">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D19" s="11">
         <v>15</v>
       </c>
       <c r="E19" s="27">
         <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" si="2"/>
-        <v>55367.643255081697</v>
+        <v>1076.1264004567181</v>
       </c>
       <c r="H19" s="48">
         <f t="shared" si="1"/>
-        <v>552.67643255081703</v>
+        <v>9.761264004567181</v>
       </c>
       <c r="I19" s="52">
         <v>100</v>
@@ -10022,22 +10164,22 @@
         <v>18</v>
       </c>
       <c r="C20" s="23">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D20" s="11">
         <v>15</v>
       </c>
       <c r="E20" s="27">
         <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" si="2"/>
-        <v>80283.082719868456</v>
+        <v>1237.5453605252258</v>
       </c>
       <c r="H20" s="48">
         <f t="shared" si="1"/>
-        <v>801.83082719868457</v>
+        <v>11.375453605252257</v>
       </c>
       <c r="I20" s="52">
         <v>100</v>
@@ -10048,22 +10190,22 @@
         <v>19</v>
       </c>
       <c r="C21" s="23">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D21" s="11">
         <v>15</v>
       </c>
       <c r="E21" s="27">
         <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" si="2"/>
-        <v>116410.46994380926</v>
+        <v>1423.1771646040097</v>
       </c>
       <c r="H21" s="48">
         <f t="shared" si="1"/>
-        <v>1163.1046994380927</v>
+        <v>13.231771646040096</v>
       </c>
       <c r="I21" s="52">
         <v>100</v>
@@ -10074,103 +10216,103 @@
         <v>20</v>
       </c>
       <c r="C22" s="23">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D22" s="11">
         <v>15</v>
       </c>
       <c r="E22" s="27">
         <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" si="2"/>
-        <v>168795.18141852343</v>
+        <v>1636.6537392946111</v>
       </c>
       <c r="H22" s="48">
         <f t="shared" si="1"/>
-        <v>1686.9518141852343</v>
+        <v>15.36653739294611</v>
       </c>
       <c r="I22" s="52">
         <v>100</v>
       </c>
-      <c r="J22" s="69"/>
+      <c r="J22" s="78"/>
     </row>
     <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="6">
         <v>21</v>
       </c>
       <c r="C23" s="26">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D23" s="12">
         <v>15</v>
       </c>
       <c r="E23" s="28">
         <f t="shared" si="0"/>
-        <v>0.44999999999999996</v>
+        <v>0.15</v>
       </c>
       <c r="F23" s="12">
         <f t="shared" si="2"/>
-        <v>244753.01305685897</v>
+        <v>1882.1518001888028</v>
       </c>
       <c r="H23" s="50">
         <f t="shared" si="1"/>
-        <v>2446.5301305685898</v>
+        <v>17.821518001888027</v>
       </c>
       <c r="I23" s="52">
         <v>100</v>
       </c>
-      <c r="J23" s="69"/>
+      <c r="J23" s="78"/>
     </row>
     <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
         <v>22</v>
       </c>
       <c r="C24" s="23">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D24" s="11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E24" s="27">
         <f t="shared" si="0"/>
-        <v>0.36</v>
+        <v>0.15</v>
       </c>
       <c r="F24" s="8">
         <f t="shared" si="2"/>
-        <v>332864.09775732819</v>
+        <v>2164.4745702171231</v>
       </c>
       <c r="H24" s="48">
         <f t="shared" si="1"/>
-        <v>3327.6409775732818</v>
+        <v>20.644745702171232</v>
       </c>
       <c r="I24" s="52">
         <v>100</v>
       </c>
-      <c r="J24" s="69"/>
+      <c r="J24" s="78"/>
     </row>
     <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>23</v>
       </c>
       <c r="C25" s="23">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D25" s="11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E25" s="27">
         <f t="shared" si="0"/>
-        <v>0.36</v>
+        <v>0.15</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" si="2"/>
-        <v>452695.17294996633</v>
+        <v>2489.1457557496915</v>
       </c>
       <c r="H25" s="48">
         <f t="shared" si="1"/>
-        <v>4525.9517294996631</v>
+        <v>23.891457557496913</v>
       </c>
       <c r="I25" s="52">
         <v>100</v>
@@ -10181,22 +10323,22 @@
         <v>24</v>
       </c>
       <c r="C26" s="23">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D26" s="11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E26" s="27">
         <f t="shared" si="0"/>
-        <v>0.36</v>
+        <v>0.15</v>
       </c>
       <c r="F26" s="8">
         <f t="shared" si="2"/>
-        <v>615665.43521195417</v>
+        <v>2862.5176191121454</v>
       </c>
       <c r="H26" s="48">
         <f t="shared" si="1"/>
-        <v>6155.6543521195417</v>
+        <v>27.625176191121454</v>
       </c>
       <c r="I26" s="52">
         <v>100</v>
@@ -10207,22 +10349,22 @@
         <v>25</v>
       </c>
       <c r="C27" s="23">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D27" s="11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E27" s="27">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="F27" s="8">
         <f t="shared" si="2"/>
-        <v>800365.06577554042</v>
+        <v>3291.895261978967</v>
       </c>
       <c r="H27" s="48">
         <f t="shared" si="1"/>
-        <v>8002.6506577554046</v>
+        <v>31.918952619789671</v>
       </c>
       <c r="I27" s="52">
         <v>100</v>
@@ -10233,22 +10375,22 @@
         <v>26</v>
       </c>
       <c r="C28" s="23">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D28" s="11">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E28" s="27">
         <f t="shared" si="0"/>
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="F28" s="8">
         <f t="shared" si="2"/>
-        <v>968441.72958840395</v>
+        <v>3785.6795512758122</v>
       </c>
       <c r="H28" s="48">
         <f t="shared" si="1"/>
-        <v>9683.417295884039</v>
+        <v>36.856795512758119</v>
       </c>
       <c r="I28" s="52">
         <v>100</v>
@@ -10259,22 +10401,22 @@
         <v>27</v>
       </c>
       <c r="C29" s="23">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D29" s="11">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E29" s="27">
         <f t="shared" si="0"/>
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="F29" s="8">
         <f t="shared" si="2"/>
-        <v>1142761.2409143166</v>
+        <v>4353.5314839671837</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="1"/>
-        <v>11426.612409143167</v>
+        <v>42.535314839671834</v>
       </c>
       <c r="I29" s="52">
         <v>100</v>
@@ -10285,10 +10427,10 @@
         <v>28</v>
       </c>
       <c r="C30" s="23">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D30" s="11">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E30" s="27">
         <f t="shared" si="0"/>
@@ -10296,11 +10438,11 @@
       </c>
       <c r="F30" s="8">
         <f t="shared" si="2"/>
-        <v>1314175.4270514641</v>
+        <v>5006.5612065622608</v>
       </c>
       <c r="H30" s="48">
         <f t="shared" si="1"/>
-        <v>13140.754270514641</v>
+        <v>49.065612065622609</v>
       </c>
       <c r="I30" s="52">
         <v>100</v>
@@ -10311,22 +10453,22 @@
         <v>29</v>
       </c>
       <c r="C31" s="23">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D31" s="11">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E31" s="27">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="F31" s="8">
         <f t="shared" si="2"/>
-        <v>1471876.4782976399</v>
+        <v>5757.5453875466001</v>
       </c>
       <c r="H31" s="48">
         <f t="shared" si="1"/>
-        <v>14717.764782976399</v>
+        <v>56.575453875466003</v>
       </c>
       <c r="I31" s="52">
         <v>100</v>
@@ -10337,144 +10479,831 @@
         <v>30</v>
       </c>
       <c r="C32" s="23">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D32" s="11">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E32" s="27">
         <f t="shared" si="0"/>
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="F32" s="8">
         <f t="shared" si="2"/>
-        <v>1604345.3613444273</v>
+        <v>6621.1771956785897</v>
       </c>
       <c r="H32" s="48">
         <f t="shared" si="1"/>
-        <v>16042.453613444273</v>
+        <v>65.211771956785896</v>
       </c>
       <c r="I32" s="52">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>31</v>
       </c>
       <c r="C33" s="23">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D33" s="11">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E33" s="27">
         <f t="shared" si="0"/>
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="F33" s="8">
         <f t="shared" si="2"/>
-        <v>1748736.4438654259</v>
+        <v>7614.3537750303785</v>
       </c>
       <c r="H33" s="48">
         <f t="shared" si="1"/>
-        <v>17486.364438654258</v>
+        <v>75.143537750303778</v>
       </c>
       <c r="I33" s="52">
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>32</v>
       </c>
       <c r="C34" s="23">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D34" s="11">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E34" s="27">
         <f t="shared" si="0"/>
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="F34" s="8">
         <f t="shared" si="2"/>
-        <v>1906122.7238133142</v>
+        <v>8756.5068412849359</v>
       </c>
       <c r="H34" s="48">
         <f t="shared" si="1"/>
-        <v>19060.227238133142</v>
+        <v>86.565068412849357</v>
       </c>
       <c r="I34" s="52">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="35">
         <v>33</v>
       </c>
       <c r="C35" s="42">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="D35" s="41">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E35" s="38">
         <f t="shared" si="0"/>
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="F35" s="39">
         <f t="shared" si="2"/>
-        <v>2077673.7689565124</v>
+        <v>10069.982867477676</v>
       </c>
       <c r="G35" s="45">
         <f t="shared" ref="G35" si="3">F35-F6</f>
-        <v>2077231.7183315125</v>
+        <v>9895.0822424776761</v>
       </c>
       <c r="H35" s="50">
         <f t="shared" si="1"/>
-        <v>20775.737689565125</v>
+        <v>99.699828674776768</v>
       </c>
       <c r="I35" s="52">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F37" s="32"/>
-    </row>
-    <row r="66" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="45"/>
-      <c r="I66" s="51"/>
-      <c r="J66" s="54"/>
-    </row>
-    <row r="96" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="45"/>
-      <c r="I96" s="51"/>
-      <c r="J96" s="54"/>
-    </row>
-    <row r="126" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="45"/>
-      <c r="I126" s="51"/>
-      <c r="J126" s="54"/>
+    <row r="36" spans="1:9" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1">
+        <v>34</v>
+      </c>
+      <c r="C36" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D36" s="11">
+        <v>15</v>
+      </c>
+      <c r="E36" s="27">
+        <f>C36*D36</f>
+        <v>0.15</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" si="2"/>
+        <v>11580.480297599328</v>
+      </c>
+      <c r="G36" s="44"/>
+      <c r="H36" s="48">
+        <f t="shared" si="1"/>
+        <v>114.80480297599328</v>
+      </c>
+      <c r="I36" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="1">
+        <v>35</v>
+      </c>
+      <c r="C37" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D37" s="11">
+        <v>15</v>
+      </c>
+      <c r="E37" s="27">
+        <f t="shared" ref="E37:E62" si="4">C37*D37</f>
+        <v>0.15</v>
+      </c>
+      <c r="F37" s="8">
+        <f t="shared" si="2"/>
+        <v>13317.552342239227</v>
+      </c>
+      <c r="H37" s="48">
+        <f t="shared" si="1"/>
+        <v>132.17552342239227</v>
+      </c>
+      <c r="I37" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="1">
+        <v>36</v>
+      </c>
+      <c r="C38" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D38" s="11">
+        <v>15</v>
+      </c>
+      <c r="E38" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" si="2"/>
+        <v>15315.185193575111</v>
+      </c>
+      <c r="H38" s="48">
+        <f t="shared" si="1"/>
+        <v>152.1518519357511</v>
+      </c>
+      <c r="I38" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="1">
+        <v>37</v>
+      </c>
+      <c r="C39" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D39" s="11">
+        <v>15</v>
+      </c>
+      <c r="E39" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F39" s="8">
+        <f t="shared" si="2"/>
+        <v>17612.462972611378</v>
+      </c>
+      <c r="H39" s="48">
+        <f t="shared" si="1"/>
+        <v>175.12462972611377</v>
+      </c>
+      <c r="I39" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="1">
+        <v>38</v>
+      </c>
+      <c r="C40" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D40" s="11">
+        <v>15</v>
+      </c>
+      <c r="E40" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F40" s="8">
+        <f t="shared" si="2"/>
+        <v>20254.332418503083</v>
+      </c>
+      <c r="H40" s="48">
+        <f t="shared" si="1"/>
+        <v>201.54332418503083</v>
+      </c>
+      <c r="I40" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1">
+        <v>39</v>
+      </c>
+      <c r="C41" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D41" s="11">
+        <v>15</v>
+      </c>
+      <c r="E41" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" si="2"/>
+        <v>23292.482281278546</v>
+      </c>
+      <c r="H41" s="48">
+        <f t="shared" si="1"/>
+        <v>231.92482281278546</v>
+      </c>
+      <c r="I41" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="6">
+        <v>40</v>
+      </c>
+      <c r="C42" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="D42" s="12">
+        <v>15</v>
+      </c>
+      <c r="E42" s="28">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F42" s="10">
+        <f t="shared" si="2"/>
+        <v>26786.354623470328</v>
+      </c>
+      <c r="H42" s="48">
+        <f t="shared" si="1"/>
+        <v>266.86354623470328</v>
+      </c>
+      <c r="I42" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1">
+        <v>41</v>
+      </c>
+      <c r="C43" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D43" s="11">
+        <v>15</v>
+      </c>
+      <c r="E43" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F43" s="8">
+        <f t="shared" si="2"/>
+        <v>30804.307816990877</v>
+      </c>
+      <c r="H43" s="48">
+        <f t="shared" si="1"/>
+        <v>307.04307816990877</v>
+      </c>
+      <c r="I43" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="1">
+        <v>42</v>
+      </c>
+      <c r="C44" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D44" s="11">
+        <v>15</v>
+      </c>
+      <c r="E44" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F44" s="8">
+        <f t="shared" si="2"/>
+        <v>35424.953989539506</v>
+      </c>
+      <c r="H44" s="48">
+        <f t="shared" si="1"/>
+        <v>353.24953989539506</v>
+      </c>
+      <c r="I44" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="1">
+        <v>43</v>
+      </c>
+      <c r="C45" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D45" s="11">
+        <v>15</v>
+      </c>
+      <c r="E45" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F45" s="8">
+        <f t="shared" si="2"/>
+        <v>40738.697087970431</v>
+      </c>
+      <c r="H45" s="48">
+        <f t="shared" si="1"/>
+        <v>406.38697087970434</v>
+      </c>
+      <c r="I45" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="1">
+        <v>44</v>
+      </c>
+      <c r="C46" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D46" s="11">
+        <v>15</v>
+      </c>
+      <c r="E46" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F46" s="8">
+        <f t="shared" si="2"/>
+        <v>46849.501651165992</v>
+      </c>
+      <c r="H46" s="48">
+        <f t="shared" si="1"/>
+        <v>467.49501651165991</v>
+      </c>
+      <c r="I46" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="1">
+        <v>45</v>
+      </c>
+      <c r="C47" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D47" s="11">
+        <v>15</v>
+      </c>
+      <c r="E47" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F47" s="8">
+        <f t="shared" si="2"/>
+        <v>53876.926898840888</v>
+      </c>
+      <c r="H47" s="48">
+        <f t="shared" si="1"/>
+        <v>537.76926898840884</v>
+      </c>
+      <c r="I47" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="1">
+        <v>46</v>
+      </c>
+      <c r="C48" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D48" s="11">
+        <v>15</v>
+      </c>
+      <c r="E48" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F48" s="8">
+        <f t="shared" si="2"/>
+        <v>61958.465933667023</v>
+      </c>
+      <c r="H48" s="48">
+        <f t="shared" si="1"/>
+        <v>618.58465933667026</v>
+      </c>
+      <c r="I48" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="6">
+        <v>47</v>
+      </c>
+      <c r="C49" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="D49" s="12">
+        <v>15</v>
+      </c>
+      <c r="E49" s="28">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F49" s="10">
+        <f t="shared" si="2"/>
+        <v>71252.23582371707</v>
+      </c>
+      <c r="H49" s="48">
+        <f t="shared" si="1"/>
+        <v>711.52235823717069</v>
+      </c>
+      <c r="I49" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="1">
+        <v>48</v>
+      </c>
+      <c r="C50" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D50" s="11">
+        <v>15</v>
+      </c>
+      <c r="E50" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F50" s="8">
+        <f t="shared" si="2"/>
+        <v>81940.071197274636</v>
+      </c>
+      <c r="H50" s="48">
+        <f t="shared" si="1"/>
+        <v>818.40071197274631</v>
+      </c>
+      <c r="I50" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="1">
+        <v>49</v>
+      </c>
+      <c r="C51" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D51" s="11">
+        <v>15</v>
+      </c>
+      <c r="E51" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F51" s="8">
+        <f t="shared" si="2"/>
+        <v>94231.081876865836</v>
+      </c>
+      <c r="H51" s="48">
+        <f t="shared" si="1"/>
+        <v>941.31081876865835</v>
+      </c>
+      <c r="I51" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="1">
+        <v>50</v>
+      </c>
+      <c r="C52" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D52" s="11">
+        <v>15</v>
+      </c>
+      <c r="E52" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F52" s="8">
+        <f t="shared" si="2"/>
+        <v>108365.74415839571</v>
+      </c>
+      <c r="H52" s="48">
+        <f t="shared" si="1"/>
+        <v>1082.6574415839571</v>
+      </c>
+      <c r="I52" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="1">
+        <v>51</v>
+      </c>
+      <c r="C53" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D53" s="11">
+        <v>15</v>
+      </c>
+      <c r="E53" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F53" s="8">
+        <f t="shared" si="2"/>
+        <v>124620.60578215506</v>
+      </c>
+      <c r="H53" s="48">
+        <f t="shared" si="1"/>
+        <v>1245.2060578215505</v>
+      </c>
+      <c r="I53" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="1">
+        <v>52</v>
+      </c>
+      <c r="C54" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D54" s="11">
+        <v>15</v>
+      </c>
+      <c r="E54" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F54" s="8">
+        <f t="shared" si="2"/>
+        <v>143313.69664947831</v>
+      </c>
+      <c r="H54" s="48">
+        <f t="shared" si="1"/>
+        <v>1432.1369664947831</v>
+      </c>
+      <c r="I54" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="1">
+        <v>53</v>
+      </c>
+      <c r="C55" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D55" s="11">
+        <v>15</v>
+      </c>
+      <c r="E55" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F55" s="8">
+        <f t="shared" si="2"/>
+        <v>164810.75114690006</v>
+      </c>
+      <c r="H55" s="48">
+        <f t="shared" si="1"/>
+        <v>1647.1075114690007</v>
+      </c>
+      <c r="I55" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="6">
+        <v>54</v>
+      </c>
+      <c r="C56" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="D56" s="12">
+        <v>15</v>
+      </c>
+      <c r="E56" s="28">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F56" s="10">
+        <f t="shared" si="2"/>
+        <v>189532.36381893506</v>
+      </c>
+      <c r="H56" s="48">
+        <f t="shared" si="1"/>
+        <v>1894.3236381893505</v>
+      </c>
+      <c r="I56" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="1">
+        <v>55</v>
+      </c>
+      <c r="C57" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D57" s="11">
+        <v>15</v>
+      </c>
+      <c r="E57" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F57" s="8">
+        <f t="shared" si="2"/>
+        <v>217962.21839177533</v>
+      </c>
+      <c r="H57" s="48">
+        <f t="shared" si="1"/>
+        <v>2178.6221839177533</v>
+      </c>
+      <c r="I57" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="1">
+        <v>56</v>
+      </c>
+      <c r="C58" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D58" s="11">
+        <v>15</v>
+      </c>
+      <c r="E58" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F58" s="8">
+        <f t="shared" si="2"/>
+        <v>250656.55115054164</v>
+      </c>
+      <c r="H58" s="48">
+        <f t="shared" si="1"/>
+        <v>2505.5655115054165</v>
+      </c>
+      <c r="I58" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="1">
+        <v>57</v>
+      </c>
+      <c r="C59" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D59" s="11">
+        <v>15</v>
+      </c>
+      <c r="E59" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F59" s="8">
+        <f t="shared" si="2"/>
+        <v>288255.03382312285</v>
+      </c>
+      <c r="H59" s="48">
+        <f t="shared" si="1"/>
+        <v>2881.5503382312286</v>
+      </c>
+      <c r="I59" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="1">
+        <v>58</v>
+      </c>
+      <c r="C60" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D60" s="11">
+        <v>15</v>
+      </c>
+      <c r="E60" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F60" s="8">
+        <f t="shared" si="2"/>
+        <v>331493.28889659129</v>
+      </c>
+      <c r="H60" s="48">
+        <f t="shared" si="1"/>
+        <v>3313.9328889659128</v>
+      </c>
+      <c r="I60" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="1">
+        <v>59</v>
+      </c>
+      <c r="C61" s="23">
+        <v>0.01</v>
+      </c>
+      <c r="D61" s="11">
+        <v>15</v>
+      </c>
+      <c r="E61" s="27">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F61" s="8">
+        <f t="shared" si="2"/>
+        <v>381217.28223108</v>
+      </c>
+      <c r="H61" s="48">
+        <f t="shared" si="1"/>
+        <v>3811.1728223107998</v>
+      </c>
+      <c r="I61" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="35">
+        <v>60</v>
+      </c>
+      <c r="C62" s="42">
+        <v>0.01</v>
+      </c>
+      <c r="D62" s="41">
+        <v>15</v>
+      </c>
+      <c r="E62" s="47">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="F62" s="57">
+        <f t="shared" si="2"/>
+        <v>438399.87456574198</v>
+      </c>
+      <c r="G62" s="45">
+        <f>F62-F3</f>
+        <v>438284.87456574198</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="45"/>
+      <c r="I89" s="51"/>
+      <c r="J89" s="54"/>
+    </row>
+    <row r="119" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="45"/>
+      <c r="I119" s="51"/>
+      <c r="J119" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10487,14 +11316,3149 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2B8F3F-4BA4-490A-8122-1BD5198EC4CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8CBA1E-72B0-49B6-A5BB-7231040F25A5}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="44" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="48"/>
+    <col min="9" max="9" width="14.42578125" style="51"/>
+    <col min="10" max="10" width="72.7109375" style="53" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D3" s="11">
+        <v>12</v>
+      </c>
+      <c r="E3" s="27">
+        <f>C3*D3</f>
+        <v>0.24</v>
+      </c>
+      <c r="F3" s="8">
+        <f>1500+(1500*E3)</f>
+        <v>1860</v>
+      </c>
+      <c r="H3" s="48">
+        <f>(F3-I2)/I2</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="I3" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D4" s="11">
+        <v>12</v>
+      </c>
+      <c r="E4" s="27">
+        <f t="shared" ref="E4:E35" si="0">C4*D4</f>
+        <v>0.24</v>
+      </c>
+      <c r="F4" s="8">
+        <f>F3+(F3*E4)</f>
+        <v>2306.4</v>
+      </c>
+      <c r="H4" s="48">
+        <f t="shared" ref="H4:H61" si="1">(F4-I3)/I3</f>
+        <v>22.064</v>
+      </c>
+      <c r="I4" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D5" s="11">
+        <v>12</v>
+      </c>
+      <c r="E5" s="27">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="F5" s="8">
+        <f>F4+(F4*E5)</f>
+        <v>2859.9360000000001</v>
+      </c>
+      <c r="H5" s="48">
+        <f t="shared" si="1"/>
+        <v>27.599360000000001</v>
+      </c>
+      <c r="I5" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D6" s="11">
+        <v>12</v>
+      </c>
+      <c r="E6" s="27">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="F6" s="8">
+        <f>F5+(F5*E6)</f>
+        <v>3546.3206399999999</v>
+      </c>
+      <c r="H6" s="48">
+        <f t="shared" si="1"/>
+        <v>34.463206399999997</v>
+      </c>
+      <c r="I6" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D7" s="11">
+        <v>12</v>
+      </c>
+      <c r="E7" s="27">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" ref="F7:F62" si="2">F6+(F6*E7)</f>
+        <v>4397.4375935999997</v>
+      </c>
+      <c r="H7" s="48">
+        <f t="shared" si="1"/>
+        <v>42.974375935999994</v>
+      </c>
+      <c r="I7" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D8" s="11">
+        <v>12</v>
+      </c>
+      <c r="E8" s="27">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="2"/>
+        <v>5452.8226160639997</v>
+      </c>
+      <c r="H8" s="48">
+        <f t="shared" si="1"/>
+        <v>53.528226160639996</v>
+      </c>
+      <c r="I8" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="58">
+        <v>7</v>
+      </c>
+      <c r="C9" s="59">
+        <v>0.02</v>
+      </c>
+      <c r="D9" s="60">
+        <v>12</v>
+      </c>
+      <c r="E9" s="61">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="F9" s="60">
+        <f t="shared" si="2"/>
+        <v>6761.5000439193591</v>
+      </c>
+      <c r="H9" s="50">
+        <f t="shared" si="1"/>
+        <v>66.615000439193594</v>
+      </c>
+      <c r="I9" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D10" s="11">
+        <v>12</v>
+      </c>
+      <c r="E10" s="27">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="2"/>
+        <v>8384.2600544600045</v>
+      </c>
+      <c r="H10" s="48">
+        <f t="shared" si="1"/>
+        <v>82.842600544600046</v>
+      </c>
+      <c r="I10" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D11" s="11">
+        <v>12</v>
+      </c>
+      <c r="E11" s="27">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="2"/>
+        <v>10396.482467530406</v>
+      </c>
+      <c r="H11" s="48">
+        <f t="shared" si="1"/>
+        <v>102.96482467530406</v>
+      </c>
+      <c r="I11" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D12" s="11">
+        <v>12</v>
+      </c>
+      <c r="E12" s="27">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="2"/>
+        <v>12891.638259737703</v>
+      </c>
+      <c r="H12" s="48">
+        <f t="shared" si="1"/>
+        <v>127.91638259737704</v>
+      </c>
+      <c r="I12" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D13" s="11">
+        <v>12</v>
+      </c>
+      <c r="E13" s="27">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="2"/>
+        <v>15985.631442074751</v>
+      </c>
+      <c r="H13" s="48">
+        <f t="shared" si="1"/>
+        <v>158.85631442074751</v>
+      </c>
+      <c r="I13" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D14" s="11">
+        <v>12</v>
+      </c>
+      <c r="E14" s="27">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="2"/>
+        <v>19822.182988172692</v>
+      </c>
+      <c r="H14" s="48">
+        <f t="shared" si="1"/>
+        <v>197.2218298817269</v>
+      </c>
+      <c r="I14" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D15" s="11">
+        <v>12</v>
+      </c>
+      <c r="E15" s="27">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="2"/>
+        <v>24579.506905334136</v>
+      </c>
+      <c r="H15" s="48">
+        <f t="shared" si="1"/>
+        <v>244.79506905334136</v>
+      </c>
+      <c r="I15" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="6">
+        <v>14</v>
+      </c>
+      <c r="C16" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="D16" s="12">
+        <v>12</v>
+      </c>
+      <c r="E16" s="28">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="2"/>
+        <v>30478.588562614328</v>
+      </c>
+      <c r="H16" s="50">
+        <f t="shared" si="1"/>
+        <v>303.78588562614328</v>
+      </c>
+      <c r="I16" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D17" s="11">
+        <v>12</v>
+      </c>
+      <c r="E17" s="27">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="2"/>
+        <v>37793.449817641769</v>
+      </c>
+      <c r="H17" s="48">
+        <f t="shared" si="1"/>
+        <v>376.93449817641772</v>
+      </c>
+      <c r="I17" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D18" s="11">
+        <v>12</v>
+      </c>
+      <c r="E18" s="27">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="2"/>
+        <v>46863.877773875793</v>
+      </c>
+      <c r="H18" s="48">
+        <f t="shared" si="1"/>
+        <v>467.63877773875794</v>
+      </c>
+      <c r="I18" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D19" s="11">
+        <v>12</v>
+      </c>
+      <c r="E19" s="27">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="2"/>
+        <v>58111.20843960598</v>
+      </c>
+      <c r="H19" s="48">
+        <f t="shared" si="1"/>
+        <v>580.1120843960598</v>
+      </c>
+      <c r="I19" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D20" s="11">
+        <v>12</v>
+      </c>
+      <c r="E20" s="27">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="2"/>
+        <v>72057.898465111415</v>
+      </c>
+      <c r="H20" s="48">
+        <f t="shared" si="1"/>
+        <v>719.57898465111418</v>
+      </c>
+      <c r="I20" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D21" s="11">
+        <v>12</v>
+      </c>
+      <c r="E21" s="27">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="2"/>
+        <v>89351.794096738158</v>
+      </c>
+      <c r="H21" s="48">
+        <f t="shared" si="1"/>
+        <v>892.51794096738161</v>
+      </c>
+      <c r="I21" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D22" s="11">
+        <v>12</v>
+      </c>
+      <c r="E22" s="27">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="2"/>
+        <v>110796.22467995531</v>
+      </c>
+      <c r="H22" s="48">
+        <f t="shared" si="1"/>
+        <v>1106.9622467995532</v>
+      </c>
+      <c r="I22" s="52">
+        <v>100</v>
+      </c>
+      <c r="J22" s="78"/>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="6">
+        <v>21</v>
+      </c>
+      <c r="C23" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="D23" s="12">
+        <v>12</v>
+      </c>
+      <c r="E23" s="28">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="2"/>
+        <v>137387.31860314458</v>
+      </c>
+      <c r="H23" s="50">
+        <f t="shared" si="1"/>
+        <v>1372.8731860314458</v>
+      </c>
+      <c r="I23" s="52">
+        <v>100</v>
+      </c>
+      <c r="J23" s="78"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D24" s="11">
+        <v>12</v>
+      </c>
+      <c r="E24" s="27">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="2"/>
+        <v>170360.27506789929</v>
+      </c>
+      <c r="H24" s="48">
+        <f t="shared" si="1"/>
+        <v>1702.6027506789928</v>
+      </c>
+      <c r="I24" s="52">
+        <v>100</v>
+      </c>
+      <c r="J24" s="78"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D25" s="11">
+        <v>10</v>
+      </c>
+      <c r="E25" s="27">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="2"/>
+        <v>204432.33008147916</v>
+      </c>
+      <c r="H25" s="48">
+        <f t="shared" si="1"/>
+        <v>2043.3233008147915</v>
+      </c>
+      <c r="I25" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D26" s="11">
+        <v>10</v>
+      </c>
+      <c r="E26" s="27">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="2"/>
+        <v>245318.79609777499</v>
+      </c>
+      <c r="H26" s="48">
+        <f t="shared" si="1"/>
+        <v>2452.1879609777498</v>
+      </c>
+      <c r="I26" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D27" s="11">
+        <v>8</v>
+      </c>
+      <c r="E27" s="27">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="2"/>
+        <v>284569.80347341899</v>
+      </c>
+      <c r="H27" s="48">
+        <f t="shared" si="1"/>
+        <v>2844.6980347341901</v>
+      </c>
+      <c r="I27" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>26</v>
+      </c>
+      <c r="C28" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D28" s="11">
+        <v>8</v>
+      </c>
+      <c r="E28" s="27">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="2"/>
+        <v>330100.97202916601</v>
+      </c>
+      <c r="H28" s="48">
+        <f t="shared" si="1"/>
+        <v>3300.00972029166</v>
+      </c>
+      <c r="I28" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>27</v>
+      </c>
+      <c r="C29" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D29" s="11">
+        <v>6</v>
+      </c>
+      <c r="E29" s="27">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="2"/>
+        <v>369713.08867266594</v>
+      </c>
+      <c r="H29" s="48">
+        <f t="shared" si="1"/>
+        <v>3696.1308867266594</v>
+      </c>
+      <c r="I29" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>28</v>
+      </c>
+      <c r="C30" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D30" s="11">
+        <v>5</v>
+      </c>
+      <c r="E30" s="27">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" si="2"/>
+        <v>406684.39753993251</v>
+      </c>
+      <c r="H30" s="48">
+        <f t="shared" si="1"/>
+        <v>4065.8439753993252</v>
+      </c>
+      <c r="I30" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1">
+        <v>29</v>
+      </c>
+      <c r="C31" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D31" s="11">
+        <v>5</v>
+      </c>
+      <c r="E31" s="27">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="2"/>
+        <v>447352.83729392575</v>
+      </c>
+      <c r="H31" s="48">
+        <f t="shared" si="1"/>
+        <v>4472.5283729392577</v>
+      </c>
+      <c r="I31" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1">
+        <v>30</v>
+      </c>
+      <c r="C32" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D32" s="11">
+        <v>5</v>
+      </c>
+      <c r="E32" s="27">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" si="2"/>
+        <v>492088.12102331832</v>
+      </c>
+      <c r="H32" s="48">
+        <f t="shared" si="1"/>
+        <v>4919.8812102331831</v>
+      </c>
+      <c r="I32" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <v>31</v>
+      </c>
+      <c r="C33" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D33" s="11">
+        <v>5</v>
+      </c>
+      <c r="E33" s="27">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="F33" s="8">
+        <f t="shared" si="2"/>
+        <v>541296.93312565016</v>
+      </c>
+      <c r="H33" s="48">
+        <f t="shared" si="1"/>
+        <v>5411.9693312565014</v>
+      </c>
+      <c r="I33" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <v>32</v>
+      </c>
+      <c r="C34" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D34" s="11">
+        <v>5</v>
+      </c>
+      <c r="E34" s="27">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="2"/>
+        <v>595426.62643821514</v>
+      </c>
+      <c r="H34" s="48">
+        <f t="shared" si="1"/>
+        <v>5953.2662643821513</v>
+      </c>
+      <c r="I34" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="35">
+        <v>33</v>
+      </c>
+      <c r="C35" s="42">
+        <v>0.02</v>
+      </c>
+      <c r="D35" s="41">
+        <v>4</v>
+      </c>
+      <c r="E35" s="38">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="F35" s="39">
+        <f t="shared" si="2"/>
+        <v>643060.75655327237</v>
+      </c>
+      <c r="G35" s="45">
+        <f t="shared" ref="G35" si="3">F35-F6</f>
+        <v>639514.43591327232</v>
+      </c>
+      <c r="H35" s="50">
+        <f t="shared" si="1"/>
+        <v>6429.607565532724</v>
+      </c>
+      <c r="I35" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1">
+        <v>34</v>
+      </c>
+      <c r="C36" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D36" s="11">
+        <v>4</v>
+      </c>
+      <c r="E36" s="27">
+        <f>C36*D36</f>
+        <v>0.08</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" si="2"/>
+        <v>694505.6170775342</v>
+      </c>
+      <c r="G36" s="44"/>
+      <c r="H36" s="48">
+        <f t="shared" si="1"/>
+        <v>6944.0561707753423</v>
+      </c>
+      <c r="I36" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="1">
+        <v>35</v>
+      </c>
+      <c r="C37" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D37" s="11">
+        <v>4</v>
+      </c>
+      <c r="E37" s="27">
+        <f t="shared" ref="E37:E62" si="4">C37*D37</f>
+        <v>0.08</v>
+      </c>
+      <c r="F37" s="8">
+        <f t="shared" si="2"/>
+        <v>750066.0664437369</v>
+      </c>
+      <c r="H37" s="48">
+        <f t="shared" si="1"/>
+        <v>7499.6606644373687</v>
+      </c>
+      <c r="I37" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="1">
+        <v>36</v>
+      </c>
+      <c r="C38" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D38" s="11">
+        <v>3</v>
+      </c>
+      <c r="E38" s="27">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" si="2"/>
+        <v>795070.03043036116</v>
+      </c>
+      <c r="H38" s="48">
+        <f t="shared" si="1"/>
+        <v>7949.700304303612</v>
+      </c>
+      <c r="I38" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="1">
+        <v>37</v>
+      </c>
+      <c r="C39" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D39" s="11">
+        <v>3</v>
+      </c>
+      <c r="E39" s="27">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="F39" s="8">
+        <f t="shared" si="2"/>
+        <v>842774.23225618282</v>
+      </c>
+      <c r="H39" s="48">
+        <f t="shared" si="1"/>
+        <v>8426.7423225618277</v>
+      </c>
+      <c r="I39" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="1">
+        <v>38</v>
+      </c>
+      <c r="C40" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D40" s="11">
+        <v>3</v>
+      </c>
+      <c r="E40" s="27">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="F40" s="8">
+        <f t="shared" si="2"/>
+        <v>893340.68619155383</v>
+      </c>
+      <c r="H40" s="48">
+        <f t="shared" si="1"/>
+        <v>8932.4068619155387</v>
+      </c>
+      <c r="I40" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1">
+        <v>39</v>
+      </c>
+      <c r="C41" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D41" s="11">
+        <v>3</v>
+      </c>
+      <c r="E41" s="27">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" si="2"/>
+        <v>946941.1273630471</v>
+      </c>
+      <c r="H41" s="48">
+        <f t="shared" si="1"/>
+        <v>9468.4112736304705</v>
+      </c>
+      <c r="I41" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="58">
+        <v>40</v>
+      </c>
+      <c r="C42" s="59">
+        <v>0.02</v>
+      </c>
+      <c r="D42" s="60">
+        <v>3</v>
+      </c>
+      <c r="E42" s="61">
+        <f t="shared" si="4"/>
+        <v>0.06</v>
+      </c>
+      <c r="F42" s="62">
+        <f t="shared" si="2"/>
+        <v>1003757.5950048299</v>
+      </c>
+      <c r="H42" s="48">
+        <f t="shared" si="1"/>
+        <v>10036.5759500483</v>
+      </c>
+      <c r="I42" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1">
+        <v>41</v>
+      </c>
+      <c r="C43" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="8">
+        <f t="shared" si="2"/>
+        <v>1003757.5950048299</v>
+      </c>
+      <c r="H43" s="48">
+        <f t="shared" si="1"/>
+        <v>10036.5759500483</v>
+      </c>
+      <c r="I43" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="1">
+        <v>42</v>
+      </c>
+      <c r="C44" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="8">
+        <f t="shared" si="2"/>
+        <v>1003757.5950048299</v>
+      </c>
+      <c r="H44" s="48">
+        <f t="shared" si="1"/>
+        <v>10036.5759500483</v>
+      </c>
+      <c r="I44" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="1">
+        <v>43</v>
+      </c>
+      <c r="C45" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="8">
+        <f t="shared" si="2"/>
+        <v>1003757.5950048299</v>
+      </c>
+      <c r="H45" s="48">
+        <f t="shared" si="1"/>
+        <v>10036.5759500483</v>
+      </c>
+      <c r="I45" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="1">
+        <v>44</v>
+      </c>
+      <c r="C46" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="8">
+        <f t="shared" si="2"/>
+        <v>1003757.5950048299</v>
+      </c>
+      <c r="H46" s="48">
+        <f t="shared" si="1"/>
+        <v>10036.5759500483</v>
+      </c>
+      <c r="I46" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="1">
+        <v>45</v>
+      </c>
+      <c r="C47" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="8">
+        <f t="shared" si="2"/>
+        <v>1003757.5950048299</v>
+      </c>
+      <c r="H47" s="48">
+        <f t="shared" si="1"/>
+        <v>10036.5759500483</v>
+      </c>
+      <c r="I47" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="1">
+        <v>46</v>
+      </c>
+      <c r="C48" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="8">
+        <f t="shared" si="2"/>
+        <v>1003757.5950048299</v>
+      </c>
+      <c r="H48" s="48">
+        <f t="shared" si="1"/>
+        <v>10036.5759500483</v>
+      </c>
+      <c r="I48" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="6">
+        <v>47</v>
+      </c>
+      <c r="C49" s="26">
+        <v>0.01</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="10">
+        <f t="shared" si="2"/>
+        <v>1003757.5950048299</v>
+      </c>
+      <c r="H49" s="48">
+        <f t="shared" si="1"/>
+        <v>10036.5759500483</v>
+      </c>
+      <c r="I49" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="1">
+        <v>48</v>
+      </c>
+      <c r="C50" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="8">
+        <f t="shared" si="2"/>
+        <v>1003757.5950048299</v>
+      </c>
+      <c r="H50" s="48">
+        <f t="shared" si="1"/>
+        <v>10036.5759500483</v>
+      </c>
+      <c r="I50" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="1">
+        <v>49</v>
+      </c>
+      <c r="C51" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="8">
+        <f t="shared" si="2"/>
+        <v>1003757.5950048299</v>
+      </c>
+      <c r="H51" s="48">
+        <f t="shared" si="1"/>
+        <v>10036.5759500483</v>
+      </c>
+      <c r="I51" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="1">
+        <v>50</v>
+      </c>
+      <c r="C52" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="8">
+        <f t="shared" si="2"/>
+        <v>1003757.5950048299</v>
+      </c>
+      <c r="H52" s="48">
+        <f t="shared" si="1"/>
+        <v>10036.5759500483</v>
+      </c>
+      <c r="I52" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="1">
+        <v>51</v>
+      </c>
+      <c r="C53" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="8">
+        <f t="shared" si="2"/>
+        <v>1003757.5950048299</v>
+      </c>
+      <c r="H53" s="48">
+        <f t="shared" si="1"/>
+        <v>10036.5759500483</v>
+      </c>
+      <c r="I53" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="1">
+        <v>52</v>
+      </c>
+      <c r="C54" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="8">
+        <f t="shared" si="2"/>
+        <v>1003757.5950048299</v>
+      </c>
+      <c r="H54" s="48">
+        <f t="shared" si="1"/>
+        <v>10036.5759500483</v>
+      </c>
+      <c r="I54" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="1">
+        <v>53</v>
+      </c>
+      <c r="C55" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="8">
+        <f t="shared" si="2"/>
+        <v>1003757.5950048299</v>
+      </c>
+      <c r="H55" s="48">
+        <f t="shared" si="1"/>
+        <v>10036.5759500483</v>
+      </c>
+      <c r="I55" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="6">
+        <v>54</v>
+      </c>
+      <c r="C56" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="D56" s="12"/>
+      <c r="E56" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="10">
+        <f t="shared" si="2"/>
+        <v>1003757.5950048299</v>
+      </c>
+      <c r="H56" s="48">
+        <f t="shared" si="1"/>
+        <v>10036.5759500483</v>
+      </c>
+      <c r="I56" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="1">
+        <v>55</v>
+      </c>
+      <c r="C57" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D57" s="11"/>
+      <c r="E57" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="8">
+        <f t="shared" si="2"/>
+        <v>1003757.5950048299</v>
+      </c>
+      <c r="H57" s="48">
+        <f t="shared" si="1"/>
+        <v>10036.5759500483</v>
+      </c>
+      <c r="I57" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="1">
+        <v>56</v>
+      </c>
+      <c r="C58" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D58" s="11"/>
+      <c r="E58" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="8">
+        <f t="shared" si="2"/>
+        <v>1003757.5950048299</v>
+      </c>
+      <c r="H58" s="48">
+        <f t="shared" si="1"/>
+        <v>10036.5759500483</v>
+      </c>
+      <c r="I58" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="1">
+        <v>57</v>
+      </c>
+      <c r="C59" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D59" s="11"/>
+      <c r="E59" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="8">
+        <f t="shared" si="2"/>
+        <v>1003757.5950048299</v>
+      </c>
+      <c r="H59" s="48">
+        <f t="shared" si="1"/>
+        <v>10036.5759500483</v>
+      </c>
+      <c r="I59" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="1">
+        <v>58</v>
+      </c>
+      <c r="C60" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D60" s="11"/>
+      <c r="E60" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F60" s="8">
+        <f t="shared" si="2"/>
+        <v>1003757.5950048299</v>
+      </c>
+      <c r="H60" s="48">
+        <f t="shared" si="1"/>
+        <v>10036.5759500483</v>
+      </c>
+      <c r="I60" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="1">
+        <v>59</v>
+      </c>
+      <c r="C61" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="D61" s="11"/>
+      <c r="E61" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="8">
+        <f t="shared" si="2"/>
+        <v>1003757.5950048299</v>
+      </c>
+      <c r="H61" s="48">
+        <f t="shared" si="1"/>
+        <v>10036.5759500483</v>
+      </c>
+      <c r="I61" s="52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="35">
+        <v>60</v>
+      </c>
+      <c r="C62" s="42">
+        <v>0.02</v>
+      </c>
+      <c r="D62" s="41"/>
+      <c r="E62" s="47">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="57">
+        <f t="shared" si="2"/>
+        <v>1003757.5950048299</v>
+      </c>
+      <c r="G62" s="45">
+        <f>F62-F3</f>
+        <v>1001897.5950048299</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="45"/>
+      <c r="I89" s="51"/>
+      <c r="J89" s="54"/>
+    </row>
+    <row r="119" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="45"/>
+      <c r="I119" s="51"/>
+      <c r="J119" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="J22:J24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2D9EE0-CC6D-4806-BB54-FC0F7D870B93}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:J119"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="44" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="48"/>
+    <col min="9" max="9" width="14.42578125" style="51"/>
+    <col min="10" max="10" width="72.7109375" style="53" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D3" s="11">
+        <v>15</v>
+      </c>
+      <c r="E3" s="27">
+        <f>C3*D3</f>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="F3" s="8">
+        <f>1000+(1000*E3)</f>
+        <v>1225</v>
+      </c>
+      <c r="H3" s="48">
+        <f>(F3-I2)/I2</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="I3" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D4" s="11">
+        <v>15</v>
+      </c>
+      <c r="E4" s="27">
+        <f t="shared" ref="E4:E35" si="0">C4*D4</f>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="F4" s="8">
+        <f>F3+(F3*E4)</f>
+        <v>1500.625</v>
+      </c>
+      <c r="H4" s="48">
+        <f t="shared" ref="H4:H61" si="1">(F4-I3)/I3</f>
+        <v>0.50062499999999999</v>
+      </c>
+      <c r="I4" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D5" s="11">
+        <v>15</v>
+      </c>
+      <c r="E5" s="27">
+        <f t="shared" si="0"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="F5" s="8">
+        <f>F4+(F4*E5)</f>
+        <v>1838.265625</v>
+      </c>
+      <c r="H5" s="48">
+        <f t="shared" si="1"/>
+        <v>0.83826562500000001</v>
+      </c>
+      <c r="I5" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D6" s="11">
+        <v>15</v>
+      </c>
+      <c r="E6" s="27">
+        <f t="shared" si="0"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="F6" s="8">
+        <f>F5+(F5*E6)</f>
+        <v>2251.8753906249999</v>
+      </c>
+      <c r="H6" s="48">
+        <f t="shared" si="1"/>
+        <v>1.251875390625</v>
+      </c>
+      <c r="I6" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D7" s="11">
+        <v>15</v>
+      </c>
+      <c r="E7" s="27">
+        <f t="shared" si="0"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" ref="F7:F62" si="2">F6+(F6*E7)</f>
+        <v>2758.5473535156248</v>
+      </c>
+      <c r="H7" s="48">
+        <f t="shared" si="1"/>
+        <v>1.7585473535156249</v>
+      </c>
+      <c r="I7" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D8" s="11">
+        <v>15</v>
+      </c>
+      <c r="E8" s="27">
+        <f t="shared" si="0"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="2"/>
+        <v>3379.22050805664</v>
+      </c>
+      <c r="H8" s="48">
+        <f t="shared" si="1"/>
+        <v>2.37922050805664</v>
+      </c>
+      <c r="I8" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="58">
+        <v>7</v>
+      </c>
+      <c r="C9" s="59">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D9" s="60">
+        <v>15</v>
+      </c>
+      <c r="E9" s="61">
+        <f t="shared" si="0"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="F9" s="60">
+        <f t="shared" si="2"/>
+        <v>4139.5451223693835</v>
+      </c>
+      <c r="H9" s="50">
+        <f t="shared" si="1"/>
+        <v>3.1395451223693835</v>
+      </c>
+      <c r="I9" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D10" s="11">
+        <v>15</v>
+      </c>
+      <c r="E10" s="27">
+        <f t="shared" si="0"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="2"/>
+        <v>5070.9427749024944</v>
+      </c>
+      <c r="H10" s="48">
+        <f t="shared" si="1"/>
+        <v>4.0709427749024947</v>
+      </c>
+      <c r="I10" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D11" s="11">
+        <v>15</v>
+      </c>
+      <c r="E11" s="27">
+        <f t="shared" si="0"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="2"/>
+        <v>6211.9048992555554</v>
+      </c>
+      <c r="H11" s="48">
+        <f t="shared" si="1"/>
+        <v>5.211904899255555</v>
+      </c>
+      <c r="I11" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D12" s="11">
+        <v>15</v>
+      </c>
+      <c r="E12" s="27">
+        <f t="shared" si="0"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="2"/>
+        <v>7609.5835015880548</v>
+      </c>
+      <c r="H12" s="48">
+        <f t="shared" si="1"/>
+        <v>6.6095835015880544</v>
+      </c>
+      <c r="I12" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D13" s="11">
+        <v>15</v>
+      </c>
+      <c r="E13" s="27">
+        <f t="shared" si="0"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="2"/>
+        <v>9321.7397894453679</v>
+      </c>
+      <c r="H13" s="48">
+        <f t="shared" si="1"/>
+        <v>8.3217397894453686</v>
+      </c>
+      <c r="I13" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D14" s="11">
+        <v>15</v>
+      </c>
+      <c r="E14" s="27">
+        <f t="shared" si="0"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="2"/>
+        <v>11419.131242070576</v>
+      </c>
+      <c r="H14" s="48">
+        <f t="shared" si="1"/>
+        <v>10.419131242070577</v>
+      </c>
+      <c r="I14" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D15" s="11">
+        <v>15</v>
+      </c>
+      <c r="E15" s="27">
+        <f t="shared" si="0"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="2"/>
+        <v>13988.435771536457</v>
+      </c>
+      <c r="H15" s="48">
+        <f t="shared" si="1"/>
+        <v>12.988435771536457</v>
+      </c>
+      <c r="I15" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="6">
+        <v>14</v>
+      </c>
+      <c r="C16" s="26">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D16" s="12">
+        <v>15</v>
+      </c>
+      <c r="E16" s="28">
+        <f t="shared" si="0"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" si="2"/>
+        <v>17135.83382013216</v>
+      </c>
+      <c r="H16" s="50">
+        <f t="shared" si="1"/>
+        <v>16.135833820132159</v>
+      </c>
+      <c r="I16" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D17" s="11">
+        <v>15</v>
+      </c>
+      <c r="E17" s="27">
+        <f t="shared" si="0"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="2"/>
+        <v>20991.396429661894</v>
+      </c>
+      <c r="H17" s="48">
+        <f t="shared" si="1"/>
+        <v>19.991396429661894</v>
+      </c>
+      <c r="I17" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D18" s="11">
+        <v>15</v>
+      </c>
+      <c r="E18" s="27">
+        <f t="shared" si="0"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="2"/>
+        <v>25714.460626335822</v>
+      </c>
+      <c r="H18" s="48">
+        <f t="shared" si="1"/>
+        <v>24.714460626335821</v>
+      </c>
+      <c r="I18" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D19" s="11">
+        <v>15</v>
+      </c>
+      <c r="E19" s="27">
+        <f t="shared" si="0"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="2"/>
+        <v>31500.214267261381</v>
+      </c>
+      <c r="H19" s="48">
+        <f t="shared" si="1"/>
+        <v>30.500214267261381</v>
+      </c>
+      <c r="I19" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D20" s="11">
+        <v>15</v>
+      </c>
+      <c r="E20" s="27">
+        <f t="shared" si="0"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="2"/>
+        <v>38587.76247739519</v>
+      </c>
+      <c r="H20" s="48">
+        <f t="shared" si="1"/>
+        <v>37.587762477395188</v>
+      </c>
+      <c r="I20" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D21" s="11">
+        <v>15</v>
+      </c>
+      <c r="E21" s="27">
+        <f t="shared" si="0"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="2"/>
+        <v>47270.009034809103</v>
+      </c>
+      <c r="H21" s="48">
+        <f t="shared" si="1"/>
+        <v>46.270009034809107</v>
+      </c>
+      <c r="I21" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D22" s="11">
+        <v>15</v>
+      </c>
+      <c r="E22" s="27">
+        <f t="shared" si="0"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="2"/>
+        <v>57905.76106764115</v>
+      </c>
+      <c r="H22" s="48">
+        <f t="shared" si="1"/>
+        <v>56.905761067641151</v>
+      </c>
+      <c r="I22" s="52">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="78"/>
+    </row>
+    <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="6">
+        <v>21</v>
+      </c>
+      <c r="C23" s="26">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D23" s="12">
+        <v>15</v>
+      </c>
+      <c r="E23" s="28">
+        <f t="shared" si="0"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="2"/>
+        <v>70934.557307860407</v>
+      </c>
+      <c r="H23" s="50">
+        <f t="shared" si="1"/>
+        <v>69.934557307860402</v>
+      </c>
+      <c r="I23" s="52">
+        <v>1000</v>
+      </c>
+      <c r="J23" s="78"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D24" s="11">
+        <v>15</v>
+      </c>
+      <c r="E24" s="27">
+        <f t="shared" si="0"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="2"/>
+        <v>86894.832702129002</v>
+      </c>
+      <c r="H24" s="48">
+        <f t="shared" si="1"/>
+        <v>85.894832702129008</v>
+      </c>
+      <c r="I24" s="52">
+        <v>1000</v>
+      </c>
+      <c r="J24" s="78"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D25" s="11">
+        <v>15</v>
+      </c>
+      <c r="E25" s="27">
+        <f t="shared" si="0"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="2"/>
+        <v>106446.17006010802</v>
+      </c>
+      <c r="H25" s="48">
+        <f t="shared" si="1"/>
+        <v>105.44617006010802</v>
+      </c>
+      <c r="I25" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D26" s="11">
+        <v>15</v>
+      </c>
+      <c r="E26" s="27">
+        <f t="shared" si="0"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="2"/>
+        <v>130396.55832363233</v>
+      </c>
+      <c r="H26" s="48">
+        <f t="shared" si="1"/>
+        <v>129.39655832363232</v>
+      </c>
+      <c r="I26" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D27" s="11">
+        <v>15</v>
+      </c>
+      <c r="E27" s="27">
+        <f t="shared" si="0"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="2"/>
+        <v>159735.78394644961</v>
+      </c>
+      <c r="H27" s="48">
+        <f t="shared" si="1"/>
+        <v>158.7357839464496</v>
+      </c>
+      <c r="I27" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>26</v>
+      </c>
+      <c r="C28" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D28" s="11">
+        <v>15</v>
+      </c>
+      <c r="E28" s="27">
+        <f t="shared" si="0"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="2"/>
+        <v>195676.33533440076</v>
+      </c>
+      <c r="H28" s="48">
+        <f t="shared" si="1"/>
+        <v>194.67633533440076</v>
+      </c>
+      <c r="I28" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>27</v>
+      </c>
+      <c r="C29" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D29" s="11">
+        <v>15</v>
+      </c>
+      <c r="E29" s="27">
+        <f t="shared" si="0"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="2"/>
+        <v>239703.51078464094</v>
+      </c>
+      <c r="H29" s="48">
+        <f t="shared" si="1"/>
+        <v>238.70351078464094</v>
+      </c>
+      <c r="I29" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>28</v>
+      </c>
+      <c r="C30" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D30" s="11">
+        <v>12</v>
+      </c>
+      <c r="E30" s="27">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" si="2"/>
+        <v>282850.1427258763</v>
+      </c>
+      <c r="H30" s="48">
+        <f t="shared" si="1"/>
+        <v>281.85014272587631</v>
+      </c>
+      <c r="I30" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1">
+        <v>29</v>
+      </c>
+      <c r="C31" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D31" s="11">
+        <v>12</v>
+      </c>
+      <c r="E31" s="27">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="2"/>
+        <v>333763.16841653403</v>
+      </c>
+      <c r="H31" s="48">
+        <f t="shared" si="1"/>
+        <v>332.76316841653403</v>
+      </c>
+      <c r="I31" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1">
+        <v>30</v>
+      </c>
+      <c r="C32" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D32" s="11">
+        <v>8</v>
+      </c>
+      <c r="E32" s="27">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" si="2"/>
+        <v>373814.74862651812</v>
+      </c>
+      <c r="H32" s="48">
+        <f t="shared" si="1"/>
+        <v>372.81474862651811</v>
+      </c>
+      <c r="I32" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <v>31</v>
+      </c>
+      <c r="C33" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D33" s="11">
+        <v>8</v>
+      </c>
+      <c r="E33" s="27">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="F33" s="8">
+        <f t="shared" si="2"/>
+        <v>418672.5184617003</v>
+      </c>
+      <c r="H33" s="48">
+        <f t="shared" si="1"/>
+        <v>417.67251846170029</v>
+      </c>
+      <c r="I33" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <v>32</v>
+      </c>
+      <c r="C34" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D34" s="11">
+        <v>7</v>
+      </c>
+      <c r="E34" s="27">
+        <f t="shared" si="0"/>
+        <v>0.105</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="2"/>
+        <v>462633.13290017884</v>
+      </c>
+      <c r="H34" s="48">
+        <f t="shared" si="1"/>
+        <v>461.63313290017885</v>
+      </c>
+      <c r="I34" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="58">
+        <v>33</v>
+      </c>
+      <c r="C35" s="59">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D35" s="60">
+        <v>7</v>
+      </c>
+      <c r="E35" s="61">
+        <f t="shared" si="0"/>
+        <v>0.105</v>
+      </c>
+      <c r="F35" s="62">
+        <f t="shared" si="2"/>
+        <v>511209.61185469764</v>
+      </c>
+      <c r="G35" s="45">
+        <f t="shared" ref="G35" si="3">F35-F6</f>
+        <v>508957.73646407266</v>
+      </c>
+      <c r="H35" s="50">
+        <f t="shared" si="1"/>
+        <v>510.20961185469764</v>
+      </c>
+      <c r="I35" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1">
+        <v>34</v>
+      </c>
+      <c r="C36" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="8">
+        <f t="shared" si="2"/>
+        <v>511209.61185469764</v>
+      </c>
+      <c r="G36" s="44"/>
+      <c r="H36" s="48">
+        <f t="shared" si="1"/>
+        <v>510.20961185469764</v>
+      </c>
+      <c r="I36" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="1">
+        <v>35</v>
+      </c>
+      <c r="C37" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="8">
+        <f t="shared" si="2"/>
+        <v>511209.61185469764</v>
+      </c>
+      <c r="H37" s="48">
+        <f t="shared" si="1"/>
+        <v>510.20961185469764</v>
+      </c>
+      <c r="I37" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="1">
+        <v>36</v>
+      </c>
+      <c r="C38" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="8">
+        <f t="shared" si="2"/>
+        <v>511209.61185469764</v>
+      </c>
+      <c r="H38" s="48">
+        <f t="shared" si="1"/>
+        <v>510.20961185469764</v>
+      </c>
+      <c r="I38" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="1">
+        <v>37</v>
+      </c>
+      <c r="C39" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="8">
+        <f t="shared" si="2"/>
+        <v>511209.61185469764</v>
+      </c>
+      <c r="H39" s="48">
+        <f t="shared" si="1"/>
+        <v>510.20961185469764</v>
+      </c>
+      <c r="I39" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="1">
+        <v>38</v>
+      </c>
+      <c r="C40" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="8">
+        <f t="shared" si="2"/>
+        <v>511209.61185469764</v>
+      </c>
+      <c r="H40" s="48">
+        <f t="shared" si="1"/>
+        <v>510.20961185469764</v>
+      </c>
+      <c r="I40" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1">
+        <v>39</v>
+      </c>
+      <c r="C41" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="8">
+        <f t="shared" si="2"/>
+        <v>511209.61185469764</v>
+      </c>
+      <c r="H41" s="48">
+        <f t="shared" si="1"/>
+        <v>510.20961185469764</v>
+      </c>
+      <c r="I41" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="1">
+        <v>40</v>
+      </c>
+      <c r="C42" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="8">
+        <f t="shared" si="2"/>
+        <v>511209.61185469764</v>
+      </c>
+      <c r="H42" s="48">
+        <f t="shared" si="1"/>
+        <v>510.20961185469764</v>
+      </c>
+      <c r="I42" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="1">
+        <v>41</v>
+      </c>
+      <c r="C43" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="8">
+        <f t="shared" si="2"/>
+        <v>511209.61185469764</v>
+      </c>
+      <c r="H43" s="48">
+        <f t="shared" si="1"/>
+        <v>510.20961185469764</v>
+      </c>
+      <c r="I43" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="1">
+        <v>42</v>
+      </c>
+      <c r="C44" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="8">
+        <f t="shared" si="2"/>
+        <v>511209.61185469764</v>
+      </c>
+      <c r="H44" s="48">
+        <f t="shared" si="1"/>
+        <v>510.20961185469764</v>
+      </c>
+      <c r="I44" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="1">
+        <v>43</v>
+      </c>
+      <c r="C45" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="8">
+        <f t="shared" si="2"/>
+        <v>511209.61185469764</v>
+      </c>
+      <c r="H45" s="48">
+        <f t="shared" si="1"/>
+        <v>510.20961185469764</v>
+      </c>
+      <c r="I45" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="1">
+        <v>44</v>
+      </c>
+      <c r="C46" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="8">
+        <f t="shared" si="2"/>
+        <v>511209.61185469764</v>
+      </c>
+      <c r="H46" s="48">
+        <f t="shared" si="1"/>
+        <v>510.20961185469764</v>
+      </c>
+      <c r="I46" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="1">
+        <v>45</v>
+      </c>
+      <c r="C47" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="8">
+        <f t="shared" si="2"/>
+        <v>511209.61185469764</v>
+      </c>
+      <c r="H47" s="48">
+        <f t="shared" si="1"/>
+        <v>510.20961185469764</v>
+      </c>
+      <c r="I47" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="1">
+        <v>46</v>
+      </c>
+      <c r="C48" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="8">
+        <f t="shared" si="2"/>
+        <v>511209.61185469764</v>
+      </c>
+      <c r="H48" s="48">
+        <f t="shared" si="1"/>
+        <v>510.20961185469764</v>
+      </c>
+      <c r="I48" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="6">
+        <v>47</v>
+      </c>
+      <c r="C49" s="26">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="10">
+        <f t="shared" si="2"/>
+        <v>511209.61185469764</v>
+      </c>
+      <c r="H49" s="48">
+        <f t="shared" si="1"/>
+        <v>510.20961185469764</v>
+      </c>
+      <c r="I49" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="1">
+        <v>48</v>
+      </c>
+      <c r="C50" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="8">
+        <f t="shared" si="2"/>
+        <v>511209.61185469764</v>
+      </c>
+      <c r="H50" s="48">
+        <f t="shared" si="1"/>
+        <v>510.20961185469764</v>
+      </c>
+      <c r="I50" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="1">
+        <v>49</v>
+      </c>
+      <c r="C51" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="8">
+        <f t="shared" si="2"/>
+        <v>511209.61185469764</v>
+      </c>
+      <c r="H51" s="48">
+        <f t="shared" si="1"/>
+        <v>510.20961185469764</v>
+      </c>
+      <c r="I51" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="1">
+        <v>50</v>
+      </c>
+      <c r="C52" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="8">
+        <f t="shared" si="2"/>
+        <v>511209.61185469764</v>
+      </c>
+      <c r="H52" s="48">
+        <f t="shared" si="1"/>
+        <v>510.20961185469764</v>
+      </c>
+      <c r="I52" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="1">
+        <v>51</v>
+      </c>
+      <c r="C53" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="8">
+        <f t="shared" si="2"/>
+        <v>511209.61185469764</v>
+      </c>
+      <c r="H53" s="48">
+        <f t="shared" si="1"/>
+        <v>510.20961185469764</v>
+      </c>
+      <c r="I53" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="1">
+        <v>52</v>
+      </c>
+      <c r="C54" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="8">
+        <f t="shared" si="2"/>
+        <v>511209.61185469764</v>
+      </c>
+      <c r="H54" s="48">
+        <f t="shared" si="1"/>
+        <v>510.20961185469764</v>
+      </c>
+      <c r="I54" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="1">
+        <v>53</v>
+      </c>
+      <c r="C55" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="8">
+        <f t="shared" si="2"/>
+        <v>511209.61185469764</v>
+      </c>
+      <c r="H55" s="48">
+        <f t="shared" si="1"/>
+        <v>510.20961185469764</v>
+      </c>
+      <c r="I55" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="6">
+        <v>54</v>
+      </c>
+      <c r="C56" s="26">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D56" s="12"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="10">
+        <f t="shared" si="2"/>
+        <v>511209.61185469764</v>
+      </c>
+      <c r="H56" s="48">
+        <f t="shared" si="1"/>
+        <v>510.20961185469764</v>
+      </c>
+      <c r="I56" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="1">
+        <v>55</v>
+      </c>
+      <c r="C57" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D57" s="11"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="8">
+        <f t="shared" si="2"/>
+        <v>511209.61185469764</v>
+      </c>
+      <c r="H57" s="48">
+        <f t="shared" si="1"/>
+        <v>510.20961185469764</v>
+      </c>
+      <c r="I57" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="1">
+        <v>56</v>
+      </c>
+      <c r="C58" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D58" s="11"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="8">
+        <f t="shared" si="2"/>
+        <v>511209.61185469764</v>
+      </c>
+      <c r="H58" s="48">
+        <f t="shared" si="1"/>
+        <v>510.20961185469764</v>
+      </c>
+      <c r="I58" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="1">
+        <v>57</v>
+      </c>
+      <c r="C59" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D59" s="11"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="8">
+        <f t="shared" si="2"/>
+        <v>511209.61185469764</v>
+      </c>
+      <c r="H59" s="48">
+        <f t="shared" si="1"/>
+        <v>510.20961185469764</v>
+      </c>
+      <c r="I59" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="1">
+        <v>58</v>
+      </c>
+      <c r="C60" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D60" s="11"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="8">
+        <f t="shared" si="2"/>
+        <v>511209.61185469764</v>
+      </c>
+      <c r="H60" s="48">
+        <f t="shared" si="1"/>
+        <v>510.20961185469764</v>
+      </c>
+      <c r="I60" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="1">
+        <v>59</v>
+      </c>
+      <c r="C61" s="23">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D61" s="11"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="8">
+        <f t="shared" si="2"/>
+        <v>511209.61185469764</v>
+      </c>
+      <c r="H61" s="48">
+        <f t="shared" si="1"/>
+        <v>510.20961185469764</v>
+      </c>
+      <c r="I61" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="35">
+        <v>60</v>
+      </c>
+      <c r="C62" s="42">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D62" s="41"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="57">
+        <f t="shared" si="2"/>
+        <v>511209.61185469764</v>
+      </c>
+      <c r="G62" s="45">
+        <f>F62-F3</f>
+        <v>509984.61185469764</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="45"/>
+      <c r="I89" s="51"/>
+      <c r="J89" s="54"/>
+    </row>
+    <row r="119" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="45"/>
+      <c r="I119" s="51"/>
+      <c r="J119" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="J22:J24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B532F46-1B5F-4042-8DB6-0517EDD3C71B}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:J121"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10513,11 +14477,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10540,7 +14504,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="52">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10548,25 +14512,25 @@
         <v>1</v>
       </c>
       <c r="C3" s="23">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D3" s="11">
         <v>15</v>
       </c>
       <c r="E3" s="27">
         <f>C3*D3</f>
-        <v>0.15</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="F3" s="8">
-        <f>100+(100*E3)</f>
-        <v>115</v>
+        <f>1000+(1000*E3)</f>
+        <v>1450</v>
       </c>
       <c r="H3" s="48">
         <f>(F3-I2)/I2</f>
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
       <c r="I3" s="52">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10574,25 +14538,25 @@
         <v>2</v>
       </c>
       <c r="C4" s="23">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D4" s="11">
         <v>15</v>
       </c>
       <c r="E4" s="27">
-        <f t="shared" ref="E4:E35" si="0">C4*D4</f>
-        <v>0.15</v>
+        <f t="shared" ref="E4:E24" si="0">C4*D4</f>
+        <v>0.44999999999999996</v>
       </c>
       <c r="F4" s="8">
         <f>F3+(F3*E4)</f>
-        <v>132.25</v>
+        <v>2102.5</v>
       </c>
       <c r="H4" s="48">
-        <f t="shared" ref="H4:H61" si="1">(F4-I3)/I3</f>
-        <v>0.32250000000000001</v>
+        <f t="shared" ref="H4:H24" si="1">(F4-I3)/I3</f>
+        <v>1.1025</v>
       </c>
       <c r="I4" s="52">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10600,25 +14564,25 @@
         <v>3</v>
       </c>
       <c r="C5" s="23">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D5" s="11">
         <v>15</v>
       </c>
       <c r="E5" s="27">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="F5" s="8">
         <f>F4+(F4*E5)</f>
-        <v>152.08750000000001</v>
+        <v>3048.625</v>
       </c>
       <c r="H5" s="48">
         <f t="shared" si="1"/>
-        <v>0.52087500000000009</v>
+        <v>2.0486249999999999</v>
       </c>
       <c r="I5" s="52">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10626,25 +14590,25 @@
         <v>4</v>
       </c>
       <c r="C6" s="23">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D6" s="11">
         <v>15</v>
       </c>
       <c r="E6" s="27">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="F6" s="8">
         <f>F5+(F5*E6)</f>
-        <v>174.90062499999999</v>
+        <v>4420.5062500000004</v>
       </c>
       <c r="H6" s="48">
         <f t="shared" si="1"/>
-        <v>0.74900624999999987</v>
+        <v>3.4205062500000003</v>
       </c>
       <c r="I6" s="52">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10652,25 +14616,25 @@
         <v>5</v>
       </c>
       <c r="C7" s="23">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D7" s="11">
         <v>15</v>
       </c>
       <c r="E7" s="27">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" ref="F7:F62" si="2">F6+(F6*E7)</f>
-        <v>201.13571875</v>
+        <f t="shared" ref="F7:F24" si="2">F6+(F6*E7)</f>
+        <v>6409.7340625000006</v>
       </c>
       <c r="H7" s="48">
         <f t="shared" si="1"/>
-        <v>1.0113571875</v>
+        <v>5.409734062500001</v>
       </c>
       <c r="I7" s="52">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10678,25 +14642,25 @@
         <v>6</v>
       </c>
       <c r="C8" s="23">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D8" s="11">
         <v>15</v>
       </c>
       <c r="E8" s="27">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" si="2"/>
-        <v>231.30607656249998</v>
+        <v>9294.1143906249999</v>
       </c>
       <c r="H8" s="48">
         <f t="shared" si="1"/>
-        <v>1.3130607656249997</v>
+        <v>8.2941143906249994</v>
       </c>
       <c r="I8" s="52">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10704,25 +14668,25 @@
         <v>7</v>
       </c>
       <c r="C9" s="26">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D9" s="12">
         <v>15</v>
       </c>
       <c r="E9" s="28">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" si="2"/>
-        <v>266.001988046875</v>
+        <v>13476.46586640625</v>
       </c>
       <c r="H9" s="50">
         <f t="shared" si="1"/>
-        <v>1.66001988046875</v>
+        <v>12.476465866406249</v>
       </c>
       <c r="I9" s="52">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10730,25 +14694,25 @@
         <v>8</v>
       </c>
       <c r="C10" s="23">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D10" s="11">
         <v>15</v>
       </c>
       <c r="E10" s="27">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="2"/>
-        <v>305.90228625390625</v>
+        <v>19540.875506289063</v>
       </c>
       <c r="H10" s="48">
         <f t="shared" si="1"/>
-        <v>2.0590228625390625</v>
+        <v>18.540875506289062</v>
       </c>
       <c r="I10" s="52">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10756,25 +14720,25 @@
         <v>9</v>
       </c>
       <c r="C11" s="23">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D11" s="11">
         <v>15</v>
       </c>
       <c r="E11" s="27">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="F11" s="8">
         <f t="shared" si="2"/>
-        <v>351.78762919199221</v>
+        <v>28334.269484119141</v>
       </c>
       <c r="H11" s="48">
         <f t="shared" si="1"/>
-        <v>2.5178762919199222</v>
+        <v>27.33426948411914</v>
       </c>
       <c r="I11" s="52">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10782,25 +14746,25 @@
         <v>10</v>
       </c>
       <c r="C12" s="23">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D12" s="11">
         <v>15</v>
       </c>
       <c r="E12" s="27">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" si="2"/>
-        <v>404.55577357079102</v>
+        <v>41084.690751972754</v>
       </c>
       <c r="H12" s="48">
         <f t="shared" si="1"/>
-        <v>3.0455577357079102</v>
+        <v>40.084690751972751</v>
       </c>
       <c r="I12" s="52">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10808,25 +14772,25 @@
         <v>11</v>
       </c>
       <c r="C13" s="23">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D13" s="11">
         <v>15</v>
       </c>
       <c r="E13" s="27">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="2"/>
-        <v>465.23913960640965</v>
+        <v>59572.80159036049</v>
       </c>
       <c r="H13" s="48">
         <f t="shared" si="1"/>
-        <v>3.6523913960640964</v>
+        <v>58.572801590360491</v>
       </c>
       <c r="I13" s="52">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10834,25 +14798,25 @@
         <v>12</v>
       </c>
       <c r="C14" s="23">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D14" s="11">
         <v>15</v>
       </c>
       <c r="E14" s="27">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" si="2"/>
-        <v>535.02501054737104</v>
+        <v>86380.562306022708</v>
       </c>
       <c r="H14" s="48">
         <f t="shared" si="1"/>
-        <v>4.3502501054737106</v>
+        <v>85.380562306022711</v>
       </c>
       <c r="I14" s="52">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10860,25 +14824,25 @@
         <v>13</v>
       </c>
       <c r="C15" s="23">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D15" s="11">
         <v>15</v>
       </c>
       <c r="E15" s="27">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="2"/>
-        <v>615.27876212947672</v>
+        <v>125251.81534373292</v>
       </c>
       <c r="H15" s="48">
         <f t="shared" si="1"/>
-        <v>5.1527876212947668</v>
+        <v>124.25181534373291</v>
       </c>
       <c r="I15" s="52">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10886,25 +14850,25 @@
         <v>14</v>
       </c>
       <c r="C16" s="26">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D16" s="12">
         <v>15</v>
       </c>
       <c r="E16" s="28">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="F16" s="12">
         <f t="shared" si="2"/>
-        <v>707.57057644889824</v>
+        <v>181615.13224841273</v>
       </c>
       <c r="H16" s="50">
         <f t="shared" si="1"/>
-        <v>6.0757057644889825</v>
+        <v>180.61513224841272</v>
       </c>
       <c r="I16" s="52">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10912,25 +14876,25 @@
         <v>15</v>
       </c>
       <c r="C17" s="23">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D17" s="11">
         <v>15</v>
       </c>
       <c r="E17" s="27">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="F17" s="8">
         <f t="shared" si="2"/>
-        <v>813.70616291623298</v>
+        <v>263341.94176019845</v>
       </c>
       <c r="H17" s="48">
         <f t="shared" si="1"/>
-        <v>7.1370616291623294</v>
+        <v>262.34194176019844</v>
       </c>
       <c r="I17" s="52">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10938,25 +14902,25 @@
         <v>16</v>
       </c>
       <c r="C18" s="23">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D18" s="11">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E18" s="27">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.36</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" si="2"/>
-        <v>935.76208735366788</v>
+        <v>358145.04079386988</v>
       </c>
       <c r="H18" s="48">
         <f t="shared" si="1"/>
-        <v>8.3576208735366784</v>
+        <v>357.1450407938699</v>
       </c>
       <c r="I18" s="52">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10964,25 +14928,25 @@
         <v>17</v>
       </c>
       <c r="C19" s="23">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D19" s="11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E19" s="27">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="F19" s="8">
         <f t="shared" si="2"/>
-        <v>1076.1264004567181</v>
+        <v>465588.55303203082</v>
       </c>
       <c r="H19" s="48">
         <f t="shared" si="1"/>
-        <v>9.761264004567181</v>
+        <v>464.5885530320308</v>
       </c>
       <c r="I19" s="52">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10990,25 +14954,25 @@
         <v>18</v>
       </c>
       <c r="C20" s="23">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D20" s="11">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E20" s="27">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
       <c r="F20" s="8">
         <f t="shared" si="2"/>
-        <v>1237.5453605252258</v>
+        <v>577329.80575971818</v>
       </c>
       <c r="H20" s="48">
         <f t="shared" si="1"/>
-        <v>11.375453605252257</v>
+        <v>576.32980575971817</v>
       </c>
       <c r="I20" s="52">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11016,25 +14980,25 @@
         <v>19</v>
       </c>
       <c r="C21" s="23">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D21" s="11">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E21" s="27">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="F21" s="8">
         <f t="shared" si="2"/>
-        <v>1423.1771646040097</v>
+        <v>698569.06496925896</v>
       </c>
       <c r="H21" s="48">
         <f t="shared" si="1"/>
-        <v>13.231771646040096</v>
+        <v>697.56906496925899</v>
       </c>
       <c r="I21" s="52">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11042,10 +15006,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="23">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D22" s="11">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E22" s="27">
         <f t="shared" si="0"/>
@@ -11053,1088 +15017,1449 @@
       </c>
       <c r="F22" s="8">
         <f t="shared" si="2"/>
-        <v>1636.6537392946111</v>
+        <v>803354.42471464782</v>
       </c>
       <c r="H22" s="48">
         <f t="shared" si="1"/>
-        <v>15.36653739294611</v>
+        <v>802.35442471464785</v>
       </c>
       <c r="I22" s="52">
-        <v>100</v>
-      </c>
-      <c r="J22" s="69"/>
+        <v>1000</v>
+      </c>
+      <c r="J22" s="78"/>
     </row>
     <row r="23" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="6">
+      <c r="B23" s="1">
         <v>21</v>
       </c>
-      <c r="C23" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="D23" s="12">
-        <v>15</v>
-      </c>
-      <c r="E23" s="28">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="F23" s="12">
-        <f t="shared" si="2"/>
-        <v>1882.1518001888028</v>
-      </c>
-      <c r="H23" s="50">
-        <f t="shared" si="1"/>
-        <v>17.821518001888027</v>
+      <c r="C23" s="23">
+        <v>0.03</v>
+      </c>
+      <c r="D23" s="11">
+        <v>4</v>
+      </c>
+      <c r="E23" s="27">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="F23" s="65">
+        <f t="shared" si="2"/>
+        <v>899756.95568040549</v>
+      </c>
+      <c r="H23" s="48">
+        <f t="shared" si="1"/>
+        <v>898.75695568040544</v>
       </c>
       <c r="I23" s="52">
-        <v>100</v>
-      </c>
-      <c r="J23" s="69"/>
+        <v>1000</v>
+      </c>
+      <c r="J23" s="78"/>
     </row>
     <row r="24" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="1">
+      <c r="B24" s="58">
         <v>22</v>
       </c>
-      <c r="C24" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D24" s="11">
-        <v>15</v>
-      </c>
-      <c r="E24" s="27">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="F24" s="8">
-        <f t="shared" si="2"/>
-        <v>2164.4745702171231</v>
-      </c>
-      <c r="H24" s="48">
-        <f t="shared" si="1"/>
-        <v>20.644745702171232</v>
+      <c r="C24" s="59">
+        <v>0.03</v>
+      </c>
+      <c r="D24" s="60">
+        <v>4</v>
+      </c>
+      <c r="E24" s="61">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="F24" s="64">
+        <f t="shared" si="2"/>
+        <v>1007727.7903620541</v>
+      </c>
+      <c r="H24" s="63">
+        <f t="shared" si="1"/>
+        <v>1006.7277903620542</v>
       </c>
       <c r="I24" s="52">
-        <v>100</v>
-      </c>
-      <c r="J24" s="69"/>
+        <v>1000</v>
+      </c>
+      <c r="J24" s="78"/>
     </row>
     <row r="25" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
         <v>23</v>
       </c>
       <c r="C25" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D25" s="11">
-        <v>15</v>
-      </c>
-      <c r="E25" s="27">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="F25" s="8">
-        <f t="shared" si="2"/>
-        <v>2489.1457557496915</v>
-      </c>
-      <c r="H25" s="48">
-        <f t="shared" si="1"/>
-        <v>23.891457557496913</v>
-      </c>
-      <c r="I25" s="52">
-        <v>100</v>
-      </c>
+        <v>0.03</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="8"/>
+      <c r="I25" s="52"/>
     </row>
     <row r="26" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
         <v>24</v>
       </c>
       <c r="C26" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D26" s="11">
-        <v>15</v>
-      </c>
-      <c r="E26" s="27">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="F26" s="8">
-        <f t="shared" si="2"/>
-        <v>2862.5176191121454</v>
-      </c>
-      <c r="H26" s="48">
-        <f t="shared" si="1"/>
-        <v>27.625176191121454</v>
-      </c>
-      <c r="I26" s="52">
-        <v>100</v>
-      </c>
+        <v>0.03</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="8"/>
+      <c r="I26" s="52"/>
     </row>
     <row r="27" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
         <v>25</v>
       </c>
       <c r="C27" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D27" s="11">
-        <v>15</v>
-      </c>
-      <c r="E27" s="27">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="F27" s="8">
-        <f t="shared" si="2"/>
-        <v>3291.895261978967</v>
-      </c>
-      <c r="H27" s="48">
-        <f t="shared" si="1"/>
-        <v>31.918952619789671</v>
-      </c>
-      <c r="I27" s="52">
-        <v>100</v>
-      </c>
+        <v>0.03</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="8"/>
+      <c r="I27" s="52"/>
     </row>
     <row r="28" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
         <v>26</v>
       </c>
       <c r="C28" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D28" s="11">
-        <v>15</v>
-      </c>
-      <c r="E28" s="27">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="F28" s="8">
-        <f t="shared" si="2"/>
-        <v>3785.6795512758122</v>
-      </c>
-      <c r="H28" s="48">
-        <f t="shared" si="1"/>
-        <v>36.856795512758119</v>
-      </c>
-      <c r="I28" s="52">
-        <v>100</v>
-      </c>
+        <v>0.03</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="8"/>
+      <c r="I28" s="52"/>
     </row>
     <row r="29" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
         <v>27</v>
       </c>
       <c r="C29" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D29" s="11">
-        <v>15</v>
-      </c>
-      <c r="E29" s="27">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="F29" s="8">
-        <f t="shared" si="2"/>
-        <v>4353.5314839671837</v>
-      </c>
-      <c r="H29" s="48">
-        <f t="shared" si="1"/>
-        <v>42.535314839671834</v>
-      </c>
-      <c r="I29" s="52">
-        <v>100</v>
-      </c>
+        <v>0.03</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="8"/>
+      <c r="I29" s="52"/>
     </row>
     <row r="30" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
         <v>28</v>
       </c>
       <c r="C30" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D30" s="11">
-        <v>15</v>
-      </c>
-      <c r="E30" s="27">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="F30" s="8">
-        <f t="shared" si="2"/>
-        <v>5006.5612065622608</v>
-      </c>
-      <c r="H30" s="48">
-        <f t="shared" si="1"/>
-        <v>49.065612065622609</v>
-      </c>
-      <c r="I30" s="52">
-        <v>100</v>
-      </c>
+        <v>0.03</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="8"/>
+      <c r="I30" s="52"/>
     </row>
     <row r="31" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="1">
-        <v>29</v>
-      </c>
-      <c r="C31" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D31" s="11">
-        <v>15</v>
-      </c>
-      <c r="E31" s="27">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="F31" s="8">
-        <f t="shared" si="2"/>
-        <v>5757.5453875466001</v>
-      </c>
-      <c r="H31" s="48">
-        <f t="shared" si="1"/>
-        <v>56.575453875466003</v>
-      </c>
-      <c r="I31" s="52">
-        <v>100</v>
-      </c>
+      <c r="B31" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
     </row>
     <row r="32" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="1">
-        <v>30</v>
-      </c>
-      <c r="C32" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D32" s="11">
-        <v>15</v>
-      </c>
-      <c r="E32" s="27">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="F32" s="8">
-        <f t="shared" si="2"/>
-        <v>6621.1771956785897</v>
-      </c>
-      <c r="H32" s="48">
-        <f t="shared" si="1"/>
-        <v>65.211771956785896</v>
-      </c>
-      <c r="I32" s="52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="1">
-        <v>31</v>
-      </c>
-      <c r="C33" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D33" s="11">
-        <v>15</v>
-      </c>
-      <c r="E33" s="27">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="F33" s="8">
-        <f t="shared" si="2"/>
-        <v>7614.3537750303785</v>
-      </c>
-      <c r="H33" s="48">
-        <f t="shared" si="1"/>
-        <v>75.143537750303778</v>
-      </c>
-      <c r="I33" s="52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="1">
-        <v>32</v>
-      </c>
-      <c r="C34" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D34" s="11">
-        <v>15</v>
-      </c>
-      <c r="E34" s="27">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="F34" s="8">
-        <f t="shared" si="2"/>
-        <v>8756.5068412849359</v>
-      </c>
-      <c r="H34" s="48">
-        <f t="shared" si="1"/>
-        <v>86.565068412849357</v>
-      </c>
-      <c r="I34" s="52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="35">
-        <v>33</v>
-      </c>
-      <c r="C35" s="42">
-        <v>0.01</v>
-      </c>
-      <c r="D35" s="41">
-        <v>15</v>
-      </c>
-      <c r="E35" s="38">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-      <c r="F35" s="39">
-        <f t="shared" si="2"/>
-        <v>10069.982867477676</v>
-      </c>
-      <c r="G35" s="45">
-        <f t="shared" ref="G35" si="3">F35-F6</f>
-        <v>9895.0822424776761</v>
-      </c>
-      <c r="H35" s="50">
-        <f t="shared" si="1"/>
-        <v>99.699828674776768</v>
-      </c>
-      <c r="I35" s="52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="1">
-        <v>34</v>
-      </c>
-      <c r="C36" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D36" s="11">
-        <v>15</v>
-      </c>
-      <c r="E36" s="27">
-        <f>C36*D36</f>
-        <v>0.15</v>
-      </c>
-      <c r="F36" s="8">
-        <f t="shared" si="2"/>
-        <v>11580.480297599328</v>
-      </c>
-      <c r="G36" s="44"/>
-      <c r="H36" s="48">
-        <f t="shared" si="1"/>
-        <v>114.80480297599328</v>
-      </c>
-      <c r="I36" s="52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="1">
-        <v>35</v>
-      </c>
-      <c r="C37" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D37" s="11">
-        <v>15</v>
-      </c>
-      <c r="E37" s="27">
-        <f t="shared" ref="E37:E62" si="4">C37*D37</f>
-        <v>0.15</v>
-      </c>
-      <c r="F37" s="8">
-        <f t="shared" si="2"/>
-        <v>13317.552342239227</v>
-      </c>
-      <c r="H37" s="48">
-        <f t="shared" si="1"/>
-        <v>132.17552342239227</v>
-      </c>
-      <c r="I37" s="52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="1">
-        <v>36</v>
-      </c>
-      <c r="C38" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D38" s="11">
-        <v>15</v>
-      </c>
-      <c r="E38" s="27">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="F38" s="8">
-        <f t="shared" si="2"/>
-        <v>15315.185193575111</v>
-      </c>
-      <c r="H38" s="48">
-        <f t="shared" si="1"/>
-        <v>152.1518519357511</v>
-      </c>
-      <c r="I38" s="52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="1">
-        <v>37</v>
-      </c>
-      <c r="C39" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D39" s="11">
-        <v>15</v>
-      </c>
-      <c r="E39" s="27">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="F39" s="8">
-        <f t="shared" si="2"/>
-        <v>17612.462972611378</v>
-      </c>
-      <c r="H39" s="48">
-        <f t="shared" si="1"/>
-        <v>175.12462972611377</v>
-      </c>
-      <c r="I39" s="52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="1">
-        <v>38</v>
-      </c>
-      <c r="C40" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D40" s="11">
-        <v>15</v>
-      </c>
-      <c r="E40" s="27">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="F40" s="8">
-        <f t="shared" si="2"/>
-        <v>20254.332418503083</v>
-      </c>
-      <c r="H40" s="48">
-        <f t="shared" si="1"/>
-        <v>201.54332418503083</v>
-      </c>
-      <c r="I40" s="52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="1">
-        <v>39</v>
-      </c>
-      <c r="C41" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D41" s="11">
-        <v>15</v>
-      </c>
-      <c r="E41" s="27">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="F41" s="8">
-        <f t="shared" si="2"/>
-        <v>23292.482281278546</v>
-      </c>
-      <c r="H41" s="48">
-        <f t="shared" si="1"/>
-        <v>231.92482281278546</v>
-      </c>
-      <c r="I41" s="52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="6">
-        <v>40</v>
-      </c>
-      <c r="C42" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="D42" s="12">
-        <v>15</v>
-      </c>
-      <c r="E42" s="28">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="F42" s="10">
-        <f t="shared" si="2"/>
-        <v>26786.354623470328</v>
-      </c>
-      <c r="H42" s="48">
-        <f t="shared" si="1"/>
-        <v>266.86354623470328</v>
-      </c>
-      <c r="I42" s="52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="1">
-        <v>41</v>
-      </c>
-      <c r="C43" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D43" s="11">
-        <v>15</v>
-      </c>
-      <c r="E43" s="27">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="F43" s="8">
-        <f t="shared" si="2"/>
-        <v>30804.307816990877</v>
-      </c>
-      <c r="H43" s="48">
-        <f t="shared" si="1"/>
-        <v>307.04307816990877</v>
-      </c>
-      <c r="I43" s="52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="1">
-        <v>42</v>
-      </c>
-      <c r="C44" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D44" s="11">
-        <v>15</v>
-      </c>
-      <c r="E44" s="27">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="F44" s="8">
-        <f t="shared" si="2"/>
-        <v>35424.953989539506</v>
-      </c>
-      <c r="H44" s="48">
-        <f t="shared" si="1"/>
-        <v>353.24953989539506</v>
-      </c>
-      <c r="I44" s="52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="1">
-        <v>43</v>
-      </c>
-      <c r="C45" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D45" s="11">
-        <v>15</v>
-      </c>
-      <c r="E45" s="27">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="F45" s="8">
-        <f t="shared" si="2"/>
-        <v>40738.697087970431</v>
-      </c>
-      <c r="H45" s="48">
-        <f t="shared" si="1"/>
-        <v>406.38697087970434</v>
-      </c>
-      <c r="I45" s="52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="1">
-        <v>44</v>
-      </c>
-      <c r="C46" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D46" s="11">
-        <v>15</v>
-      </c>
-      <c r="E46" s="27">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="F46" s="8">
-        <f t="shared" si="2"/>
-        <v>46849.501651165992</v>
-      </c>
-      <c r="H46" s="48">
-        <f t="shared" si="1"/>
-        <v>467.49501651165991</v>
-      </c>
-      <c r="I46" s="52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="1">
-        <v>45</v>
-      </c>
-      <c r="C47" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D47" s="11">
-        <v>15</v>
-      </c>
-      <c r="E47" s="27">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="F47" s="8">
-        <f t="shared" si="2"/>
-        <v>53876.926898840888</v>
-      </c>
-      <c r="H47" s="48">
-        <f t="shared" si="1"/>
-        <v>537.76926898840884</v>
-      </c>
-      <c r="I47" s="52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="1">
-        <v>46</v>
-      </c>
-      <c r="C48" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D48" s="11">
-        <v>15</v>
-      </c>
-      <c r="E48" s="27">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="F48" s="8">
-        <f t="shared" si="2"/>
-        <v>61958.465933667023</v>
-      </c>
-      <c r="H48" s="48">
-        <f t="shared" si="1"/>
-        <v>618.58465933667026</v>
-      </c>
-      <c r="I48" s="52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="6">
-        <v>47</v>
-      </c>
-      <c r="C49" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="D49" s="12">
-        <v>15</v>
-      </c>
-      <c r="E49" s="28">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="F49" s="10">
-        <f t="shared" si="2"/>
-        <v>71252.23582371707</v>
-      </c>
-      <c r="H49" s="48">
-        <f t="shared" si="1"/>
-        <v>711.52235823717069</v>
-      </c>
-      <c r="I49" s="52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="1">
-        <v>48</v>
-      </c>
-      <c r="C50" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D50" s="11">
-        <v>15</v>
-      </c>
-      <c r="E50" s="27">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="F50" s="8">
-        <f t="shared" si="2"/>
-        <v>81940.071197274636</v>
-      </c>
-      <c r="H50" s="48">
-        <f t="shared" si="1"/>
-        <v>818.40071197274631</v>
-      </c>
-      <c r="I50" s="52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="1">
-        <v>49</v>
-      </c>
-      <c r="C51" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D51" s="11">
-        <v>15</v>
-      </c>
-      <c r="E51" s="27">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="F51" s="8">
-        <f t="shared" si="2"/>
-        <v>94231.081876865836</v>
-      </c>
-      <c r="H51" s="48">
-        <f t="shared" si="1"/>
-        <v>941.31081876865835</v>
-      </c>
-      <c r="I51" s="52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="1">
-        <v>50</v>
-      </c>
-      <c r="C52" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D52" s="11">
-        <v>15</v>
-      </c>
-      <c r="E52" s="27">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="F52" s="8">
-        <f t="shared" si="2"/>
-        <v>108365.74415839571</v>
-      </c>
-      <c r="H52" s="48">
-        <f t="shared" si="1"/>
-        <v>1082.6574415839571</v>
-      </c>
-      <c r="I52" s="52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="1">
-        <v>51</v>
-      </c>
-      <c r="C53" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D53" s="11">
-        <v>15</v>
-      </c>
-      <c r="E53" s="27">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="F53" s="8">
-        <f t="shared" si="2"/>
-        <v>124620.60578215506</v>
-      </c>
-      <c r="H53" s="48">
-        <f t="shared" si="1"/>
-        <v>1245.2060578215505</v>
-      </c>
-      <c r="I53" s="52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="1">
-        <v>52</v>
-      </c>
-      <c r="C54" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D54" s="11">
-        <v>15</v>
-      </c>
-      <c r="E54" s="27">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="F54" s="8">
-        <f t="shared" si="2"/>
-        <v>143313.69664947831</v>
-      </c>
-      <c r="H54" s="48">
-        <f t="shared" si="1"/>
-        <v>1432.1369664947831</v>
-      </c>
-      <c r="I54" s="52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="1">
-        <v>53</v>
-      </c>
-      <c r="C55" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D55" s="11">
-        <v>15</v>
-      </c>
-      <c r="E55" s="27">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="F55" s="8">
-        <f t="shared" si="2"/>
-        <v>164810.75114690006</v>
-      </c>
-      <c r="H55" s="48">
-        <f t="shared" si="1"/>
-        <v>1647.1075114690007</v>
-      </c>
-      <c r="I55" s="52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="6">
-        <v>54</v>
-      </c>
-      <c r="C56" s="26">
-        <v>0.01</v>
-      </c>
-      <c r="D56" s="12">
-        <v>15</v>
-      </c>
-      <c r="E56" s="28">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="F56" s="10">
-        <f t="shared" si="2"/>
-        <v>189532.36381893506</v>
-      </c>
-      <c r="H56" s="48">
-        <f t="shared" si="1"/>
-        <v>1894.3236381893505</v>
-      </c>
-      <c r="I56" s="52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="1">
-        <v>55</v>
-      </c>
-      <c r="C57" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D57" s="11">
-        <v>15</v>
-      </c>
-      <c r="E57" s="27">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="F57" s="8">
-        <f t="shared" si="2"/>
-        <v>217962.21839177533</v>
-      </c>
-      <c r="H57" s="48">
-        <f t="shared" si="1"/>
-        <v>2178.6221839177533</v>
-      </c>
-      <c r="I57" s="52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="1">
-        <v>56</v>
-      </c>
-      <c r="C58" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D58" s="11">
-        <v>15</v>
-      </c>
-      <c r="E58" s="27">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="F58" s="8">
-        <f t="shared" si="2"/>
-        <v>250656.55115054164</v>
-      </c>
-      <c r="H58" s="48">
-        <f t="shared" si="1"/>
-        <v>2505.5655115054165</v>
-      </c>
-      <c r="I58" s="52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="1">
-        <v>57</v>
-      </c>
-      <c r="C59" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D59" s="11">
-        <v>15</v>
-      </c>
-      <c r="E59" s="27">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="F59" s="8">
-        <f t="shared" si="2"/>
-        <v>288255.03382312285</v>
-      </c>
-      <c r="H59" s="48">
-        <f t="shared" si="1"/>
-        <v>2881.5503382312286</v>
-      </c>
-      <c r="I59" s="52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="1">
-        <v>58</v>
-      </c>
-      <c r="C60" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D60" s="11">
-        <v>15</v>
-      </c>
-      <c r="E60" s="27">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="F60" s="8">
-        <f t="shared" si="2"/>
-        <v>331493.28889659129</v>
-      </c>
-      <c r="H60" s="48">
-        <f t="shared" si="1"/>
-        <v>3313.9328889659128</v>
-      </c>
-      <c r="I60" s="52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="1">
-        <v>59</v>
-      </c>
-      <c r="C61" s="23">
-        <v>0.01</v>
-      </c>
-      <c r="D61" s="11">
-        <v>15</v>
-      </c>
-      <c r="E61" s="27">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="F61" s="8">
-        <f t="shared" si="2"/>
-        <v>381217.28223108</v>
-      </c>
-      <c r="H61" s="48">
-        <f t="shared" si="1"/>
-        <v>3811.1728223107998</v>
-      </c>
-      <c r="I61" s="52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="35">
-        <v>60</v>
-      </c>
-      <c r="C62" s="42">
-        <v>0.01</v>
-      </c>
-      <c r="D62" s="41">
-        <v>15</v>
-      </c>
-      <c r="E62" s="47">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="F62" s="57">
-        <f t="shared" si="2"/>
-        <v>438399.87456574198</v>
-      </c>
-      <c r="G62" s="45">
-        <f>F62-F3</f>
-        <v>438284.87456574198</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="45"/>
-      <c r="I89" s="51"/>
-      <c r="J89" s="54"/>
-    </row>
-    <row r="119" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="45"/>
-      <c r="I119" s="51"/>
-      <c r="J119" s="54"/>
+      <c r="F32" s="32"/>
+    </row>
+    <row r="61" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="45"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="54"/>
+    </row>
+    <row r="91" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="45"/>
+      <c r="I91" s="51"/>
+      <c r="J91" s="54"/>
+    </row>
+    <row r="121" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="45"/>
+      <c r="I121" s="51"/>
+      <c r="J121" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="J22:J24"/>
+    <mergeCell ref="B31:F31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4626CD71-A75A-46BD-9106-26B6DF5797B2}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:J121"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="48"/>
+    <col min="9" max="9" width="14.42578125" style="51"/>
+    <col min="10" max="10" width="72.7109375" style="53" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="11">
+        <v>15</v>
+      </c>
+      <c r="E3" s="27">
+        <f>C3*D3</f>
+        <v>0.75</v>
+      </c>
+      <c r="F3" s="8">
+        <f>1000+(1000*E3)</f>
+        <v>1750</v>
+      </c>
+      <c r="H3" s="48">
+        <f>(F3-I2)/I2</f>
+        <v>0.75</v>
+      </c>
+      <c r="I3" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="11">
+        <v>15</v>
+      </c>
+      <c r="E4" s="27">
+        <f t="shared" ref="E4:E16" si="0">C4*D4</f>
+        <v>0.75</v>
+      </c>
+      <c r="F4" s="8">
+        <f>F3+(F3*E4)</f>
+        <v>3062.5</v>
+      </c>
+      <c r="H4" s="48">
+        <f t="shared" ref="H4:H16" si="1">(F4-I3)/I3</f>
+        <v>2.0625</v>
+      </c>
+      <c r="I4" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="11">
+        <v>15</v>
+      </c>
+      <c r="E5" s="27">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="F5" s="8">
+        <f>F4+(F4*E5)</f>
+        <v>5359.375</v>
+      </c>
+      <c r="H5" s="48">
+        <f t="shared" si="1"/>
+        <v>4.359375</v>
+      </c>
+      <c r="I5" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="11">
+        <v>15</v>
+      </c>
+      <c r="E6" s="27">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="F6" s="8">
+        <f>F5+(F5*E6)</f>
+        <v>9378.90625</v>
+      </c>
+      <c r="H6" s="48">
+        <f t="shared" si="1"/>
+        <v>8.37890625</v>
+      </c>
+      <c r="I6" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="11">
+        <v>15</v>
+      </c>
+      <c r="E7" s="27">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" ref="F7:F16" si="2">F6+(F6*E7)</f>
+        <v>16413.0859375</v>
+      </c>
+      <c r="H7" s="48">
+        <f t="shared" si="1"/>
+        <v>15.4130859375</v>
+      </c>
+      <c r="I7" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D8" s="11">
+        <v>15</v>
+      </c>
+      <c r="E8" s="27">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="2"/>
+        <v>28722.900390625</v>
+      </c>
+      <c r="H8" s="48">
+        <f t="shared" si="1"/>
+        <v>27.722900390625</v>
+      </c>
+      <c r="I8" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="6">
+        <v>7</v>
+      </c>
+      <c r="C9" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="D9" s="12">
+        <v>15</v>
+      </c>
+      <c r="E9" s="28">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="2"/>
+        <v>50265.07568359375</v>
+      </c>
+      <c r="H9" s="50">
+        <f t="shared" si="1"/>
+        <v>49.26507568359375</v>
+      </c>
+      <c r="I9" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D10" s="11">
+        <v>15</v>
+      </c>
+      <c r="E10" s="27">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="2"/>
+        <v>87963.882446289063</v>
+      </c>
+      <c r="H10" s="48">
+        <f t="shared" si="1"/>
+        <v>86.963882446289063</v>
+      </c>
+      <c r="I10" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D11" s="11">
+        <v>15</v>
+      </c>
+      <c r="E11" s="27">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="2"/>
+        <v>153936.79428100586</v>
+      </c>
+      <c r="H11" s="48">
+        <f t="shared" si="1"/>
+        <v>152.93679428100586</v>
+      </c>
+      <c r="I11" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="11">
+        <v>15</v>
+      </c>
+      <c r="E12" s="27">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="2"/>
+        <v>269389.38999176025</v>
+      </c>
+      <c r="H12" s="48">
+        <f t="shared" si="1"/>
+        <v>268.38938999176025</v>
+      </c>
+      <c r="I12" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="11">
+        <v>11</v>
+      </c>
+      <c r="E13" s="27">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="2"/>
+        <v>417553.55448722839</v>
+      </c>
+      <c r="H13" s="48">
+        <f t="shared" si="1"/>
+        <v>416.55355448722838</v>
+      </c>
+      <c r="I13" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="11">
+        <v>11</v>
+      </c>
+      <c r="E14" s="27">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="2"/>
+        <v>647208.00945520401</v>
+      </c>
+      <c r="H14" s="48">
+        <f t="shared" si="1"/>
+        <v>646.20800945520398</v>
+      </c>
+      <c r="I14" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D15" s="11">
+        <v>10</v>
+      </c>
+      <c r="E15" s="27">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="2"/>
+        <v>970812.01418280602</v>
+      </c>
+      <c r="H15" s="48">
+        <f t="shared" si="1"/>
+        <v>969.81201418280602</v>
+      </c>
+      <c r="I15" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="58">
+        <v>14</v>
+      </c>
+      <c r="C16" s="59">
+        <v>0.05</v>
+      </c>
+      <c r="D16" s="60">
+        <v>3</v>
+      </c>
+      <c r="E16" s="61">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="F16" s="60">
+        <f t="shared" si="2"/>
+        <v>1116433.8163102269</v>
+      </c>
+      <c r="H16" s="63">
+        <f t="shared" si="1"/>
+        <v>1115.433816310227</v>
+      </c>
+      <c r="I16" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="8"/>
+      <c r="I17" s="52"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="8"/>
+      <c r="I18" s="52"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="8"/>
+      <c r="I19" s="52"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="8"/>
+      <c r="I20" s="52"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="8"/>
+      <c r="I21" s="52"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="8"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="78"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>21</v>
+      </c>
+      <c r="C23" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="65"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="78"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="19"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="78"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="8"/>
+      <c r="I25" s="52"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="8"/>
+      <c r="I26" s="52"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="8"/>
+      <c r="I27" s="52"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>26</v>
+      </c>
+      <c r="C28" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="8"/>
+      <c r="I28" s="52"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>27</v>
+      </c>
+      <c r="C29" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="8"/>
+      <c r="I29" s="52"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>28</v>
+      </c>
+      <c r="C30" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="8"/>
+      <c r="I30" s="52"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+    </row>
+    <row r="32" spans="1:10" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="51"/>
+    </row>
+    <row r="61" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="45"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="54"/>
+    </row>
+    <row r="91" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="45"/>
+      <c r="I91" s="51"/>
+      <c r="J91" s="54"/>
+    </row>
+    <row r="121" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="45"/>
+      <c r="I121" s="51"/>
+      <c r="J121" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="B31:F31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024E01CD-62A6-4ACD-813C-DFD8718CA823}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:J121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="48"/>
+    <col min="9" max="9" width="14.42578125" style="51"/>
+    <col min="10" max="10" width="72.7109375" style="53" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D3" s="11">
+        <v>20</v>
+      </c>
+      <c r="E3" s="27">
+        <f>C3*D3</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <f>1000+(1000*E3)</f>
+        <v>2000</v>
+      </c>
+      <c r="H3" s="48">
+        <f>(F3-I2)/I2</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="11">
+        <v>20</v>
+      </c>
+      <c r="E4" s="27">
+        <f t="shared" ref="E4:E12" si="0">C4*D4</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <f>F3+(F3*E4)</f>
+        <v>4000</v>
+      </c>
+      <c r="H4" s="48">
+        <f t="shared" ref="H4:H12" si="1">(F4-I3)/I3</f>
+        <v>3</v>
+      </c>
+      <c r="I4" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="11">
+        <v>20</v>
+      </c>
+      <c r="E5" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <f>F4+(F4*E5)</f>
+        <v>8000</v>
+      </c>
+      <c r="H5" s="48">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I5" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="11">
+        <v>20</v>
+      </c>
+      <c r="E6" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <f>F5+(F5*E6)</f>
+        <v>16000</v>
+      </c>
+      <c r="H6" s="48">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="I6" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="D7" s="12">
+        <v>20</v>
+      </c>
+      <c r="E7" s="28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="20">
+        <f t="shared" ref="F7:F12" si="2">F6+(F6*E7)</f>
+        <v>32000</v>
+      </c>
+      <c r="H7" s="50">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="I7" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D8" s="11">
+        <v>20</v>
+      </c>
+      <c r="E8" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="2"/>
+        <v>64000</v>
+      </c>
+      <c r="H8" s="48">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="I8" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="D9" s="19">
+        <v>20</v>
+      </c>
+      <c r="E9" s="29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="2"/>
+        <v>128000</v>
+      </c>
+      <c r="H9" s="48">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="I9" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D10" s="11">
+        <v>20</v>
+      </c>
+      <c r="E10" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="2"/>
+        <v>256000</v>
+      </c>
+      <c r="H10" s="48">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+      <c r="I10" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D11" s="11">
+        <v>20</v>
+      </c>
+      <c r="E11" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="2"/>
+        <v>512000</v>
+      </c>
+      <c r="H11" s="48">
+        <f t="shared" si="1"/>
+        <v>511</v>
+      </c>
+      <c r="I11" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="58">
+        <v>10</v>
+      </c>
+      <c r="C12" s="59">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="60">
+        <v>20</v>
+      </c>
+      <c r="E12" s="61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="60">
+        <f t="shared" si="2"/>
+        <v>1024000</v>
+      </c>
+      <c r="H12" s="63">
+        <f t="shared" si="1"/>
+        <v>1023</v>
+      </c>
+      <c r="I12" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="8"/>
+      <c r="I13" s="52"/>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="8"/>
+      <c r="I14" s="52"/>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="8"/>
+      <c r="I15" s="52"/>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="11"/>
+      <c r="I16" s="52"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="8"/>
+      <c r="I17" s="52"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="8"/>
+      <c r="I18" s="52"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="8"/>
+      <c r="I19" s="52"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="8"/>
+      <c r="I20" s="52"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="8"/>
+      <c r="I21" s="52"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="8"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="78"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>21</v>
+      </c>
+      <c r="C23" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="65"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="78"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="19"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="78"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="8"/>
+      <c r="I25" s="52"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="8"/>
+      <c r="I26" s="52"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="8"/>
+      <c r="I27" s="52"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>26</v>
+      </c>
+      <c r="C28" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="8"/>
+      <c r="I28" s="52"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>27</v>
+      </c>
+      <c r="C29" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="8"/>
+      <c r="I29" s="52"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>28</v>
+      </c>
+      <c r="C30" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="8"/>
+      <c r="I30" s="52"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+    </row>
+    <row r="32" spans="1:10" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="51"/>
+    </row>
+    <row r="61" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="45"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="54"/>
+    </row>
+    <row r="91" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="45"/>
+      <c r="I91" s="51"/>
+      <c r="J91" s="54"/>
+    </row>
+    <row r="121" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="45"/>
+      <c r="I121" s="51"/>
+      <c r="J121" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="B31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12165,11 +16490,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -13954,11 +18279,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16386,11 +20711,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18010,7 +22335,7 @@
   <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18028,11 +22353,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -18981,11 +23306,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -20584,12 +24909,12 @@
       <c r="B86" s="1">
         <v>84</v>
       </c>
-      <c r="C86" s="63" t="s">
+      <c r="C86" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="D86" s="64"/>
-      <c r="E86" s="64"/>
-      <c r="F86" s="65"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="72"/>
+      <c r="F86" s="73"/>
     </row>
     <row r="87" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B87" s="1">
@@ -20677,11 +25002,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
     </row>
     <row r="2" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -22137,12 +26462,12 @@
       <c r="B78" s="1">
         <v>81</v>
       </c>
-      <c r="C78" s="66" t="s">
+      <c r="C78" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="D78" s="67"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="68"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="75"/>
+      <c r="F78" s="76"/>
     </row>
     <row r="79" spans="2:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B79" s="1">
@@ -22258,11 +26583,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -22861,12 +27186,12 @@
       <c r="B33" s="1">
         <v>31</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="76"/>
       <c r="G33" s="32"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -23424,11 +27749,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
     </row>
     <row r="2" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">

--- a/Profits Possibilities .xlsx
+++ b/Profits Possibilities .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4102D8-D488-4E13-B371-969DE639743F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D43B5CD-C414-4FF2-8941-995F9DDFA557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="6" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reality lev 5" sheetId="11" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="M1 Queen" sheetId="16" r:id="rId17"/>
     <sheet name="M1 Qrazy Queen " sheetId="20" r:id="rId18"/>
     <sheet name="M1 Qrazy Queen 2" sheetId="21" r:id="rId19"/>
+    <sheet name="M1 Qrazy Queen 3" sheetId="22" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="52">
   <si>
     <t>Day</t>
   </si>
@@ -488,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -715,6 +716,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -15873,8 +15877,8 @@
   </sheetPr>
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18254,6 +18258,578 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15BF3C7-3E2A-4D43-B8B9-724F5123EE45}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:J121"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="48"/>
+    <col min="9" max="9" width="14.42578125" style="51"/>
+    <col min="10" max="10" width="72.7109375" style="53" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D3" s="11">
+        <v>20</v>
+      </c>
+      <c r="E3" s="27">
+        <f>C3*D3</f>
+        <v>1.5</v>
+      </c>
+      <c r="F3" s="8">
+        <f>1000+(1000*E3)</f>
+        <v>2500</v>
+      </c>
+      <c r="H3" s="48">
+        <f>(F3-I2)/I2</f>
+        <v>1.5</v>
+      </c>
+      <c r="I3" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D4" s="11">
+        <v>20</v>
+      </c>
+      <c r="E4" s="27">
+        <f t="shared" ref="E4:E12" si="0">C4*D4</f>
+        <v>1.5</v>
+      </c>
+      <c r="F4" s="8">
+        <f>F3+(F3*E4)</f>
+        <v>6250</v>
+      </c>
+      <c r="H4" s="48">
+        <f t="shared" ref="H4:H12" si="1">(F4-I3)/I3</f>
+        <v>5.25</v>
+      </c>
+      <c r="I4" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="23">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D5" s="11">
+        <v>20</v>
+      </c>
+      <c r="E5" s="27">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="F5" s="8">
+        <f>F4+(F4*E5)</f>
+        <v>15625</v>
+      </c>
+      <c r="H5" s="48">
+        <f t="shared" si="1"/>
+        <v>14.625</v>
+      </c>
+      <c r="I5" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="23">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D6" s="11">
+        <v>20</v>
+      </c>
+      <c r="E6" s="27">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="8">
+        <f>F5+(F5*E6)</f>
+        <v>39062.5</v>
+      </c>
+      <c r="H6" s="48">
+        <f t="shared" si="1"/>
+        <v>38.0625</v>
+      </c>
+      <c r="I6" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="26">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D7" s="12">
+        <v>20</v>
+      </c>
+      <c r="E7" s="28">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="F7" s="80">
+        <f t="shared" ref="F7:F12" si="2">F6+(F6*E7)</f>
+        <v>97656.25</v>
+      </c>
+      <c r="H7" s="50">
+        <f t="shared" si="1"/>
+        <v>96.65625</v>
+      </c>
+      <c r="I7" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="23">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D8" s="11">
+        <v>20</v>
+      </c>
+      <c r="E8" s="27">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="2"/>
+        <v>244140.625</v>
+      </c>
+      <c r="H8" s="48">
+        <f t="shared" si="1"/>
+        <v>243.140625</v>
+      </c>
+      <c r="I8" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="23">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D9" s="19">
+        <v>15</v>
+      </c>
+      <c r="E9" s="29">
+        <f t="shared" si="0"/>
+        <v>1.05</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="2"/>
+        <v>500488.28125</v>
+      </c>
+      <c r="H9" s="48">
+        <f t="shared" si="1"/>
+        <v>499.48828125</v>
+      </c>
+      <c r="I9" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="58">
+        <v>8</v>
+      </c>
+      <c r="C10" s="59">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D10" s="60">
+        <v>15</v>
+      </c>
+      <c r="E10" s="61">
+        <f t="shared" si="0"/>
+        <v>1.05</v>
+      </c>
+      <c r="F10" s="62">
+        <f t="shared" si="2"/>
+        <v>1026000.9765625</v>
+      </c>
+      <c r="H10" s="63">
+        <f t="shared" si="1"/>
+        <v>1025.0009765625</v>
+      </c>
+      <c r="I10" s="52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="23">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="8"/>
+      <c r="I11" s="52"/>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="23">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="11"/>
+      <c r="I12" s="52"/>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="8"/>
+      <c r="I13" s="52"/>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="8"/>
+      <c r="I14" s="52"/>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="8"/>
+      <c r="I15" s="52"/>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="11"/>
+      <c r="I16" s="52"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="8"/>
+      <c r="I17" s="52"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="8"/>
+      <c r="I18" s="52"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="8"/>
+      <c r="I19" s="52"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="8"/>
+      <c r="I20" s="52"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="8"/>
+      <c r="I21" s="52"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="8"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="78"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>21</v>
+      </c>
+      <c r="C23" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="65"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="78"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="19"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="78"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="8"/>
+      <c r="I25" s="52"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="8"/>
+      <c r="I26" s="52"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="8"/>
+      <c r="I27" s="52"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>26</v>
+      </c>
+      <c r="C28" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="8"/>
+      <c r="I28" s="52"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>27</v>
+      </c>
+      <c r="C29" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="8"/>
+      <c r="I29" s="52"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>28</v>
+      </c>
+      <c r="C30" s="23">
+        <v>0.05</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="8"/>
+      <c r="I30" s="52"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+    </row>
+    <row r="32" spans="1:10" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="51"/>
+    </row>
+    <row r="61" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="45"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="54"/>
+    </row>
+    <row r="91" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="45"/>
+      <c r="I91" s="51"/>
+      <c r="J91" s="54"/>
+    </row>
+    <row r="121" spans="1:10" s="48" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="45"/>
+      <c r="I121" s="51"/>
+      <c r="J121" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="B31:F31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CE0CB4-09BA-4301-904F-6BB13CD7E48D}">
   <sheetPr>
